--- a/ysrs2 ssa/matrixes/X_correlations.xlsx
+++ b/ysrs2 ssa/matrixes/X_correlations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH34"/>
+  <dimension ref="A1:AJ36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -533,6 +533,12 @@
       <c r="AH1" s="1" t="n">
         <v>32</v>
       </c>
+      <c r="AI1" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -542,100 +548,106 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5535223312556055</v>
+        <v>0.6283621765697914</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3729878618890391</v>
+        <v>0.3204116181222016</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2742600624749684</v>
+        <v>0.1600516300288158</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.04172290516698384</v>
+        <v>-0.1436491784022877</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.3094485562893269</v>
+        <v>-0.4415953779833821</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.506795217643097</v>
+        <v>-0.6826518979750406</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.6104515853711893</v>
+        <v>-0.6980180029974095</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.5326621993192198</v>
+        <v>-0.7294953709102947</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.5499743479651774</v>
+        <v>-0.7431619240436254</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.2621537062215132</v>
+        <v>-0.4395577937228188</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.3737152818360326</v>
+        <v>-0.3316884830033103</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.3031615808006011</v>
+        <v>-0.1964231224374326</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.052443316192991</v>
+        <v>-0.0393136794901946</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.06133248971948414</v>
+        <v>-0.1615157867471228</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.2216824828411964</v>
+        <v>0.1035076439476302</v>
       </c>
       <c r="R2" t="n">
-        <v>0.4786643462636701</v>
+        <v>0.3665123237126118</v>
       </c>
       <c r="S2" t="n">
-        <v>0.3898945561191921</v>
+        <v>0.3802272850151787</v>
       </c>
       <c r="T2" t="n">
-        <v>0.3912484544326371</v>
+        <v>0.2794688454190066</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2312679616816793</v>
+        <v>0.0515655386443383</v>
       </c>
       <c r="V2" t="n">
-        <v>0.07575526635172207</v>
+        <v>-0.1230625478813188</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.1402570422821375</v>
+        <v>-0.3840095570551564</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.4616272758894288</v>
+        <v>-0.6086281207314075</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.657820100399727</v>
+        <v>-0.6972697754833908</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.7270392133395537</v>
+        <v>-0.8060034265212851</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.6841147422293994</v>
+        <v>-0.7907690956867672</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.6416550529638717</v>
+        <v>-0.6419921770075613</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.4191227762106763</v>
+        <v>-0.406810489383623</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.09741491337473576</v>
+        <v>-0.03281697828869995</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.1303852457010415</v>
+        <v>0.2912940659225297</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.395960855223506</v>
+        <v>0.4973303804201045</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.6540702222060207</v>
+        <v>0.7094002897365332</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.6525167357384186</v>
+        <v>0.6893023204538372</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.5544712082264761</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.5203100468731471</v>
       </c>
     </row>
     <row r="3">
@@ -643,103 +655,109 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5535223312556055</v>
+        <v>0.6283621765697914</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.606847751583885</v>
+        <v>0.4815034559832071</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4528946884856239</v>
+        <v>0.2224264365892538</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3496525037384624</v>
+        <v>0.08204692877787954</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01851509029339247</v>
+        <v>-0.2306046228246171</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.2904092098432787</v>
+        <v>-0.5958413961753738</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.4593184612958096</v>
+        <v>-0.7032215379548502</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.4676997169796163</v>
+        <v>-0.6915046173537929</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.3941378180670922</v>
+        <v>-0.7180398664901928</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.3743070063220181</v>
+        <v>-0.7298732072514224</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.2171579496972441</v>
+        <v>-0.3965753306586844</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.4081176093589</v>
+        <v>-0.2745685930209199</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.2916698825246435</v>
+        <v>-0.04311588239408463</v>
       </c>
       <c r="P3" t="n">
-        <v>0.04555167996172059</v>
+        <v>0.1330070757086117</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.1614588885752419</v>
+        <v>0.02157267403767534</v>
       </c>
       <c r="R3" t="n">
-        <v>0.3663874303633491</v>
+        <v>0.07419416291704103</v>
       </c>
       <c r="S3" t="n">
-        <v>0.5781685050540686</v>
+        <v>0.3153060585539669</v>
       </c>
       <c r="T3" t="n">
-        <v>0.4964387158168095</v>
+        <v>0.187860852404253</v>
       </c>
       <c r="U3" t="n">
-        <v>0.4898723933044167</v>
+        <v>0.1048179149961575</v>
       </c>
       <c r="V3" t="n">
-        <v>0.3715588179676724</v>
+        <v>-0.06195252254205431</v>
       </c>
       <c r="W3" t="n">
-        <v>0.2298055504979192</v>
+        <v>-0.1667496570347468</v>
       </c>
       <c r="X3" t="n">
-        <v>-0.04599534684165924</v>
+        <v>-0.3817520202899922</v>
       </c>
       <c r="Y3" t="n">
-        <v>-0.4273085285720264</v>
+        <v>-0.5820546108142463</v>
       </c>
       <c r="Z3" t="n">
-        <v>-0.6241568566790544</v>
+        <v>-0.6918198098033047</v>
       </c>
       <c r="AA3" t="n">
-        <v>-0.6692394204838849</v>
+        <v>-0.776885021190114</v>
       </c>
       <c r="AB3" t="n">
-        <v>-0.685211549231064</v>
+        <v>-0.7670460291941079</v>
       </c>
       <c r="AC3" t="n">
-        <v>-0.6490279688749219</v>
+        <v>-0.6071478535280516</v>
       </c>
       <c r="AD3" t="n">
-        <v>-0.4277815265773288</v>
+        <v>-0.2894603810121714</v>
       </c>
       <c r="AE3" t="n">
-        <v>-0.1293575134023531</v>
+        <v>0.1291431154564319</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.1359431358656439</v>
+        <v>0.4321123500367475</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.4350654644288838</v>
+        <v>0.5987909141862204</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.66806868004367</v>
+        <v>0.7502860034669728</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.6980588864449967</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.4978503187260961</v>
       </c>
     </row>
     <row r="4">
@@ -747,103 +765,109 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.3729878618890392</v>
+        <v>0.3204116181222016</v>
       </c>
       <c r="C4" t="n">
-        <v>0.606847751583885</v>
+        <v>0.4815034559832071</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6737005029776031</v>
+        <v>0.5486236278300439</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5144128893843445</v>
+        <v>0.3590359608473208</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3981614392325129</v>
+        <v>0.2747120483415574</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08876514531799852</v>
+        <v>-0.09254071404104729</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.2424640361616471</v>
+        <v>-0.3944849675467693</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.3169554765141396</v>
+        <v>-0.5010970372333757</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.3225267158251815</v>
+        <v>-0.5902385429812813</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.2341252469454921</v>
+        <v>-0.5195391418039532</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.4186390758875372</v>
+        <v>-0.5703691574892351</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.3352152702027403</v>
+        <v>-0.1704575341820929</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.4610802249863064</v>
+        <v>-0.3269698025115703</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.2227173118501544</v>
+        <v>-0.2312439347947339</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.2131178935102437</v>
+        <v>0.07126562723853636</v>
       </c>
       <c r="R4" t="n">
-        <v>0.3621469443359694</v>
+        <v>0.05303378604993901</v>
       </c>
       <c r="S4" t="n">
-        <v>0.5052715661308745</v>
+        <v>0.2249114933260789</v>
       </c>
       <c r="T4" t="n">
-        <v>0.6482394943109134</v>
+        <v>0.509834698180014</v>
       </c>
       <c r="U4" t="n">
-        <v>0.5959256248046571</v>
+        <v>0.3974146497711362</v>
       </c>
       <c r="V4" t="n">
-        <v>0.5912176729007936</v>
+        <v>0.3977542405462401</v>
       </c>
       <c r="W4" t="n">
-        <v>0.4859777250705071</v>
+        <v>0.2668492358445674</v>
       </c>
       <c r="X4" t="n">
-        <v>0.2905797161745006</v>
+        <v>0.120408061243258</v>
       </c>
       <c r="Y4" t="n">
-        <v>-0.0489111647848069</v>
+        <v>-0.09385052063249628</v>
       </c>
       <c r="Z4" t="n">
-        <v>-0.4079744006852739</v>
+        <v>-0.4272139738890009</v>
       </c>
       <c r="AA4" t="n">
-        <v>-0.565539435979299</v>
+        <v>-0.6424882838884834</v>
       </c>
       <c r="AB4" t="n">
-        <v>-0.6753374331228533</v>
+        <v>-0.7148842262876238</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.7221643144301876</v>
+        <v>-0.6883936242099349</v>
       </c>
       <c r="AD4" t="n">
-        <v>-0.7123176238367641</v>
+        <v>-0.6566322562019019</v>
       </c>
       <c r="AE4" t="n">
-        <v>-0.5083563240048929</v>
+        <v>-0.3770978380856166</v>
       </c>
       <c r="AF4" t="n">
-        <v>-0.1627672579137749</v>
+        <v>0.001140748468651286</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.1464683350471313</v>
+        <v>0.2191661252163233</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.4407410542052524</v>
+        <v>0.4591730565330711</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.6769078310661321</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0.6671927780643752</v>
       </c>
     </row>
     <row r="5">
@@ -851,103 +875,109 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2742600624749684</v>
+        <v>0.1600516300288158</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4528946884856239</v>
+        <v>0.2224264365892538</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6737005029776031</v>
+        <v>0.5486236278300439</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7115602867852673</v>
+        <v>0.6078804436045001</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5444829375707305</v>
+        <v>0.4461806350183574</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4395530733328616</v>
+        <v>0.3180985424819781</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1131641777898977</v>
+        <v>0.006221699572579715</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.07510251687311897</v>
+        <v>-0.2660938023016441</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.1398205955513876</v>
+        <v>-0.4432437349905342</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.1071406599343362</v>
+        <v>-0.4454195508789734</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.2381026411363924</v>
+        <v>-0.3821884075021275</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.5311617151655268</v>
+        <v>-0.3906049544650236</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.3695501139965923</v>
+        <v>-0.1669413988611618</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.3412474128028442</v>
+        <v>-0.4030151430100884</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.003706226685203417</v>
+        <v>-0.2484342202349774</v>
       </c>
       <c r="R5" t="n">
-        <v>0.4540660318640601</v>
+        <v>0.08642506450386415</v>
       </c>
       <c r="S5" t="n">
-        <v>0.5509896747331626</v>
+        <v>0.1715347346032492</v>
       </c>
       <c r="T5" t="n">
-        <v>0.6568955731126845</v>
+        <v>0.3768042941488108</v>
       </c>
       <c r="U5" t="n">
-        <v>0.7437908828288184</v>
+        <v>0.5732226673937855</v>
       </c>
       <c r="V5" t="n">
-        <v>0.7074219058083556</v>
+        <v>0.509825508914558</v>
       </c>
       <c r="W5" t="n">
-        <v>0.6958935475795012</v>
+        <v>0.5254781520025598</v>
       </c>
       <c r="X5" t="n">
-        <v>0.5312937145445145</v>
+        <v>0.4160381053477108</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.2665793520292784</v>
+        <v>0.2925377126593822</v>
       </c>
       <c r="Z5" t="n">
-        <v>-0.04562484303593393</v>
+        <v>-0.003559440519855748</v>
       </c>
       <c r="AA5" t="n">
-        <v>-0.3333925820334226</v>
+        <v>-0.4079515532886314</v>
       </c>
       <c r="AB5" t="n">
-        <v>-0.5657736284142976</v>
+        <v>-0.6158001432903836</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0.6917196574658226</v>
+        <v>-0.6643703106829915</v>
       </c>
       <c r="AD5" t="n">
-        <v>-0.7565750486919584</v>
+        <v>-0.7207328267682725</v>
       </c>
       <c r="AE5" t="n">
-        <v>-0.7611854758099927</v>
+        <v>-0.6948475208544836</v>
       </c>
       <c r="AF5" t="n">
-        <v>-0.503128636163929</v>
+        <v>-0.4162397329639783</v>
       </c>
       <c r="AG5" t="n">
-        <v>-0.1181397624061877</v>
+        <v>-0.08816985436110079</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.1796241535155769</v>
+        <v>0.1593958777932545</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.4416637087427868</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0.6597705322887593</v>
       </c>
     </row>
     <row r="6">
@@ -955,103 +985,109 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.04172290516698383</v>
+        <v>-0.1436491784022877</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3496525037384624</v>
+        <v>0.08204692877787954</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5144128893843444</v>
+        <v>0.3590359608473208</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7115602867852672</v>
+        <v>0.6078804436045001</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7314243921235166</v>
+        <v>0.6798226176812332</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6026960584092522</v>
+        <v>0.5313103276954944</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4372488367719654</v>
+        <v>0.3859182152463663</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1782932203890658</v>
+        <v>0.103768859051204</v>
       </c>
       <c r="K6" t="n">
-        <v>0.001660508864791311</v>
+        <v>-0.2239552067903367</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.04688985599935304</v>
+        <v>-0.3130297539085928</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.1606792966149393</v>
+        <v>-0.3437865669771068</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.3672403999987436</v>
+        <v>-0.228035177444553</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.6160847014561784</v>
+        <v>-0.4781949043948097</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.3397655117031068</v>
+        <v>-0.3300140971883966</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.2714039666319299</v>
+        <v>-0.5232542391476528</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1989238301609688</v>
+        <v>-0.1957960888575413</v>
       </c>
       <c r="S6" t="n">
-        <v>0.5265998611614272</v>
+        <v>0.2123192687731354</v>
       </c>
       <c r="T6" t="n">
-        <v>0.580258735276752</v>
+        <v>0.3765892170517404</v>
       </c>
       <c r="U6" t="n">
-        <v>0.6695377752441485</v>
+        <v>0.5129788722122924</v>
       </c>
       <c r="V6" t="n">
-        <v>0.7632119736341398</v>
+        <v>0.6509954377047537</v>
       </c>
       <c r="W6" t="n">
-        <v>0.7425810152768798</v>
+        <v>0.6196843522621099</v>
       </c>
       <c r="X6" t="n">
-        <v>0.715168825743817</v>
+        <v>0.6280793441589635</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.5065077250671888</v>
+        <v>0.538313924672891</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.2447062407962362</v>
+        <v>0.3437554548678348</v>
       </c>
       <c r="AA6" t="n">
-        <v>-0.03649756126819591</v>
+        <v>-0.02389391611411579</v>
       </c>
       <c r="AB6" t="n">
-        <v>-0.3699814915148902</v>
+        <v>-0.3969721221655134</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.6262393063546889</v>
+        <v>-0.5830483142764468</v>
       </c>
       <c r="AD6" t="n">
-        <v>-0.782657102831921</v>
+        <v>-0.7462333862316481</v>
       </c>
       <c r="AE6" t="n">
-        <v>-0.8368514150958918</v>
+        <v>-0.8070820079351431</v>
       </c>
       <c r="AF6" t="n">
-        <v>-0.7920766347814424</v>
+        <v>-0.7566440515725464</v>
       </c>
       <c r="AG6" t="n">
-        <v>-0.4868796224301066</v>
+        <v>-0.5053225048402321</v>
       </c>
       <c r="AH6" t="n">
-        <v>-0.08350956437631465</v>
+        <v>-0.1427191097052166</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.1517551392401467</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.4514295549931718</v>
       </c>
     </row>
     <row r="7">
@@ -1059,103 +1095,109 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.3094485562893269</v>
+        <v>-0.4415953779833822</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01851509029339247</v>
+        <v>-0.230604622824617</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3981614392325129</v>
+        <v>0.2747120483415574</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5444829375707304</v>
+        <v>0.4461806350183574</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7314243921235167</v>
+        <v>0.6798226176812333</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.7592040881350165</v>
+        <v>0.7250316965238638</v>
       </c>
       <c r="I7" t="n">
-        <v>0.60673402905874</v>
+        <v>0.5822880922648631</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4936162996836831</v>
+        <v>0.4725143179141011</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2407538982338981</v>
+        <v>0.1341542460739074</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0977199447299044</v>
+        <v>-0.04529035294736564</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.03343952614847897</v>
+        <v>-0.1155611883514374</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.2149537845616525</v>
+        <v>-0.09091448895539288</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.4000534258586553</v>
+        <v>-0.2727990376153779</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.5815709402417123</v>
+        <v>-0.5996362762670968</v>
       </c>
       <c r="Q7" t="n">
-        <v>-0.2513207374800053</v>
+        <v>-0.4055348440126746</v>
       </c>
       <c r="R7" t="n">
-        <v>-0.05389089663609879</v>
+        <v>-0.4257036205375258</v>
       </c>
       <c r="S7" t="n">
-        <v>0.2967096801118568</v>
+        <v>0.01076045483466342</v>
       </c>
       <c r="T7" t="n">
-        <v>0.5220463349348061</v>
+        <v>0.4565623739999102</v>
       </c>
       <c r="U7" t="n">
-        <v>0.5740528302043154</v>
+        <v>0.5452808528242864</v>
       </c>
       <c r="V7" t="n">
-        <v>0.6836744676819351</v>
+        <v>0.6676310528448912</v>
       </c>
       <c r="W7" t="n">
-        <v>0.7852766362529554</v>
+        <v>0.7676631666509802</v>
       </c>
       <c r="X7" t="n">
-        <v>0.7765108928893517</v>
+        <v>0.7405812351269444</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.7295817618310353</v>
+        <v>0.7562076031759896</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.5076103210687194</v>
+        <v>0.5798127046781418</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.2637709845679352</v>
+        <v>0.2953187936859973</v>
       </c>
       <c r="AB7" t="n">
-        <v>-0.06303177340200496</v>
+        <v>-0.03263841728832555</v>
       </c>
       <c r="AC7" t="n">
-        <v>-0.3990187300755599</v>
+        <v>-0.3247286105949859</v>
       </c>
       <c r="AD7" t="n">
-        <v>-0.6757544724798367</v>
+        <v>-0.623184398038574</v>
       </c>
       <c r="AE7" t="n">
-        <v>-0.8246134840717714</v>
+        <v>-0.7972830335676782</v>
       </c>
       <c r="AF7" t="n">
-        <v>-0.8522704133163852</v>
+        <v>-0.8334232195045819</v>
       </c>
       <c r="AG7" t="n">
-        <v>-0.7709440963494962</v>
+        <v>-0.7935715513774959</v>
       </c>
       <c r="AH7" t="n">
-        <v>-0.4488958064127351</v>
+        <v>-0.5143944282382373</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>-0.1205306925672984</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0.1592286580098558</v>
       </c>
     </row>
     <row r="8">
@@ -1163,103 +1205,109 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.506795217643097</v>
+        <v>-0.6826518979750407</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.2904092098432787</v>
+        <v>-0.5958413961753738</v>
       </c>
       <c r="D8" t="n">
-        <v>0.08876514531799851</v>
+        <v>-0.0925407140410473</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4395530733328616</v>
+        <v>0.3180985424819781</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6026960584092523</v>
+        <v>0.5313103276954942</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7592040881350164</v>
+        <v>0.7250316965238637</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>0.8074457717377719</v>
+        <v>0.8060131001213758</v>
       </c>
       <c r="J8" t="n">
-        <v>0.7348652054288196</v>
+        <v>0.732232435392265</v>
       </c>
       <c r="K8" t="n">
-        <v>0.6105420658204521</v>
+        <v>0.5601202488034187</v>
       </c>
       <c r="L8" t="n">
-        <v>0.4339073267456006</v>
+        <v>0.3515906670361481</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2878461659456609</v>
+        <v>0.2669795848302634</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0535267461996509</v>
+        <v>0.2205514237766707</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.1341074927498593</v>
+        <v>0.03389488684906942</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.297943224684516</v>
+        <v>-0.2924419449327479</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.3953546400988324</v>
+        <v>-0.5630562293048939</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.05016088824553228</v>
+        <v>-0.4048142824807461</v>
       </c>
       <c r="S8" t="n">
-        <v>0.1178172179229625</v>
+        <v>-0.2698322098811053</v>
       </c>
       <c r="T8" t="n">
-        <v>0.3849722660012178</v>
+        <v>0.2158017198558968</v>
       </c>
       <c r="U8" t="n">
-        <v>0.5461994820763586</v>
+        <v>0.5218797753247375</v>
       </c>
       <c r="V8" t="n">
-        <v>0.646750337357186</v>
+        <v>0.6337097862584812</v>
       </c>
       <c r="W8" t="n">
-        <v>0.7755022387291576</v>
+        <v>0.7691579238971703</v>
       </c>
       <c r="X8" t="n">
-        <v>0.893348040704172</v>
+        <v>0.8931189638509923</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.8893047536865526</v>
+        <v>0.9285683111562033</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.8066930809853392</v>
+        <v>0.8893873413834434</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.5921588763466094</v>
+        <v>0.6391267175089003</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.2766541838387976</v>
+        <v>0.33740094189779</v>
       </c>
       <c r="AC8" t="n">
-        <v>-0.01767796727862197</v>
+        <v>0.09790413710280868</v>
       </c>
       <c r="AD8" t="n">
-        <v>-0.3526741695993045</v>
+        <v>-0.2565060051604934</v>
       </c>
       <c r="AE8" t="n">
-        <v>-0.6600178403276179</v>
+        <v>-0.6050763438746967</v>
       </c>
       <c r="AF8" t="n">
-        <v>-0.8124380019462223</v>
+        <v>-0.7947618141800291</v>
       </c>
       <c r="AG8" t="n">
-        <v>-0.8204905888078866</v>
+        <v>-0.8454236671874846</v>
       </c>
       <c r="AH8" t="n">
-        <v>-0.7496546124001919</v>
+        <v>-0.8300335277724258</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>-0.5196008181541829</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>-0.1885386567070492</v>
       </c>
     </row>
     <row r="9">
@@ -1267,103 +1315,109 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.6104515853711892</v>
+        <v>-0.6980180029974096</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.4593184612958096</v>
+        <v>-0.7032215379548502</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.2424640361616471</v>
+        <v>-0.3944849675467693</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1131641777898977</v>
+        <v>0.006221699572579715</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4372488367719654</v>
+        <v>0.3859182152463663</v>
       </c>
       <c r="G9" t="n">
-        <v>0.60673402905874</v>
+        <v>0.5822880922648631</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8074457717377718</v>
+        <v>0.8060131001213757</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="J9" t="n">
-        <v>0.803282388695133</v>
+        <v>0.8264561847743138</v>
       </c>
       <c r="K9" t="n">
-        <v>0.728929924029641</v>
+        <v>0.7230321645024752</v>
       </c>
       <c r="L9" t="n">
-        <v>0.6193246545697589</v>
+        <v>0.6108127157389743</v>
       </c>
       <c r="M9" t="n">
-        <v>0.4677167154132833</v>
+        <v>0.4401215418215006</v>
       </c>
       <c r="N9" t="n">
-        <v>0.2567127503498676</v>
+        <v>0.3637563104102675</v>
       </c>
       <c r="O9" t="n">
-        <v>0.01951753756734922</v>
+        <v>0.1630252314641548</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.1527508415713461</v>
+        <v>-0.1136417473676217</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.3515123375494136</v>
+        <v>-0.4298902560554286</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.2559679757637682</v>
+        <v>-0.5179697903345504</v>
       </c>
       <c r="S9" t="n">
-        <v>-0.008393059698833777</v>
+        <v>-0.2814183905592392</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1246314726391252</v>
+        <v>-0.02620548983844388</v>
       </c>
       <c r="U9" t="n">
-        <v>0.3326640188389658</v>
+        <v>0.3299306559315842</v>
       </c>
       <c r="V9" t="n">
-        <v>0.4960474903006478</v>
+        <v>0.5347607825148264</v>
       </c>
       <c r="W9" t="n">
-        <v>0.6070254939254131</v>
+        <v>0.632731338863419</v>
       </c>
       <c r="X9" t="n">
-        <v>0.7746960225754541</v>
+        <v>0.7731866886777879</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.9041667802534133</v>
+        <v>0.9082296307799859</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.8905991221685499</v>
+        <v>0.9376287715912319</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.8111964470584474</v>
+        <v>0.8480721128269985</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.5709034374276074</v>
+        <v>0.603171683916372</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.2511088004386944</v>
+        <v>0.3370521170200694</v>
       </c>
       <c r="AD9" t="n">
-        <v>-0.05932097182149889</v>
+        <v>0.02288537456880282</v>
       </c>
       <c r="AE9" t="n">
-        <v>-0.400693292267838</v>
+        <v>-0.3608448638779702</v>
       </c>
       <c r="AF9" t="n">
-        <v>-0.7027721853523194</v>
+        <v>-0.6828233043871462</v>
       </c>
       <c r="AG9" t="n">
-        <v>-0.8398654669026314</v>
+        <v>-0.8385461319295405</v>
       </c>
       <c r="AH9" t="n">
-        <v>-0.8132296852611139</v>
+        <v>-0.8507334544207715</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>-0.79823557931352</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>-0.4803697479326687</v>
       </c>
     </row>
     <row r="10">
@@ -1371,103 +1425,109 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.5326621993192198</v>
+        <v>-0.7294953709102947</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.4676997169796163</v>
+        <v>-0.6915046173537929</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.3169554765141396</v>
+        <v>-0.5010970372333757</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.07510251687311897</v>
+        <v>-0.2660938023016441</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1782932203890658</v>
+        <v>0.1037688590512041</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4936162996836831</v>
+        <v>0.4725143179141011</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7348652054288196</v>
+        <v>0.732232435392265</v>
       </c>
       <c r="I10" t="n">
-        <v>0.8032823886951331</v>
+        <v>0.8264561847743138</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.8082410611925026</v>
+        <v>0.8083326242089447</v>
       </c>
       <c r="L10" t="n">
-        <v>0.7365979823760112</v>
+        <v>0.7273336191915921</v>
       </c>
       <c r="M10" t="n">
-        <v>0.5643757563207877</v>
+        <v>0.6358555070890589</v>
       </c>
       <c r="N10" t="n">
-        <v>0.2913306466073057</v>
+        <v>0.4502449747450857</v>
       </c>
       <c r="O10" t="n">
-        <v>0.1320893639152558</v>
+        <v>0.2404446001726953</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.0210670397077271</v>
+        <v>-0.03950613261665255</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.2158576557738462</v>
+        <v>-0.3337382140175054</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.0955353813890412</v>
+        <v>-0.3917736516641863</v>
       </c>
       <c r="S10" t="n">
-        <v>-0.07459786254890016</v>
+        <v>-0.416553482863286</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1647696933486273</v>
+        <v>-0.05432620702383403</v>
       </c>
       <c r="U10" t="n">
-        <v>0.2594192106380308</v>
+        <v>0.1463327578292867</v>
       </c>
       <c r="V10" t="n">
-        <v>0.39467897382295</v>
+        <v>0.3859328377090885</v>
       </c>
       <c r="W10" t="n">
-        <v>0.527572190261463</v>
+        <v>0.5348311099284683</v>
       </c>
       <c r="X10" t="n">
-        <v>0.6107942692722607</v>
+        <v>0.6361429809620552</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.726865806095969</v>
+        <v>0.76729204565183</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.862254541458084</v>
+        <v>0.9067326607371445</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.8668736679404021</v>
+        <v>0.8917822469737381</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.7275885045225694</v>
+        <v>0.8062527887569658</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.4565240355994869</v>
+        <v>0.5678480697183864</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.1127700387105686</v>
+        <v>0.2091113351992457</v>
       </c>
       <c r="AE10" t="n">
-        <v>-0.2183474152726787</v>
+        <v>-0.1425857709570255</v>
       </c>
       <c r="AF10" t="n">
-        <v>-0.5000490627536084</v>
+        <v>-0.5016171942625152</v>
       </c>
       <c r="AG10" t="n">
-        <v>-0.7488757008152966</v>
+        <v>-0.7798228487328289</v>
       </c>
       <c r="AH10" t="n">
-        <v>-0.8129752535902672</v>
+        <v>-0.868747217620202</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>-0.8391861293255353</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>-0.7380733365703938</v>
       </c>
     </row>
     <row r="11">
@@ -1475,103 +1535,109 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.5499743479651774</v>
+        <v>-0.7431619240436254</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.3941378180670921</v>
+        <v>-0.7180398664901927</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.3225267158251816</v>
+        <v>-0.5902385429812813</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.1398205955513876</v>
+        <v>-0.4432437349905342</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001660508864791311</v>
+        <v>-0.2239552067903367</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2407538982338981</v>
+        <v>0.1341542460739074</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6105420658204522</v>
+        <v>0.5601202488034187</v>
       </c>
       <c r="I11" t="n">
-        <v>0.7289299240296411</v>
+        <v>0.7230321645024753</v>
       </c>
       <c r="J11" t="n">
-        <v>0.8082410611925027</v>
+        <v>0.8083326242089448</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>0.8216900431013068</v>
+        <v>0.7973479059433495</v>
       </c>
       <c r="M11" t="n">
-        <v>0.7114931950893509</v>
+        <v>0.7551344295768552</v>
       </c>
       <c r="N11" t="n">
-        <v>0.4050890030695916</v>
+        <v>0.6345147355144402</v>
       </c>
       <c r="O11" t="n">
-        <v>0.1791087331713656</v>
+        <v>0.4084224247301444</v>
       </c>
       <c r="P11" t="n">
-        <v>0.1037541172196753</v>
+        <v>0.1418920137482355</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.05162408820191132</v>
+        <v>-0.1751859109890834</v>
       </c>
       <c r="R11" t="n">
-        <v>0.007794815625776319</v>
+        <v>-0.3215963233829704</v>
       </c>
       <c r="S11" t="n">
-        <v>0.05766576614203443</v>
+        <v>-0.3679476434241132</v>
       </c>
       <c r="T11" t="n">
-        <v>0.1219313542438316</v>
+        <v>-0.284230746296752</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2899839253643253</v>
+        <v>0.00711164190784102</v>
       </c>
       <c r="V11" t="n">
-        <v>0.3344983294284566</v>
+        <v>0.1290677303931364</v>
       </c>
       <c r="W11" t="n">
-        <v>0.4387067983353075</v>
+        <v>0.3097591826587864</v>
       </c>
       <c r="X11" t="n">
-        <v>0.5339873044779021</v>
+        <v>0.4692997094198848</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.5620498476677012</v>
+        <v>0.5781130422931993</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.6841283734338985</v>
+        <v>0.755712287458475</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.8381488418096484</v>
+        <v>0.8975123526490379</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.7811154929952915</v>
+        <v>0.8837706739994622</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.6190569099269271</v>
+        <v>0.8071124459338371</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.3374859188651148</v>
+        <v>0.532397524185353</v>
       </c>
       <c r="AE11" t="n">
-        <v>-0.03688016080118756</v>
+        <v>0.1294677878474727</v>
       </c>
       <c r="AF11" t="n">
-        <v>-0.3066631329409444</v>
+        <v>-0.2172532577631745</v>
       </c>
       <c r="AG11" t="n">
-        <v>-0.5358751492663165</v>
+        <v>-0.5412638064329184</v>
       </c>
       <c r="AH11" t="n">
-        <v>-0.7178545057644684</v>
+        <v>-0.7951814043883416</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>-0.8775403612503444</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>-0.8253179290882875</v>
       </c>
     </row>
     <row r="12">
@@ -1579,103 +1645,109 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.2621537062215132</v>
+        <v>-0.4395577937228188</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.3743070063220181</v>
+        <v>-0.7298732072514224</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.2341252469454921</v>
+        <v>-0.5195391418039532</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.1071406599343362</v>
+        <v>-0.4454195508789734</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.04688985599935303</v>
+        <v>-0.3130297539085929</v>
       </c>
       <c r="G12" t="n">
-        <v>0.09771994472990439</v>
+        <v>-0.04529035294736564</v>
       </c>
       <c r="H12" t="n">
-        <v>0.4339073267456006</v>
+        <v>0.3515906670361481</v>
       </c>
       <c r="I12" t="n">
-        <v>0.6193246545697588</v>
+        <v>0.6108127157389743</v>
       </c>
       <c r="J12" t="n">
-        <v>0.736597982376011</v>
+        <v>0.727333619191592</v>
       </c>
       <c r="K12" t="n">
-        <v>0.8216900431013068</v>
+        <v>0.7973479059433495</v>
       </c>
       <c r="L12" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.7200990675409703</v>
+        <v>0.7879827246467218</v>
       </c>
       <c r="N12" t="n">
-        <v>0.4601302773008597</v>
+        <v>0.7398054552676618</v>
       </c>
       <c r="O12" t="n">
-        <v>0.2172062141343034</v>
+        <v>0.4776132008824134</v>
       </c>
       <c r="P12" t="n">
-        <v>0.1045811209018257</v>
+        <v>0.1378587086592289</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.001429660596517527</v>
+        <v>-0.143811304666393</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1733391470609719</v>
+        <v>-0.1337152410902044</v>
       </c>
       <c r="S12" t="n">
-        <v>0.1620168290201667</v>
+        <v>-0.2507028809620743</v>
       </c>
       <c r="T12" t="n">
-        <v>0.2530618923522978</v>
+        <v>-0.1177798211256646</v>
       </c>
       <c r="U12" t="n">
-        <v>0.3055813822760149</v>
+        <v>-0.03977308507231007</v>
       </c>
       <c r="V12" t="n">
-        <v>0.3861774871264942</v>
+        <v>0.167408949029714</v>
       </c>
       <c r="W12" t="n">
-        <v>0.3980343245483105</v>
+        <v>0.2229128442108216</v>
       </c>
       <c r="X12" t="n">
-        <v>0.4421671872752194</v>
+        <v>0.3535619634107503</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.4514360656243431</v>
+        <v>0.4709431735592088</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.5010315255896061</v>
+        <v>0.5738731580478644</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.6504908897929185</v>
+        <v>0.7088920775680985</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.7413120729732974</v>
+        <v>0.8680086653175391</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.625612050234826</v>
+        <v>0.8453369000479535</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.4335381207355332</v>
+        <v>0.6717930084243172</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.1109633072329659</v>
+        <v>0.3329002770903566</v>
       </c>
       <c r="AF12" t="n">
-        <v>-0.1827389196454562</v>
+        <v>-0.06627681809772398</v>
       </c>
       <c r="AG12" t="n">
-        <v>-0.38733644983305</v>
+        <v>-0.3898503456874753</v>
       </c>
       <c r="AH12" t="n">
-        <v>-0.5269153201961014</v>
+        <v>-0.6088205487964994</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>-0.8152544194881526</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>-0.8112651972996459</v>
       </c>
     </row>
     <row r="13">
@@ -1683,103 +1755,109 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.3737152818360326</v>
+        <v>-0.3316884830033103</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.2171579496972441</v>
+        <v>-0.3965753306586844</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.4186390758875372</v>
+        <v>-0.5703691574892351</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.2381026411363924</v>
+        <v>-0.3821884075021275</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.1606792966149393</v>
+        <v>-0.3437865669771067</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.03343952614847897</v>
+        <v>-0.1155611883514374</v>
       </c>
       <c r="H13" t="n">
-        <v>0.2878461659456609</v>
+        <v>0.2669795848302634</v>
       </c>
       <c r="I13" t="n">
-        <v>0.4677167154132833</v>
+        <v>0.4401215418215006</v>
       </c>
       <c r="J13" t="n">
-        <v>0.5643757563207877</v>
+        <v>0.6358555070890589</v>
       </c>
       <c r="K13" t="n">
-        <v>0.7114931950893509</v>
+        <v>0.7551344295768551</v>
       </c>
       <c r="L13" t="n">
-        <v>0.7200990675409702</v>
+        <v>0.7879827246467218</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.6032137123063637</v>
+        <v>0.717745584264636</v>
       </c>
       <c r="O13" t="n">
-        <v>0.3104022271391106</v>
+        <v>0.5324696866824222</v>
       </c>
       <c r="P13" t="n">
-        <v>0.04274027608189086</v>
+        <v>0.1421132779603795</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.299933599893002</v>
+        <v>-0.3235571634467033</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.06117956984428814</v>
+        <v>-0.09657079293318171</v>
       </c>
       <c r="S13" t="n">
-        <v>0.04495390906514603</v>
+        <v>-0.08963839661664473</v>
       </c>
       <c r="T13" t="n">
-        <v>0.03292857916783089</v>
+        <v>-0.02387351364075379</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1654903088045828</v>
+        <v>0.1441990179675018</v>
       </c>
       <c r="V13" t="n">
-        <v>0.2001872879093557</v>
+        <v>0.1395070130855759</v>
       </c>
       <c r="W13" t="n">
-        <v>0.2813132543245002</v>
+        <v>0.2567565946344977</v>
       </c>
       <c r="X13" t="n">
-        <v>0.3420493102414471</v>
+        <v>0.2742222001927384</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.3783397959234545</v>
+        <v>0.3434913117133543</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.4270153682558887</v>
+        <v>0.4721935625126168</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.4792273835610482</v>
+        <v>0.5337304686727021</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.686724037752208</v>
+        <v>0.7124016674793373</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.7160550228839727</v>
+        <v>0.8406045343639997</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.5320963128333019</v>
+        <v>0.6793009845026016</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.317412206572958</v>
+        <v>0.4346673648269114</v>
       </c>
       <c r="AF13" t="n">
-        <v>-0.02458786472898008</v>
+        <v>0.08388138981626778</v>
       </c>
       <c r="AG13" t="n">
-        <v>-0.3523167027590949</v>
+        <v>-0.3219878294620189</v>
       </c>
       <c r="AH13" t="n">
-        <v>-0.4906731649511272</v>
+        <v>-0.5166597795181248</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>-0.6916964480156921</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>-0.7672219266273753</v>
       </c>
     </row>
     <row r="14">
@@ -1787,103 +1865,109 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.3031615808006011</v>
+        <v>-0.1964231224374326</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.4081176093589</v>
+        <v>-0.2745685930209199</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.3352152702027403</v>
+        <v>-0.1704575341820929</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.5311617151655269</v>
+        <v>-0.3906049544650236</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.3672403999987436</v>
+        <v>-0.228035177444553</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.2149537845616525</v>
+        <v>-0.09091448895539288</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0535267461996509</v>
+        <v>0.2205514237766708</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2567127503498676</v>
+        <v>0.3637563104102675</v>
       </c>
       <c r="J14" t="n">
-        <v>0.2913306466073057</v>
+        <v>0.4502449747450856</v>
       </c>
       <c r="K14" t="n">
-        <v>0.4050890030695916</v>
+        <v>0.6345147355144403</v>
       </c>
       <c r="L14" t="n">
-        <v>0.4601302773008597</v>
+        <v>0.7398054552676618</v>
       </c>
       <c r="M14" t="n">
-        <v>0.6032137123063637</v>
+        <v>0.7177455842646359</v>
       </c>
       <c r="N14" t="n">
         <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>0.5143279154166481</v>
+        <v>0.4583134528385218</v>
       </c>
       <c r="P14" t="n">
-        <v>0.1171843835224227</v>
+        <v>0.1380874237277844</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.4444007173797703</v>
+        <v>-0.3509296406900526</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.4845161856492669</v>
+        <v>-0.2865445369240909</v>
       </c>
       <c r="S14" t="n">
-        <v>-0.3295998378141831</v>
+        <v>-0.01284068784099885</v>
       </c>
       <c r="T14" t="n">
-        <v>-0.2579083482290163</v>
+        <v>0.1832141574300152</v>
       </c>
       <c r="U14" t="n">
-        <v>-0.2107199387541386</v>
+        <v>0.2920615080944197</v>
       </c>
       <c r="V14" t="n">
-        <v>-0.08979307304120024</v>
+        <v>0.3552844672178313</v>
       </c>
       <c r="W14" t="n">
-        <v>-0.04451431865921612</v>
+        <v>0.293699035797248</v>
       </c>
       <c r="X14" t="n">
-        <v>0.1398407428105907</v>
+        <v>0.3530126819994925</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.2529713609958101</v>
+        <v>0.2943592086432419</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.3266663624958252</v>
+        <v>0.3314687899241781</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.3535656109284767</v>
+        <v>0.3941657657598406</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.4980735840280786</v>
+        <v>0.4868762079126774</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.6679097157795251</v>
+        <v>0.6298987060481203</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.6693422957479174</v>
+        <v>0.6241228023422636</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.4967834527927784</v>
+        <v>0.3919188579079172</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.2499321418406802</v>
+        <v>0.158272925379865</v>
       </c>
       <c r="AG14" t="n">
-        <v>-0.1533593006876919</v>
+        <v>-0.1955477014474589</v>
       </c>
       <c r="AH14" t="n">
-        <v>-0.4423259291702268</v>
+        <v>-0.446349685307648</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>-0.5693628619985686</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>-0.5894648538193267</v>
       </c>
     </row>
     <row r="15">
@@ -1891,103 +1975,109 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.052443316192991</v>
+        <v>-0.0393136794901946</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.2916698825246435</v>
+        <v>-0.04311588239408463</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.4610802249863064</v>
+        <v>-0.3269698025115703</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.3695501139965923</v>
+        <v>-0.1669413988611618</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.6160847014561784</v>
+        <v>-0.4781949043948097</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.4000534258586553</v>
+        <v>-0.2727990376153779</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.1341074927498593</v>
+        <v>0.03389488684906942</v>
       </c>
       <c r="I15" t="n">
-        <v>0.01951753756734923</v>
+        <v>0.1630252314641548</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1320893639152558</v>
+        <v>0.2404446001726953</v>
       </c>
       <c r="K15" t="n">
-        <v>0.1791087331713656</v>
+        <v>0.4084224247301444</v>
       </c>
       <c r="L15" t="n">
-        <v>0.2172062141343034</v>
+        <v>0.4776132008824134</v>
       </c>
       <c r="M15" t="n">
-        <v>0.3104022271391106</v>
+        <v>0.5324696866824222</v>
       </c>
       <c r="N15" t="n">
-        <v>0.5143279154166481</v>
+        <v>0.4583134528385218</v>
       </c>
       <c r="O15" t="n">
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>0.4060344613501338</v>
+        <v>0.3846121189647241</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.2263871244182519</v>
+        <v>-0.1498931915379738</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.4803322577181938</v>
+        <v>-0.3782686128189035</v>
       </c>
       <c r="S15" t="n">
-        <v>-0.5807242822133807</v>
+        <v>-0.4210623812615942</v>
       </c>
       <c r="T15" t="n">
-        <v>-0.4024262860895312</v>
+        <v>-0.1451757788755181</v>
       </c>
       <c r="U15" t="n">
-        <v>-0.3270241559025535</v>
+        <v>0.1166929720676879</v>
       </c>
       <c r="V15" t="n">
-        <v>-0.3344324936007561</v>
+        <v>0.04386813686522339</v>
       </c>
       <c r="W15" t="n">
-        <v>-0.2351373723915287</v>
+        <v>0.09605193849496042</v>
       </c>
       <c r="X15" t="n">
-        <v>-0.1628025722962756</v>
+        <v>0.08893596349970118</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.04176536198377741</v>
+        <v>0.1292742133531336</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.1991681542631978</v>
+        <v>0.1864907684724487</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.2680264304448515</v>
+        <v>0.2874012190888135</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.3450265873959503</v>
+        <v>0.3754066607289434</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.4462447911881487</v>
+        <v>0.3737876186789499</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.611474590238442</v>
+        <v>0.5394719535004939</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.6250497777058075</v>
+        <v>0.5511507611814654</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.4518670212487395</v>
+        <v>0.3230514712660819</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.1756685008365318</v>
+        <v>0.1221924320258294</v>
       </c>
       <c r="AH15" t="n">
-        <v>-0.2052268727754797</v>
+        <v>-0.208470064564224</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>-0.5047784422743274</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>-0.5311814762578592</v>
       </c>
     </row>
     <row r="16">
@@ -1995,103 +2085,109 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.06133248971948414</v>
+        <v>-0.1615157867471228</v>
       </c>
       <c r="C16" t="n">
-        <v>0.04555167996172059</v>
+        <v>0.1330070757086117</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.2227173118501544</v>
+        <v>-0.2312439347947339</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.3412474128028443</v>
+        <v>-0.4030151430100885</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.3397655117031068</v>
+        <v>-0.3300140971883966</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.5815709402417123</v>
+        <v>-0.5996362762670968</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.297943224684516</v>
+        <v>-0.2924419449327479</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.1527508415713461</v>
+        <v>-0.1136417473676217</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.0210670397077271</v>
+        <v>-0.03950613261665255</v>
       </c>
       <c r="K16" t="n">
-        <v>0.1037541172196753</v>
+        <v>0.1418920137482355</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1045811209018257</v>
+        <v>0.1378587086592289</v>
       </c>
       <c r="M16" t="n">
-        <v>0.04274027608189086</v>
+        <v>0.1421132779603795</v>
       </c>
       <c r="N16" t="n">
-        <v>0.1171843835224227</v>
+        <v>0.1380874237277844</v>
       </c>
       <c r="O16" t="n">
-        <v>0.4060344613501337</v>
+        <v>0.3846121189647241</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.3079119721522836</v>
+        <v>0.3195321944922441</v>
       </c>
       <c r="R16" t="n">
-        <v>-0.09630577490090163</v>
+        <v>-0.1593308349602125</v>
       </c>
       <c r="S16" t="n">
-        <v>-0.3665422530577422</v>
+        <v>-0.5303070327626558</v>
       </c>
       <c r="T16" t="n">
-        <v>-0.3534548439515831</v>
+        <v>-0.6215300050043275</v>
       </c>
       <c r="U16" t="n">
-        <v>-0.2370752113161075</v>
+        <v>-0.3632465946428531</v>
       </c>
       <c r="V16" t="n">
-        <v>-0.2617105912857483</v>
+        <v>-0.3041378471673084</v>
       </c>
       <c r="W16" t="n">
-        <v>-0.3128797933813683</v>
+        <v>-0.3408092892610262</v>
       </c>
       <c r="X16" t="n">
-        <v>-0.2805705953917648</v>
+        <v>-0.2367416499876003</v>
       </c>
       <c r="Y16" t="n">
-        <v>-0.2695812914206243</v>
+        <v>-0.2362510824613171</v>
       </c>
       <c r="Z16" t="n">
-        <v>-0.02286871561435025</v>
+        <v>-0.03427835118468425</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.1538943932101235</v>
+        <v>0.1427630012593951</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.2096100695873841</v>
+        <v>0.2448818710552747</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.2354996184354995</v>
+        <v>0.2339914100292654</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.3209575136026528</v>
+        <v>0.3173227041809368</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.4883863849808018</v>
+        <v>0.5280554005607037</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.5645990436639086</v>
+        <v>0.5585612186585668</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.4163802021583403</v>
+        <v>0.3954962268802871</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.1810199567748038</v>
+        <v>0.1802850342223194</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>-0.1978856403269897</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>-0.4411132395106912</v>
       </c>
     </row>
     <row r="17">
@@ -2099,103 +2195,109 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.2216824828411963</v>
+        <v>0.1035076439476302</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1614588885752419</v>
+        <v>0.02157267403767534</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2131178935102437</v>
+        <v>0.07126562723853634</v>
       </c>
       <c r="E17" t="n">
-        <v>0.003706226685203416</v>
+        <v>-0.2484342202349774</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.2714039666319299</v>
+        <v>-0.5232542391476528</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.2513207374800053</v>
+        <v>-0.4055348440126747</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.3953546400988323</v>
+        <v>-0.5630562293048939</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.3515123375494136</v>
+        <v>-0.4298902560554286</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.2158576557738462</v>
+        <v>-0.3337382140175054</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.05162408820191132</v>
+        <v>-0.1751859109890834</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.001429660596517527</v>
+        <v>-0.143811304666393</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.299933599893002</v>
+        <v>-0.3235571634467033</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.4444007173797703</v>
+        <v>-0.3509296406900526</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.2263871244182519</v>
+        <v>-0.1498931915379738</v>
       </c>
       <c r="P17" t="n">
-        <v>0.3079119721522836</v>
+        <v>0.3195321944922441</v>
       </c>
       <c r="Q17" t="n">
         <v>0.9999999999999998</v>
       </c>
       <c r="R17" t="n">
-        <v>0.5066196043051344</v>
+        <v>0.3943986149482766</v>
       </c>
       <c r="S17" t="n">
-        <v>0.06773536691607125</v>
+        <v>-0.31446154992847</v>
       </c>
       <c r="T17" t="n">
-        <v>-0.05819161738831641</v>
+        <v>-0.6413217288059085</v>
       </c>
       <c r="U17" t="n">
-        <v>-0.05965440555907576</v>
+        <v>-0.6689743326625001</v>
       </c>
       <c r="V17" t="n">
-        <v>-0.09874922007842059</v>
+        <v>-0.530001577895436</v>
       </c>
       <c r="W17" t="n">
-        <v>-0.1990254765962213</v>
+        <v>-0.5339550737046046</v>
       </c>
       <c r="X17" t="n">
-        <v>-0.3933839491732276</v>
+        <v>-0.5900563637158079</v>
       </c>
       <c r="Y17" t="n">
-        <v>-0.5096359873248912</v>
+        <v>-0.5492173715482899</v>
       </c>
       <c r="Z17" t="n">
-        <v>-0.4422866531934482</v>
+        <v>-0.4524036232104603</v>
       </c>
       <c r="AA17" t="n">
-        <v>-0.1319111380717962</v>
+        <v>-0.1472497122163286</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.01751636492582108</v>
+        <v>0.08136734223081461</v>
       </c>
       <c r="AC17" t="n">
-        <v>-0.04327077381444316</v>
+        <v>0.059733133112291</v>
       </c>
       <c r="AD17" t="n">
-        <v>-0.08466078179930107</v>
+        <v>0.02823743895211579</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.01555545844043194</v>
+        <v>0.1799335957727127</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.3430217326697633</v>
+        <v>0.4887697617015408</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.5276515217892993</v>
+        <v>0.5793032376417138</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.4777383015381164</v>
+        <v>0.475666009405237</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0.2157696383860556</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>-0.08538722500802749</v>
       </c>
     </row>
     <row r="18">
@@ -2203,103 +2305,109 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.4786643462636701</v>
+        <v>0.3665123237126118</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3663874303633491</v>
+        <v>0.07419416291704102</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3621469443359693</v>
+        <v>0.05303378604993902</v>
       </c>
       <c r="E18" t="n">
-        <v>0.4540660318640601</v>
+        <v>0.08642506450386414</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1989238301609687</v>
+        <v>-0.1957960888575413</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.05389089663609879</v>
+        <v>-0.4257036205375258</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.05016088824553227</v>
+        <v>-0.4048142824807461</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.2559679757637682</v>
+        <v>-0.5179697903345505</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.0955353813890412</v>
+        <v>-0.3917736516641863</v>
       </c>
       <c r="K18" t="n">
-        <v>0.007794815625776319</v>
+        <v>-0.3215963233829705</v>
       </c>
       <c r="L18" t="n">
-        <v>0.173339147060972</v>
+        <v>-0.1337152410902044</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.06117956984428814</v>
+        <v>-0.0965707929331817</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.4845161856492669</v>
+        <v>-0.2865445369240908</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.4803322577181938</v>
+        <v>-0.3782686128189035</v>
       </c>
       <c r="P18" t="n">
-        <v>-0.09630577490090164</v>
+        <v>-0.1593308349602125</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.5066196043051345</v>
+        <v>0.3943986149482766</v>
       </c>
       <c r="R18" t="n">
         <v>1</v>
       </c>
       <c r="S18" t="n">
-        <v>0.702369976171885</v>
+        <v>0.4052500248331806</v>
       </c>
       <c r="T18" t="n">
-        <v>0.5081337183307101</v>
+        <v>-0.1802878930997154</v>
       </c>
       <c r="U18" t="n">
-        <v>0.3970404959958479</v>
+        <v>-0.4752096511960145</v>
       </c>
       <c r="V18" t="n">
-        <v>0.3051302309649861</v>
+        <v>-0.3959758252160173</v>
       </c>
       <c r="W18" t="n">
-        <v>0.2232466592543829</v>
+        <v>-0.3376947294540672</v>
       </c>
       <c r="X18" t="n">
-        <v>-0.0247300826493768</v>
+        <v>-0.4059722396768246</v>
       </c>
       <c r="Y18" t="n">
-        <v>-0.3315252115485228</v>
+        <v>-0.4917746585517497</v>
       </c>
       <c r="Z18" t="n">
-        <v>-0.4124926803213521</v>
+        <v>-0.5217541014834902</v>
       </c>
       <c r="AA18" t="n">
-        <v>-0.3130020848495053</v>
+        <v>-0.4515117286360539</v>
       </c>
       <c r="AB18" t="n">
-        <v>-0.2085122847419106</v>
+        <v>-0.1428436659943171</v>
       </c>
       <c r="AC18" t="n">
-        <v>-0.1307430329454325</v>
+        <v>0.1128326101555098</v>
       </c>
       <c r="AD18" t="n">
-        <v>-0.1869151493067557</v>
+        <v>0.07987686736656044</v>
       </c>
       <c r="AE18" t="n">
-        <v>-0.2708949896218567</v>
+        <v>0.03241726134542008</v>
       </c>
       <c r="AF18" t="n">
-        <v>-0.07449917174082916</v>
+        <v>0.1752888158604008</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.2813124633831176</v>
+        <v>0.4480876539533176</v>
       </c>
       <c r="AH18" t="n">
-        <v>0.4614961369960316</v>
+        <v>0.5596931606972259</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0.4752619912785839</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>0.2123820301524864</v>
       </c>
     </row>
     <row r="19">
@@ -2307,103 +2415,109 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.3898945561191921</v>
+        <v>0.3802272850151787</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5781685050540686</v>
+        <v>0.315306058553967</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5052715661308746</v>
+        <v>0.2249114933260789</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5509896747331626</v>
+        <v>0.1715347346032492</v>
       </c>
       <c r="F19" t="n">
-        <v>0.5265998611614272</v>
+        <v>0.2123192687731354</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2967096801118568</v>
+        <v>0.01076045483466342</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1178172179229624</v>
+        <v>-0.2698322098811053</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.008393059698833777</v>
+        <v>-0.2814183905592392</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.07459786254890016</v>
+        <v>-0.416553482863286</v>
       </c>
       <c r="K19" t="n">
-        <v>0.05766576614203443</v>
+        <v>-0.3679476434241132</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1620168290201667</v>
+        <v>-0.2507028809620743</v>
       </c>
       <c r="M19" t="n">
-        <v>0.04495390906514602</v>
+        <v>-0.08963839661664472</v>
       </c>
       <c r="N19" t="n">
-        <v>-0.3295998378141832</v>
+        <v>-0.01284068784099885</v>
       </c>
       <c r="O19" t="n">
-        <v>-0.5807242822133806</v>
+        <v>-0.4210623812615942</v>
       </c>
       <c r="P19" t="n">
-        <v>-0.3665422530577422</v>
+        <v>-0.5303070327626558</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.06773536691607125</v>
+        <v>-0.3144615499284699</v>
       </c>
       <c r="R19" t="n">
-        <v>0.702369976171885</v>
+        <v>0.4052500248331806</v>
       </c>
       <c r="S19" t="n">
         <v>1</v>
       </c>
       <c r="T19" t="n">
-        <v>0.8206555435384979</v>
+        <v>0.5151182933621902</v>
       </c>
       <c r="U19" t="n">
-        <v>0.7025002317563653</v>
+        <v>0.07825407097065837</v>
       </c>
       <c r="V19" t="n">
-        <v>0.5783678859365391</v>
+        <v>-0.06372660121800917</v>
       </c>
       <c r="W19" t="n">
-        <v>0.473938287563685</v>
+        <v>-0.06487098572310386</v>
       </c>
       <c r="X19" t="n">
-        <v>0.275550039933345</v>
+        <v>-0.1051598522295835</v>
       </c>
       <c r="Y19" t="n">
-        <v>-0.07075031595473381</v>
+        <v>-0.2181686232658627</v>
       </c>
       <c r="Z19" t="n">
-        <v>-0.3112850562390737</v>
+        <v>-0.4166215406367741</v>
       </c>
       <c r="AA19" t="n">
-        <v>-0.3340354278070491</v>
+        <v>-0.5334564077679886</v>
       </c>
       <c r="AB19" t="n">
-        <v>-0.3666606998625883</v>
+        <v>-0.4587685120954043</v>
       </c>
       <c r="AC19" t="n">
-        <v>-0.3370744501603867</v>
+        <v>-0.1587684604743609</v>
       </c>
       <c r="AD19" t="n">
-        <v>-0.296661709741209</v>
+        <v>0.00353839610218607</v>
       </c>
       <c r="AE19" t="n">
-        <v>-0.3796118584034819</v>
+        <v>-0.06035833778442704</v>
       </c>
       <c r="AF19" t="n">
-        <v>-0.3318976049001034</v>
+        <v>-0.1000780520382277</v>
       </c>
       <c r="AG19" t="n">
-        <v>-0.06703636932261291</v>
+        <v>0.0142594806131035</v>
       </c>
       <c r="AH19" t="n">
-        <v>0.281254934429144</v>
+        <v>0.3577589526216674</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0.5322513764706643</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>0.5142679620629489</v>
       </c>
     </row>
     <row r="20">
@@ -2411,103 +2525,109 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.3912484544326371</v>
+        <v>0.2794688454190065</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4964387158168095</v>
+        <v>0.187860852404253</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6482394943109134</v>
+        <v>0.509834698180014</v>
       </c>
       <c r="E20" t="n">
-        <v>0.6568955731126845</v>
+        <v>0.3768042941488108</v>
       </c>
       <c r="F20" t="n">
-        <v>0.580258735276752</v>
+        <v>0.3765892170517404</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5220463349348062</v>
+        <v>0.4565623739999102</v>
       </c>
       <c r="H20" t="n">
-        <v>0.3849722660012178</v>
+        <v>0.2158017198558968</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1246314726391252</v>
+        <v>-0.02620548983844387</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1647696933486273</v>
+        <v>-0.05432620702383403</v>
       </c>
       <c r="K20" t="n">
-        <v>0.1219313542438316</v>
+        <v>-0.284230746296752</v>
       </c>
       <c r="L20" t="n">
-        <v>0.2530618923522978</v>
+        <v>-0.1177798211256646</v>
       </c>
       <c r="M20" t="n">
-        <v>0.03292857916783089</v>
+        <v>-0.02387351364075379</v>
       </c>
       <c r="N20" t="n">
-        <v>-0.2579083482290163</v>
+        <v>0.1832141574300152</v>
       </c>
       <c r="O20" t="n">
-        <v>-0.4024262860895312</v>
+        <v>-0.1451757788755181</v>
       </c>
       <c r="P20" t="n">
-        <v>-0.353454843951583</v>
+        <v>-0.6215300050043275</v>
       </c>
       <c r="Q20" t="n">
-        <v>-0.05819161738831642</v>
+        <v>-0.6413217288059085</v>
       </c>
       <c r="R20" t="n">
-        <v>0.5081337183307102</v>
+        <v>-0.1802878930997154</v>
       </c>
       <c r="S20" t="n">
-        <v>0.820655543538498</v>
+        <v>0.5151182933621903</v>
       </c>
       <c r="T20" t="n">
         <v>1</v>
       </c>
       <c r="U20" t="n">
-        <v>0.9031150656040468</v>
+        <v>0.707249607196897</v>
       </c>
       <c r="V20" t="n">
-        <v>0.7907553027940017</v>
+        <v>0.5160643240341567</v>
       </c>
       <c r="W20" t="n">
-        <v>0.6764281706947545</v>
+        <v>0.3967033359112766</v>
       </c>
       <c r="X20" t="n">
-        <v>0.4563750481059362</v>
+        <v>0.3016910716206311</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.1561690050804998</v>
+        <v>0.2216297599759232</v>
       </c>
       <c r="Z20" t="n">
-        <v>-0.08462858441655582</v>
+        <v>-0.04864734359897733</v>
       </c>
       <c r="AA20" t="n">
-        <v>-0.2028331604139218</v>
+        <v>-0.3601496876881016</v>
       </c>
       <c r="AB20" t="n">
-        <v>-0.359906556629933</v>
+        <v>-0.4417904846732271</v>
       </c>
       <c r="AC20" t="n">
-        <v>-0.4375663252683185</v>
+        <v>-0.349094075113086</v>
       </c>
       <c r="AD20" t="n">
-        <v>-0.4412274618204955</v>
+        <v>-0.2766568024114858</v>
       </c>
       <c r="AE20" t="n">
-        <v>-0.4561472520284471</v>
+        <v>-0.200537389291702</v>
       </c>
       <c r="AF20" t="n">
-        <v>-0.38185422566497</v>
+        <v>-0.2492248438983026</v>
       </c>
       <c r="AG20" t="n">
-        <v>-0.2288127042932072</v>
+        <v>-0.3137775808303055</v>
       </c>
       <c r="AH20" t="n">
-        <v>0.02261445335075941</v>
+        <v>-0.09535279404087112</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0.2789374407048816</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>0.4777898503142286</v>
       </c>
     </row>
     <row r="21">
@@ -2515,103 +2635,109 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.2312679616816793</v>
+        <v>0.05156553864433829</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4898723933044167</v>
+        <v>0.1048179149961575</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5959256248046571</v>
+        <v>0.3974146497711361</v>
       </c>
       <c r="E21" t="n">
-        <v>0.7437908828288184</v>
+        <v>0.5732226673937855</v>
       </c>
       <c r="F21" t="n">
-        <v>0.6695377752441484</v>
+        <v>0.5129788722122924</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5740528302043154</v>
+        <v>0.5452808528242864</v>
       </c>
       <c r="H21" t="n">
-        <v>0.5461994820763586</v>
+        <v>0.5218797753247375</v>
       </c>
       <c r="I21" t="n">
-        <v>0.3326640188389658</v>
+        <v>0.3299306559315842</v>
       </c>
       <c r="J21" t="n">
-        <v>0.2594192106380309</v>
+        <v>0.1463327578292867</v>
       </c>
       <c r="K21" t="n">
-        <v>0.2899839253643253</v>
+        <v>0.00711164190784102</v>
       </c>
       <c r="L21" t="n">
-        <v>0.3055813822760149</v>
+        <v>-0.03977308507231007</v>
       </c>
       <c r="M21" t="n">
-        <v>0.1654903088045828</v>
+        <v>0.1441990179675018</v>
       </c>
       <c r="N21" t="n">
-        <v>-0.2107199387541386</v>
+        <v>0.2920615080944197</v>
       </c>
       <c r="O21" t="n">
-        <v>-0.3270241559025535</v>
+        <v>0.1166929720676879</v>
       </c>
       <c r="P21" t="n">
-        <v>-0.2370752113161075</v>
+        <v>-0.3632465946428531</v>
       </c>
       <c r="Q21" t="n">
-        <v>-0.05965440555907576</v>
+        <v>-0.6689743326625001</v>
       </c>
       <c r="R21" t="n">
-        <v>0.3970404959958478</v>
+        <v>-0.4752096511960145</v>
       </c>
       <c r="S21" t="n">
-        <v>0.7025002317563654</v>
+        <v>0.07825407097065837</v>
       </c>
       <c r="T21" t="n">
-        <v>0.9031150656040468</v>
+        <v>0.707249607196897</v>
       </c>
       <c r="U21" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="V21" t="n">
-        <v>0.9279837665628127</v>
+        <v>0.837842050187613</v>
       </c>
       <c r="W21" t="n">
-        <v>0.8327447427445321</v>
+        <v>0.7294107355976114</v>
       </c>
       <c r="X21" t="n">
-        <v>0.6339606220177771</v>
+        <v>0.6109347871755432</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.3307788222697491</v>
+        <v>0.527393680438706</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.09792630750608326</v>
+        <v>0.3091894550240518</v>
       </c>
       <c r="AA21" t="n">
-        <v>-0.03950052814204852</v>
+        <v>-0.05537473626244772</v>
       </c>
       <c r="AB21" t="n">
-        <v>-0.2618199273359874</v>
+        <v>-0.3087338426417832</v>
       </c>
       <c r="AC21" t="n">
-        <v>-0.4228304971423094</v>
+        <v>-0.3210295049662015</v>
       </c>
       <c r="AD21" t="n">
-        <v>-0.5044287601213487</v>
+        <v>-0.383475419208086</v>
       </c>
       <c r="AE21" t="n">
-        <v>-0.5448174054074599</v>
+        <v>-0.3682086189078564</v>
       </c>
       <c r="AF21" t="n">
-        <v>-0.4408001999517976</v>
+        <v>-0.3105018707748734</v>
       </c>
       <c r="AG21" t="n">
-        <v>-0.2775453241166159</v>
+        <v>-0.3876884839433521</v>
       </c>
       <c r="AH21" t="n">
-        <v>-0.1071454609133819</v>
+        <v>-0.34340757937637</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>-0.07061447092530056</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>0.2590981234713108</v>
       </c>
     </row>
     <row r="22">
@@ -2619,103 +2745,109 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.07575526635172206</v>
+        <v>-0.1230625478813188</v>
       </c>
       <c r="C22" t="n">
-        <v>0.3715588179676724</v>
+        <v>-0.06195252254205431</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5912176729007936</v>
+        <v>0.3977542405462401</v>
       </c>
       <c r="E22" t="n">
-        <v>0.7074219058083557</v>
+        <v>0.509825508914558</v>
       </c>
       <c r="F22" t="n">
-        <v>0.7632119736341398</v>
+        <v>0.6509954377047537</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6836744676819351</v>
+        <v>0.6676310528448912</v>
       </c>
       <c r="H22" t="n">
-        <v>0.646750337357186</v>
+        <v>0.6337097862584811</v>
       </c>
       <c r="I22" t="n">
-        <v>0.4960474903006478</v>
+        <v>0.5347607825148264</v>
       </c>
       <c r="J22" t="n">
-        <v>0.39467897382295</v>
+        <v>0.3859328377090884</v>
       </c>
       <c r="K22" t="n">
-        <v>0.3344983294284566</v>
+        <v>0.1290677303931364</v>
       </c>
       <c r="L22" t="n">
-        <v>0.3861774871264942</v>
+        <v>0.167408949029714</v>
       </c>
       <c r="M22" t="n">
-        <v>0.2001872879093557</v>
+        <v>0.1395070130855758</v>
       </c>
       <c r="N22" t="n">
-        <v>-0.08979307304120024</v>
+        <v>0.3552844672178313</v>
       </c>
       <c r="O22" t="n">
-        <v>-0.3344324936007561</v>
+        <v>0.04386813686522338</v>
       </c>
       <c r="P22" t="n">
-        <v>-0.2617105912857483</v>
+        <v>-0.3041378471673083</v>
       </c>
       <c r="Q22" t="n">
-        <v>-0.09874922007842059</v>
+        <v>-0.5300015778954361</v>
       </c>
       <c r="R22" t="n">
-        <v>0.3051302309649861</v>
+        <v>-0.3959758252160172</v>
       </c>
       <c r="S22" t="n">
-        <v>0.5783678859365391</v>
+        <v>-0.06372660121800917</v>
       </c>
       <c r="T22" t="n">
-        <v>0.7907553027940017</v>
+        <v>0.5160643240341567</v>
       </c>
       <c r="U22" t="n">
-        <v>0.9279837665628127</v>
+        <v>0.8378420501876129</v>
       </c>
       <c r="V22" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="W22" t="n">
-        <v>0.9405389377244541</v>
+        <v>0.9120447853064509</v>
       </c>
       <c r="X22" t="n">
-        <v>0.794684958022293</v>
+        <v>0.8069133042841961</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.5160632962177092</v>
+        <v>0.7023979248563765</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.2528955752109442</v>
+        <v>0.4821568554697762</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.08783872334239427</v>
+        <v>0.1598766750406501</v>
       </c>
       <c r="AB22" t="n">
-        <v>-0.1349024662891291</v>
+        <v>-0.08781120894447256</v>
       </c>
       <c r="AC22" t="n">
-        <v>-0.3758604277772578</v>
+        <v>-0.23079464965208</v>
       </c>
       <c r="AD22" t="n">
-        <v>-0.5503054140449888</v>
+        <v>-0.4376439325318607</v>
       </c>
       <c r="AE22" t="n">
-        <v>-0.6401647372252566</v>
+        <v>-0.5322319249417632</v>
       </c>
       <c r="AF22" t="n">
-        <v>-0.5757668519325392</v>
+        <v>-0.5022415700575493</v>
       </c>
       <c r="AG22" t="n">
-        <v>-0.3924554574375281</v>
+        <v>-0.4862235187708649</v>
       </c>
       <c r="AH22" t="n">
-        <v>-0.1893574699569033</v>
+        <v>-0.3846219283583381</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>-0.2271763372937852</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>0.03774250412648771</v>
       </c>
     </row>
     <row r="23">
@@ -2723,103 +2855,109 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.1402570422821375</v>
+        <v>-0.3840095570551564</v>
       </c>
       <c r="C23" t="n">
-        <v>0.2298055504979192</v>
+        <v>-0.1667496570347468</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4859777250705071</v>
+        <v>0.2668492358445674</v>
       </c>
       <c r="E23" t="n">
-        <v>0.6958935475795011</v>
+        <v>0.5254781520025598</v>
       </c>
       <c r="F23" t="n">
-        <v>0.7425810152768798</v>
+        <v>0.6196843522621098</v>
       </c>
       <c r="G23" t="n">
-        <v>0.7852766362529554</v>
+        <v>0.7676631666509802</v>
       </c>
       <c r="H23" t="n">
-        <v>0.7755022387291576</v>
+        <v>0.7691579238971703</v>
       </c>
       <c r="I23" t="n">
-        <v>0.6070254939254131</v>
+        <v>0.632731338863419</v>
       </c>
       <c r="J23" t="n">
-        <v>0.527572190261463</v>
+        <v>0.5348311099284683</v>
       </c>
       <c r="K23" t="n">
-        <v>0.4387067983353075</v>
+        <v>0.3097591826587864</v>
       </c>
       <c r="L23" t="n">
-        <v>0.3980343245483104</v>
+        <v>0.2229128442108216</v>
       </c>
       <c r="M23" t="n">
-        <v>0.2813132543245002</v>
+        <v>0.2567565946344977</v>
       </c>
       <c r="N23" t="n">
-        <v>-0.04451431865921612</v>
+        <v>0.293699035797248</v>
       </c>
       <c r="O23" t="n">
-        <v>-0.2351373723915286</v>
+        <v>0.09605193849496041</v>
       </c>
       <c r="P23" t="n">
-        <v>-0.3128797933813683</v>
+        <v>-0.3408092892610262</v>
       </c>
       <c r="Q23" t="n">
-        <v>-0.1990254765962213</v>
+        <v>-0.5339550737046045</v>
       </c>
       <c r="R23" t="n">
-        <v>0.2232466592543829</v>
+        <v>-0.3376947294540673</v>
       </c>
       <c r="S23" t="n">
-        <v>0.473938287563685</v>
+        <v>-0.06487098572310386</v>
       </c>
       <c r="T23" t="n">
-        <v>0.6764281706947545</v>
+        <v>0.3967033359112767</v>
       </c>
       <c r="U23" t="n">
-        <v>0.8327447427445321</v>
+        <v>0.7294107355976114</v>
       </c>
       <c r="V23" t="n">
-        <v>0.9405389377244542</v>
+        <v>0.9120447853064509</v>
       </c>
       <c r="W23" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="X23" t="n">
-        <v>0.9106904122381313</v>
+        <v>0.927597740853495</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.690417072965704</v>
+        <v>0.8350321433112736</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.4347089172625214</v>
+        <v>0.6286794273138858</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.223784217016528</v>
+        <v>0.3072629993313583</v>
       </c>
       <c r="AB23" t="n">
-        <v>-0.01529859023526059</v>
+        <v>0.06735049417810328</v>
       </c>
       <c r="AC23" t="n">
-        <v>-0.2689763472023836</v>
+        <v>-0.1003445126586356</v>
       </c>
       <c r="AD23" t="n">
-        <v>-0.5303384924103504</v>
+        <v>-0.4059002833884432</v>
       </c>
       <c r="AE23" t="n">
-        <v>-0.7013896232227447</v>
+        <v>-0.6130894938792915</v>
       </c>
       <c r="AF23" t="n">
-        <v>-0.6958796617634916</v>
+        <v>-0.6552954938523504</v>
       </c>
       <c r="AG23" t="n">
-        <v>-0.5527099477691583</v>
+        <v>-0.6370998201217134</v>
       </c>
       <c r="AH23" t="n">
-        <v>-0.3174941499752448</v>
+        <v>-0.4776025038023115</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>-0.2825313481605296</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>-0.07865033591781141</v>
       </c>
     </row>
     <row r="24">
@@ -2827,103 +2965,109 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.4616272758894288</v>
+        <v>-0.6086281207314075</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.04599534684165924</v>
+        <v>-0.3817520202899922</v>
       </c>
       <c r="D24" t="n">
-        <v>0.2905797161745006</v>
+        <v>0.120408061243258</v>
       </c>
       <c r="E24" t="n">
-        <v>0.5312937145445144</v>
+        <v>0.4160381053477109</v>
       </c>
       <c r="F24" t="n">
-        <v>0.715168825743817</v>
+        <v>0.6280793441589635</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7765108928893516</v>
+        <v>0.7405812351269444</v>
       </c>
       <c r="H24" t="n">
-        <v>0.893348040704172</v>
+        <v>0.8931189638509923</v>
       </c>
       <c r="I24" t="n">
-        <v>0.7746960225754541</v>
+        <v>0.7731866886777879</v>
       </c>
       <c r="J24" t="n">
-        <v>0.6107942692722607</v>
+        <v>0.6361429809620552</v>
       </c>
       <c r="K24" t="n">
-        <v>0.5339873044779021</v>
+        <v>0.4692997094198848</v>
       </c>
       <c r="L24" t="n">
-        <v>0.4421671872752194</v>
+        <v>0.3535619634107503</v>
       </c>
       <c r="M24" t="n">
-        <v>0.3420493102414471</v>
+        <v>0.2742222001927383</v>
       </c>
       <c r="N24" t="n">
-        <v>0.1398407428105907</v>
+        <v>0.3530126819994925</v>
       </c>
       <c r="O24" t="n">
-        <v>-0.1628025722962756</v>
+        <v>0.08893596349970116</v>
       </c>
       <c r="P24" t="n">
-        <v>-0.2805705953917649</v>
+        <v>-0.2367416499876003</v>
       </c>
       <c r="Q24" t="n">
-        <v>-0.3933839491732276</v>
+        <v>-0.5900563637158079</v>
       </c>
       <c r="R24" t="n">
-        <v>-0.0247300826493768</v>
+        <v>-0.4059722396768246</v>
       </c>
       <c r="S24" t="n">
-        <v>0.275550039933345</v>
+        <v>-0.1051598522295835</v>
       </c>
       <c r="T24" t="n">
-        <v>0.4563750481059363</v>
+        <v>0.3016910716206312</v>
       </c>
       <c r="U24" t="n">
-        <v>0.6339606220177771</v>
+        <v>0.6109347871755432</v>
       </c>
       <c r="V24" t="n">
-        <v>0.794684958022293</v>
+        <v>0.8069133042841961</v>
       </c>
       <c r="W24" t="n">
-        <v>0.9106904122381313</v>
+        <v>0.9275977408534951</v>
       </c>
       <c r="X24" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.8851761674026762</v>
+        <v>0.9419100727205508</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.6613022101980568</v>
+        <v>0.787685050795751</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.4159288628339474</v>
+        <v>0.4904083885646693</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.1657548142791735</v>
+        <v>0.2162407231414878</v>
       </c>
       <c r="AC24" t="n">
-        <v>-0.1116514681554894</v>
+        <v>0.01911070172098601</v>
       </c>
       <c r="AD24" t="n">
-        <v>-0.4049053035554268</v>
+        <v>-0.2918383955404472</v>
       </c>
       <c r="AE24" t="n">
-        <v>-0.660921640393599</v>
+        <v>-0.6017951931284747</v>
       </c>
       <c r="AF24" t="n">
-        <v>-0.7904188566618306</v>
+        <v>-0.7477657942905725</v>
       </c>
       <c r="AG24" t="n">
-        <v>-0.7388369253618615</v>
+        <v>-0.7690911531617809</v>
       </c>
       <c r="AH24" t="n">
-        <v>-0.5373492943629947</v>
+        <v>-0.6355860572333948</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>-0.4045511121353075</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>-0.15822291693563</v>
       </c>
     </row>
     <row r="25">
@@ -2931,103 +3075,109 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.657820100399727</v>
+        <v>-0.6972697754833909</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.4273085285720264</v>
+        <v>-0.5820546108142463</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.0489111647848069</v>
+        <v>-0.09385052063249628</v>
       </c>
       <c r="E25" t="n">
-        <v>0.2665793520292784</v>
+        <v>0.2925377126593822</v>
       </c>
       <c r="F25" t="n">
-        <v>0.5065077250671888</v>
+        <v>0.538313924672891</v>
       </c>
       <c r="G25" t="n">
-        <v>0.7295817618310353</v>
+        <v>0.7562076031759896</v>
       </c>
       <c r="H25" t="n">
-        <v>0.8893047536865526</v>
+        <v>0.9285683111562033</v>
       </c>
       <c r="I25" t="n">
-        <v>0.9041667802534133</v>
+        <v>0.9082296307799859</v>
       </c>
       <c r="J25" t="n">
-        <v>0.7268658060959688</v>
+        <v>0.7672920456518301</v>
       </c>
       <c r="K25" t="n">
-        <v>0.5620498476677012</v>
+        <v>0.5781130422931993</v>
       </c>
       <c r="L25" t="n">
-        <v>0.4514360656243431</v>
+        <v>0.4709431735592089</v>
       </c>
       <c r="M25" t="n">
-        <v>0.3783397959234545</v>
+        <v>0.3434913117133543</v>
       </c>
       <c r="N25" t="n">
-        <v>0.2529713609958101</v>
+        <v>0.2943592086432419</v>
       </c>
       <c r="O25" t="n">
-        <v>0.04176536198377741</v>
+        <v>0.1292742133531336</v>
       </c>
       <c r="P25" t="n">
-        <v>-0.2695812914206243</v>
+        <v>-0.2362510824613171</v>
       </c>
       <c r="Q25" t="n">
-        <v>-0.5096359873248911</v>
+        <v>-0.5492173715482899</v>
       </c>
       <c r="R25" t="n">
-        <v>-0.3315252115485229</v>
+        <v>-0.4917746585517497</v>
       </c>
       <c r="S25" t="n">
-        <v>-0.07075031595473381</v>
+        <v>-0.2181686232658627</v>
       </c>
       <c r="T25" t="n">
-        <v>0.1561690050804998</v>
+        <v>0.2216297599759232</v>
       </c>
       <c r="U25" t="n">
-        <v>0.3307788222697491</v>
+        <v>0.5273936804387059</v>
       </c>
       <c r="V25" t="n">
-        <v>0.5160632962177092</v>
+        <v>0.7023979248563765</v>
       </c>
       <c r="W25" t="n">
-        <v>0.690417072965704</v>
+        <v>0.8350321433112736</v>
       </c>
       <c r="X25" t="n">
-        <v>0.8851761674026762</v>
+        <v>0.9419100727205507</v>
       </c>
       <c r="Y25" t="n">
         <v>1</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.8821199082783094</v>
+        <v>0.908189902159959</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.644183966434879</v>
+        <v>0.6672340850288305</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.3966879329494909</v>
+        <v>0.3967309526401782</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.1019565724585839</v>
+        <v>0.132580749942979</v>
       </c>
       <c r="AD25" t="n">
-        <v>-0.2272242115554562</v>
+        <v>-0.2110154726944802</v>
       </c>
       <c r="AE25" t="n">
-        <v>-0.5088237504365128</v>
+        <v>-0.5391532459465013</v>
       </c>
       <c r="AF25" t="n">
-        <v>-0.7668330831409902</v>
+        <v>-0.7860227709727503</v>
       </c>
       <c r="AG25" t="n">
-        <v>-0.88796873673307</v>
+        <v>-0.8852704289886894</v>
       </c>
       <c r="AH25" t="n">
-        <v>-0.7749111023512485</v>
+        <v>-0.7886655230553105</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>-0.581737844740208</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>-0.2738380309598497</v>
       </c>
     </row>
     <row r="26">
@@ -3035,103 +3185,109 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.7270392133395537</v>
+        <v>-0.806003426521285</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.6241568566790544</v>
+        <v>-0.6918198098033046</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.4079744006852739</v>
+        <v>-0.4272139738890009</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.04562484303593394</v>
+        <v>-0.003559440519855748</v>
       </c>
       <c r="F26" t="n">
-        <v>0.2447062407962362</v>
+        <v>0.3437554548678348</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5076103210687194</v>
+        <v>0.5798127046781417</v>
       </c>
       <c r="H26" t="n">
-        <v>0.8066930809853392</v>
+        <v>0.8893873413834433</v>
       </c>
       <c r="I26" t="n">
-        <v>0.8905991221685498</v>
+        <v>0.9376287715912319</v>
       </c>
       <c r="J26" t="n">
-        <v>0.8622545414580841</v>
+        <v>0.9067326607371445</v>
       </c>
       <c r="K26" t="n">
-        <v>0.6841283734338985</v>
+        <v>0.755712287458475</v>
       </c>
       <c r="L26" t="n">
-        <v>0.5010315255896062</v>
+        <v>0.5738731580478644</v>
       </c>
       <c r="M26" t="n">
-        <v>0.4270153682558886</v>
+        <v>0.4721935625126168</v>
       </c>
       <c r="N26" t="n">
-        <v>0.3266663624958253</v>
+        <v>0.3314687899241781</v>
       </c>
       <c r="O26" t="n">
-        <v>0.1991681542631978</v>
+        <v>0.1864907684724487</v>
       </c>
       <c r="P26" t="n">
-        <v>-0.02286871561435025</v>
+        <v>-0.03427835118468425</v>
       </c>
       <c r="Q26" t="n">
-        <v>-0.4422866531934483</v>
+        <v>-0.4524036232104603</v>
       </c>
       <c r="R26" t="n">
-        <v>-0.4124926803213521</v>
+        <v>-0.5217541014834902</v>
       </c>
       <c r="S26" t="n">
-        <v>-0.3112850562390737</v>
+        <v>-0.4166215406367742</v>
       </c>
       <c r="T26" t="n">
-        <v>-0.08462858441655584</v>
+        <v>-0.04864734359897733</v>
       </c>
       <c r="U26" t="n">
-        <v>0.09792630750608328</v>
+        <v>0.3091894550240518</v>
       </c>
       <c r="V26" t="n">
-        <v>0.2528955752109442</v>
+        <v>0.4821568554697763</v>
       </c>
       <c r="W26" t="n">
-        <v>0.4347089172625214</v>
+        <v>0.6286794273138857</v>
       </c>
       <c r="X26" t="n">
-        <v>0.6613022101980569</v>
+        <v>0.787685050795751</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.8821199082783096</v>
+        <v>0.908189902159959</v>
       </c>
       <c r="Z26" t="n">
         <v>1</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.8755748732569761</v>
+        <v>0.8776584758927046</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.6312904625011626</v>
+        <v>0.6368633772426936</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.3623656768246779</v>
+        <v>0.3578771957432327</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.03740158007447603</v>
+        <v>0.009122962836107942</v>
       </c>
       <c r="AE26" t="n">
-        <v>-0.2927658041102819</v>
+        <v>-0.3624863813034591</v>
       </c>
       <c r="AF26" t="n">
-        <v>-0.5776850371956773</v>
+        <v>-0.6607465343390839</v>
       </c>
       <c r="AG26" t="n">
-        <v>-0.8352175445818711</v>
+        <v>-0.859028994046661</v>
       </c>
       <c r="AH26" t="n">
-        <v>-0.9104667428354868</v>
+        <v>-0.9125861929843561</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>-0.7861599972892122</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>-0.5320699781264537</v>
       </c>
     </row>
     <row r="27">
@@ -3139,103 +3295,109 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.6841147422293994</v>
+        <v>-0.7907690956867673</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.6692394204838849</v>
+        <v>-0.7768850211901139</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.565539435979299</v>
+        <v>-0.6424882838884834</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.3333925820334227</v>
+        <v>-0.4079515532886314</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.03649756126819591</v>
+        <v>-0.02389391611411579</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2637709845679352</v>
+        <v>0.2953187936859973</v>
       </c>
       <c r="H27" t="n">
-        <v>0.5921588763466092</v>
+        <v>0.6391267175089003</v>
       </c>
       <c r="I27" t="n">
-        <v>0.8111964470584474</v>
+        <v>0.8480721128269983</v>
       </c>
       <c r="J27" t="n">
-        <v>0.8668736679404021</v>
+        <v>0.8917822469737381</v>
       </c>
       <c r="K27" t="n">
-        <v>0.8381488418096485</v>
+        <v>0.8975123526490378</v>
       </c>
       <c r="L27" t="n">
-        <v>0.6504908897929185</v>
+        <v>0.7088920775680984</v>
       </c>
       <c r="M27" t="n">
-        <v>0.4792273835610482</v>
+        <v>0.533730468672702</v>
       </c>
       <c r="N27" t="n">
-        <v>0.3535656109284768</v>
+        <v>0.3941657657598406</v>
       </c>
       <c r="O27" t="n">
-        <v>0.2680264304448515</v>
+        <v>0.2874012190888134</v>
       </c>
       <c r="P27" t="n">
-        <v>0.1538943932101235</v>
+        <v>0.1427630012593951</v>
       </c>
       <c r="Q27" t="n">
-        <v>-0.1319111380717962</v>
+        <v>-0.1472497122163286</v>
       </c>
       <c r="R27" t="n">
-        <v>-0.3130020848495053</v>
+        <v>-0.4515117286360538</v>
       </c>
       <c r="S27" t="n">
-        <v>-0.3340354278070491</v>
+        <v>-0.5334564077679885</v>
       </c>
       <c r="T27" t="n">
-        <v>-0.2028331604139218</v>
+        <v>-0.3601496876881015</v>
       </c>
       <c r="U27" t="n">
-        <v>-0.03950052814204853</v>
+        <v>-0.05537473626244771</v>
       </c>
       <c r="V27" t="n">
-        <v>0.08783872334239429</v>
+        <v>0.15987667504065</v>
       </c>
       <c r="W27" t="n">
-        <v>0.223784217016528</v>
+        <v>0.3072629993313583</v>
       </c>
       <c r="X27" t="n">
-        <v>0.4159288628339474</v>
+        <v>0.4904083885646693</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.6441839664348789</v>
+        <v>0.6672340850288305</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.8755748732569761</v>
+        <v>0.8776584758927045</v>
       </c>
       <c r="AA27" t="n">
         <v>1</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.8534360011034908</v>
+        <v>0.8749943620713216</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.5907479808769057</v>
+        <v>0.6180563771760752</v>
       </c>
       <c r="AD27" t="n">
-        <v>0.3025740989074939</v>
+        <v>0.3187735915162835</v>
       </c>
       <c r="AE27" t="n">
-        <v>-0.04187458412800982</v>
+        <v>-0.05306902032958077</v>
       </c>
       <c r="AF27" t="n">
-        <v>-0.3616649697285867</v>
+        <v>-0.4102347481159847</v>
       </c>
       <c r="AG27" t="n">
-        <v>-0.6370875593654164</v>
+        <v>-0.656695010383529</v>
       </c>
       <c r="AH27" t="n">
-        <v>-0.8497798910986687</v>
+        <v>-0.8578592910826469</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>-0.9249580506331136</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>-0.7788789337636149</v>
       </c>
     </row>
     <row r="28">
@@ -3243,103 +3405,109 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.6416550529638716</v>
+        <v>-0.6419921770075614</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.685211549231064</v>
+        <v>-0.7670460291941079</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.6753374331228533</v>
+        <v>-0.7148842262876237</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.5657736284142976</v>
+        <v>-0.6158001432903835</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.3699814915148902</v>
+        <v>-0.3969721221655134</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.06303177340200496</v>
+        <v>-0.03263841728832555</v>
       </c>
       <c r="H28" t="n">
-        <v>0.2766541838387976</v>
+        <v>0.33740094189779</v>
       </c>
       <c r="I28" t="n">
-        <v>0.5709034374276074</v>
+        <v>0.603171683916372</v>
       </c>
       <c r="J28" t="n">
-        <v>0.7275885045225694</v>
+        <v>0.8062527887569657</v>
       </c>
       <c r="K28" t="n">
-        <v>0.7811154929952915</v>
+        <v>0.8837706739994622</v>
       </c>
       <c r="L28" t="n">
-        <v>0.7413120729732975</v>
+        <v>0.8680086653175391</v>
       </c>
       <c r="M28" t="n">
-        <v>0.686724037752208</v>
+        <v>0.7124016674793372</v>
       </c>
       <c r="N28" t="n">
-        <v>0.4980735840280786</v>
+        <v>0.4868762079126775</v>
       </c>
       <c r="O28" t="n">
-        <v>0.3450265873959503</v>
+        <v>0.3754066607289433</v>
       </c>
       <c r="P28" t="n">
-        <v>0.2096100695873841</v>
+        <v>0.2448818710552747</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.01751636492582108</v>
+        <v>0.08136734223081461</v>
       </c>
       <c r="R28" t="n">
-        <v>-0.2085122847419106</v>
+        <v>-0.1428436659943171</v>
       </c>
       <c r="S28" t="n">
-        <v>-0.3666606998625883</v>
+        <v>-0.4587685120954043</v>
       </c>
       <c r="T28" t="n">
-        <v>-0.359906556629933</v>
+        <v>-0.4417904846732272</v>
       </c>
       <c r="U28" t="n">
-        <v>-0.2618199273359874</v>
+        <v>-0.3087338426417832</v>
       </c>
       <c r="V28" t="n">
-        <v>-0.1349024662891291</v>
+        <v>-0.08781120894447257</v>
       </c>
       <c r="W28" t="n">
-        <v>-0.01529859023526059</v>
+        <v>0.06735049417810328</v>
       </c>
       <c r="X28" t="n">
-        <v>0.1657548142791735</v>
+        <v>0.2162407231414878</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.3966879329494908</v>
+        <v>0.3967309526401783</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.6312904625011626</v>
+        <v>0.6368633772426937</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.8534360011034909</v>
+        <v>0.8749943620713216</v>
       </c>
       <c r="AB28" t="n">
         <v>1</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.8629909283008338</v>
+        <v>0.8822242490434534</v>
       </c>
       <c r="AD28" t="n">
-        <v>0.6028731261742865</v>
+        <v>0.6193768152229516</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.3056649784409121</v>
+        <v>0.2864286433420284</v>
       </c>
       <c r="AF28" t="n">
-        <v>-0.06072795907396736</v>
+        <v>-0.0867247653967687</v>
       </c>
       <c r="AG28" t="n">
-        <v>-0.4028174449646785</v>
+        <v>-0.4083669752225021</v>
       </c>
       <c r="AH28" t="n">
-        <v>-0.6555104587773649</v>
+        <v>-0.6519964494219427</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>-0.8653974047002635</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>-0.927514176008214</v>
       </c>
     </row>
     <row r="29">
@@ -3347,103 +3515,109 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.4191227762106764</v>
+        <v>-0.406810489383623</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.6490279688749218</v>
+        <v>-0.6071478535280517</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.7221643144301875</v>
+        <v>-0.688393624209935</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.6917196574658225</v>
+        <v>-0.6643703106829913</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.6262393063546889</v>
+        <v>-0.5830483142764468</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.39901873007556</v>
+        <v>-0.3247286105949859</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.01767796727862197</v>
+        <v>0.09790413710280868</v>
       </c>
       <c r="I29" t="n">
-        <v>0.2511088004386945</v>
+        <v>0.3370521170200694</v>
       </c>
       <c r="J29" t="n">
-        <v>0.4565240355994869</v>
+        <v>0.5678480697183864</v>
       </c>
       <c r="K29" t="n">
-        <v>0.6190569099269271</v>
+        <v>0.8071124459338372</v>
       </c>
       <c r="L29" t="n">
-        <v>0.625612050234826</v>
+        <v>0.8453369000479535</v>
       </c>
       <c r="M29" t="n">
-        <v>0.7160550228839727</v>
+        <v>0.8406045343639996</v>
       </c>
       <c r="N29" t="n">
-        <v>0.6679097157795251</v>
+        <v>0.6298987060481203</v>
       </c>
       <c r="O29" t="n">
-        <v>0.4462447911881487</v>
+        <v>0.3737876186789499</v>
       </c>
       <c r="P29" t="n">
-        <v>0.2354996184354995</v>
+        <v>0.2339914100292654</v>
       </c>
       <c r="Q29" t="n">
-        <v>-0.04327077381444316</v>
+        <v>0.05973313311229099</v>
       </c>
       <c r="R29" t="n">
-        <v>-0.1307430329454325</v>
+        <v>0.1128326101555099</v>
       </c>
       <c r="S29" t="n">
-        <v>-0.3370744501603867</v>
+        <v>-0.1587684604743609</v>
       </c>
       <c r="T29" t="n">
-        <v>-0.4375663252683186</v>
+        <v>-0.349094075113086</v>
       </c>
       <c r="U29" t="n">
-        <v>-0.4228304971423094</v>
+        <v>-0.3210295049662015</v>
       </c>
       <c r="V29" t="n">
-        <v>-0.3758604277772578</v>
+        <v>-0.23079464965208</v>
       </c>
       <c r="W29" t="n">
-        <v>-0.2689763472023836</v>
+        <v>-0.1003445126586356</v>
       </c>
       <c r="X29" t="n">
-        <v>-0.1116514681554894</v>
+        <v>0.01911070172098601</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.1019565724585839</v>
+        <v>0.132580749942979</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.3623656768246779</v>
+        <v>0.3578771957432327</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.5907479808769057</v>
+        <v>0.6180563771760752</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.8629909283008339</v>
+        <v>0.8822242490434534</v>
       </c>
       <c r="AC29" t="n">
         <v>0.9999999999999999</v>
       </c>
       <c r="AD29" t="n">
-        <v>0.8564098966186167</v>
+        <v>0.8411792065477103</v>
       </c>
       <c r="AE29" t="n">
-        <v>0.5819196928161073</v>
+        <v>0.5225698465564124</v>
       </c>
       <c r="AF29" t="n">
-        <v>0.2648232248750751</v>
+        <v>0.1810067106536493</v>
       </c>
       <c r="AG29" t="n">
-        <v>-0.1354007787958517</v>
+        <v>-0.1747428324002453</v>
       </c>
       <c r="AH29" t="n">
-        <v>-0.4474637930630371</v>
+        <v>-0.4455789474146131</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>-0.6872765665836111</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>-0.8481217109129277</v>
       </c>
     </row>
     <row r="30">
@@ -3451,103 +3625,109 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.09741491337473576</v>
+        <v>-0.03281697828869996</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.4277815265773288</v>
+        <v>-0.2894603810121714</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.7123176238367641</v>
+        <v>-0.6566322562019019</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.7565750486919584</v>
+        <v>-0.7207328267682724</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.782657102831921</v>
+        <v>-0.7462333862316483</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.6757544724798367</v>
+        <v>-0.623184398038574</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.3526741695993045</v>
+        <v>-0.2565060051604934</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.05932097182149889</v>
+        <v>0.02288537456880282</v>
       </c>
       <c r="J30" t="n">
-        <v>0.1127700387105686</v>
+        <v>0.2091113351992458</v>
       </c>
       <c r="K30" t="n">
-        <v>0.3374859188651149</v>
+        <v>0.532397524185353</v>
       </c>
       <c r="L30" t="n">
-        <v>0.4335381207355332</v>
+        <v>0.6717930084243172</v>
       </c>
       <c r="M30" t="n">
-        <v>0.5320963128333019</v>
+        <v>0.6793009845026016</v>
       </c>
       <c r="N30" t="n">
-        <v>0.6693422957479174</v>
+        <v>0.6241228023422636</v>
       </c>
       <c r="O30" t="n">
-        <v>0.611474590238442</v>
+        <v>0.5394719535004939</v>
       </c>
       <c r="P30" t="n">
-        <v>0.3209575136026528</v>
+        <v>0.3173227041809368</v>
       </c>
       <c r="Q30" t="n">
-        <v>-0.08466078179930109</v>
+        <v>0.02823743895211579</v>
       </c>
       <c r="R30" t="n">
-        <v>-0.1869151493067557</v>
+        <v>0.07987686736656044</v>
       </c>
       <c r="S30" t="n">
-        <v>-0.2966617097412089</v>
+        <v>0.00353839610218607</v>
       </c>
       <c r="T30" t="n">
-        <v>-0.4412274618204955</v>
+        <v>-0.2766568024114858</v>
       </c>
       <c r="U30" t="n">
-        <v>-0.5044287601213489</v>
+        <v>-0.383475419208086</v>
       </c>
       <c r="V30" t="n">
-        <v>-0.5503054140449887</v>
+        <v>-0.4376439325318607</v>
       </c>
       <c r="W30" t="n">
-        <v>-0.5303384924103504</v>
+        <v>-0.4059002833884433</v>
       </c>
       <c r="X30" t="n">
-        <v>-0.4049053035554267</v>
+        <v>-0.2918383955404472</v>
       </c>
       <c r="Y30" t="n">
-        <v>-0.2272242115554562</v>
+        <v>-0.2110154726944802</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.03740158007447603</v>
+        <v>0.009122962836107942</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.3025740989074939</v>
+        <v>0.3187735915162835</v>
       </c>
       <c r="AB30" t="n">
-        <v>0.6028731261742865</v>
+        <v>0.6193768152229517</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.8564098966186168</v>
+        <v>0.8411792065477104</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
       </c>
       <c r="AE30" t="n">
-        <v>0.8418911728950971</v>
+        <v>0.8143587040677713</v>
       </c>
       <c r="AF30" t="n">
-        <v>0.5493804745178328</v>
+        <v>0.4823831781429524</v>
       </c>
       <c r="AG30" t="n">
-        <v>0.1912905702364958</v>
+        <v>0.1641269657949689</v>
       </c>
       <c r="AH30" t="n">
-        <v>-0.1862424904931046</v>
+        <v>-0.1711317209013037</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>-0.4847336638292347</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>-0.6629150925037935</v>
       </c>
     </row>
     <row r="31">
@@ -3555,103 +3735,109 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.1303852457010415</v>
+        <v>0.2912940659225297</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.1293575134023531</v>
+        <v>0.1291431154564319</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.5083563240048929</v>
+        <v>-0.3770978380856166</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.7611854758099926</v>
+        <v>-0.6948475208544835</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.8368514150958918</v>
+        <v>-0.8070820079351431</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.8246134840717714</v>
+        <v>-0.7972830335676782</v>
       </c>
       <c r="H31" t="n">
-        <v>-0.660017840327618</v>
+        <v>-0.6050763438746966</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.400693292267838</v>
+        <v>-0.3608448638779701</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.2183474152726788</v>
+        <v>-0.1425857709570254</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.03688016080118756</v>
+        <v>0.1294677878474727</v>
       </c>
       <c r="L31" t="n">
-        <v>0.1109633072329659</v>
+        <v>0.3329002770903566</v>
       </c>
       <c r="M31" t="n">
-        <v>0.317412206572958</v>
+        <v>0.4346673648269114</v>
       </c>
       <c r="N31" t="n">
-        <v>0.4967834527927784</v>
+        <v>0.3919188579079171</v>
       </c>
       <c r="O31" t="n">
-        <v>0.6250497777058076</v>
+        <v>0.5511507611814654</v>
       </c>
       <c r="P31" t="n">
-        <v>0.4883863849808018</v>
+        <v>0.5280554005607037</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.01555545844043194</v>
+        <v>0.1799335957727127</v>
       </c>
       <c r="R31" t="n">
-        <v>-0.2708949896218567</v>
+        <v>0.03241726134542009</v>
       </c>
       <c r="S31" t="n">
-        <v>-0.3796118584034819</v>
+        <v>-0.06035833778442704</v>
       </c>
       <c r="T31" t="n">
-        <v>-0.456147252028447</v>
+        <v>-0.200537389291702</v>
       </c>
       <c r="U31" t="n">
-        <v>-0.5448174054074599</v>
+        <v>-0.3682086189078565</v>
       </c>
       <c r="V31" t="n">
-        <v>-0.6401647372252566</v>
+        <v>-0.5322319249417632</v>
       </c>
       <c r="W31" t="n">
-        <v>-0.7013896232227447</v>
+        <v>-0.6130894938792915</v>
       </c>
       <c r="X31" t="n">
-        <v>-0.660921640393599</v>
+        <v>-0.6017951931284748</v>
       </c>
       <c r="Y31" t="n">
-        <v>-0.5088237504365128</v>
+        <v>-0.5391532459465013</v>
       </c>
       <c r="Z31" t="n">
-        <v>-0.2927658041102819</v>
+        <v>-0.362486381303459</v>
       </c>
       <c r="AA31" t="n">
-        <v>-0.04187458412800982</v>
+        <v>-0.05306902032958077</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.3056649784409121</v>
+        <v>0.2864286433420284</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.5819196928161073</v>
+        <v>0.5225698465564124</v>
       </c>
       <c r="AD31" t="n">
-        <v>0.8418911728950972</v>
+        <v>0.8143587040677713</v>
       </c>
       <c r="AE31" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AF31" t="n">
-        <v>0.8224734778195099</v>
+        <v>0.8107191119278793</v>
       </c>
       <c r="AG31" t="n">
-        <v>0.4864776019330346</v>
+        <v>0.502306281100134</v>
       </c>
       <c r="AH31" t="n">
-        <v>0.1465904506059725</v>
+        <v>0.2041889808545186</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>-0.1777415108513312</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>-0.434643373250868</v>
       </c>
     </row>
     <row r="32">
@@ -3659,103 +3845,109 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.395960855223506</v>
+        <v>0.4973303804201044</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1359431358656439</v>
+        <v>0.4321123500367475</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.1627672579137748</v>
+        <v>0.001140748468651286</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.503128636163929</v>
+        <v>-0.4162397329639784</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.7920766347814423</v>
+        <v>-0.7566440515725464</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.8522704133163852</v>
+        <v>-0.8334232195045819</v>
       </c>
       <c r="H32" t="n">
-        <v>-0.8124380019462223</v>
+        <v>-0.7947618141800291</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.7027721853523194</v>
+        <v>-0.6828233043871462</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.5000490627536084</v>
+        <v>-0.5016171942625152</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.3066631329409444</v>
+        <v>-0.2172532577631745</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.1827389196454561</v>
+        <v>-0.06627681809772398</v>
       </c>
       <c r="M32" t="n">
-        <v>-0.02458786472898008</v>
+        <v>0.08388138981626779</v>
       </c>
       <c r="N32" t="n">
-        <v>0.2499321418406803</v>
+        <v>0.158272925379865</v>
       </c>
       <c r="O32" t="n">
-        <v>0.4518670212487396</v>
+        <v>0.3230514712660819</v>
       </c>
       <c r="P32" t="n">
-        <v>0.5645990436639086</v>
+        <v>0.5585612186585669</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.3430217326697634</v>
+        <v>0.4887697617015408</v>
       </c>
       <c r="R32" t="n">
-        <v>-0.07449917174082915</v>
+        <v>0.1752888158604008</v>
       </c>
       <c r="S32" t="n">
-        <v>-0.3318976049001034</v>
+        <v>-0.1000780520382277</v>
       </c>
       <c r="T32" t="n">
-        <v>-0.38185422566497</v>
+        <v>-0.2492248438983026</v>
       </c>
       <c r="U32" t="n">
-        <v>-0.4408001999517975</v>
+        <v>-0.3105018707748734</v>
       </c>
       <c r="V32" t="n">
-        <v>-0.5757668519325392</v>
+        <v>-0.5022415700575493</v>
       </c>
       <c r="W32" t="n">
-        <v>-0.6958796617634915</v>
+        <v>-0.6552954938523504</v>
       </c>
       <c r="X32" t="n">
-        <v>-0.7904188566618306</v>
+        <v>-0.7477657942905725</v>
       </c>
       <c r="Y32" t="n">
-        <v>-0.7668330831409902</v>
+        <v>-0.7860227709727503</v>
       </c>
       <c r="Z32" t="n">
-        <v>-0.5776850371956772</v>
+        <v>-0.6607465343390839</v>
       </c>
       <c r="AA32" t="n">
-        <v>-0.3616649697285867</v>
+        <v>-0.4102347481159847</v>
       </c>
       <c r="AB32" t="n">
-        <v>-0.06072795907396736</v>
+        <v>-0.08672476539676868</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.264823224875075</v>
+        <v>0.1810067106536493</v>
       </c>
       <c r="AD32" t="n">
-        <v>0.5493804745178328</v>
+        <v>0.4823831781429523</v>
       </c>
       <c r="AE32" t="n">
-        <v>0.8224734778195099</v>
+        <v>0.8107191119278793</v>
       </c>
       <c r="AF32" t="n">
         <v>1</v>
       </c>
       <c r="AG32" t="n">
-        <v>0.8031992119839668</v>
+        <v>0.8217506107952829</v>
       </c>
       <c r="AH32" t="n">
-        <v>0.4729880656108473</v>
+        <v>0.5365635533520833</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>0.2049864390769394</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>-0.1267597926462354</v>
       </c>
     </row>
     <row r="33">
@@ -3763,103 +3955,109 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.6540702222060207</v>
+        <v>0.7094002897365331</v>
       </c>
       <c r="C33" t="n">
-        <v>0.4350654644288838</v>
+        <v>0.5987909141862203</v>
       </c>
       <c r="D33" t="n">
-        <v>0.1464683350471313</v>
+        <v>0.2191661252163233</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.1181397624061877</v>
+        <v>-0.08816985436110079</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.4868796224301066</v>
+        <v>-0.5053225048402321</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.7709440963494963</v>
+        <v>-0.7935715513774959</v>
       </c>
       <c r="H33" t="n">
-        <v>-0.8204905888078866</v>
+        <v>-0.8454236671874846</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.8398654669026314</v>
+        <v>-0.8385461319295405</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.7488757008152966</v>
+        <v>-0.7798228487328289</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.5358751492663165</v>
+        <v>-0.5412638064329184</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.3873364498330499</v>
+        <v>-0.3898503456874754</v>
       </c>
       <c r="M33" t="n">
-        <v>-0.3523167027590949</v>
+        <v>-0.3219878294620189</v>
       </c>
       <c r="N33" t="n">
-        <v>-0.1533593006876919</v>
+        <v>-0.1955477014474589</v>
       </c>
       <c r="O33" t="n">
-        <v>0.1756685008365318</v>
+        <v>0.1221924320258294</v>
       </c>
       <c r="P33" t="n">
-        <v>0.4163802021583403</v>
+        <v>0.3954962268802871</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.5276515217892992</v>
+        <v>0.5793032376417138</v>
       </c>
       <c r="R33" t="n">
-        <v>0.2813124633831176</v>
+        <v>0.4480876539533177</v>
       </c>
       <c r="S33" t="n">
-        <v>-0.06703636932261291</v>
+        <v>0.0142594806131035</v>
       </c>
       <c r="T33" t="n">
-        <v>-0.2288127042932072</v>
+        <v>-0.3137775808303055</v>
       </c>
       <c r="U33" t="n">
-        <v>-0.2775453241166159</v>
+        <v>-0.3876884839433521</v>
       </c>
       <c r="V33" t="n">
-        <v>-0.3924554574375281</v>
+        <v>-0.4862235187708649</v>
       </c>
       <c r="W33" t="n">
-        <v>-0.5527099477691583</v>
+        <v>-0.6370998201217134</v>
       </c>
       <c r="X33" t="n">
-        <v>-0.7388369253618615</v>
+        <v>-0.769091153161781</v>
       </c>
       <c r="Y33" t="n">
-        <v>-0.88796873673307</v>
+        <v>-0.8852704289886895</v>
       </c>
       <c r="Z33" t="n">
-        <v>-0.8352175445818711</v>
+        <v>-0.859028994046661</v>
       </c>
       <c r="AA33" t="n">
-        <v>-0.6370875593654165</v>
+        <v>-0.6566950103835291</v>
       </c>
       <c r="AB33" t="n">
-        <v>-0.4028174449646785</v>
+        <v>-0.4083669752225021</v>
       </c>
       <c r="AC33" t="n">
-        <v>-0.1354007787958517</v>
+        <v>-0.1747428324002452</v>
       </c>
       <c r="AD33" t="n">
-        <v>0.1912905702364958</v>
+        <v>0.1641269657949689</v>
       </c>
       <c r="AE33" t="n">
-        <v>0.4864776019330346</v>
+        <v>0.502306281100134</v>
       </c>
       <c r="AF33" t="n">
-        <v>0.8031992119839668</v>
+        <v>0.8217506107952829</v>
       </c>
       <c r="AG33" t="n">
         <v>1</v>
       </c>
       <c r="AH33" t="n">
-        <v>0.8102926801529907</v>
+        <v>0.8259311066700927</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>0.509560299279418</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>0.2237960266471429</v>
       </c>
     </row>
     <row r="34">
@@ -3867,102 +4065,328 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.6525167357384186</v>
+        <v>0.6893023204538372</v>
       </c>
       <c r="C34" t="n">
-        <v>0.66806868004367</v>
+        <v>0.7502860034669728</v>
       </c>
       <c r="D34" t="n">
-        <v>0.4407410542052525</v>
+        <v>0.4591730565330712</v>
       </c>
       <c r="E34" t="n">
-        <v>0.1796241535155769</v>
+        <v>0.1593958777932545</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.08350956437631464</v>
+        <v>-0.1427191097052166</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.4488958064127351</v>
+        <v>-0.5143944282382373</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.7496546124001919</v>
+        <v>-0.8300335277724258</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.8132296852611139</v>
+        <v>-0.8507334544207715</v>
       </c>
       <c r="J34" t="n">
-        <v>-0.8129752535902672</v>
+        <v>-0.868747217620202</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.7178545057644683</v>
+        <v>-0.7951814043883416</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.5269153201961014</v>
+        <v>-0.6088205487964994</v>
       </c>
       <c r="M34" t="n">
-        <v>-0.4906731649511272</v>
+        <v>-0.5166597795181248</v>
       </c>
       <c r="N34" t="n">
-        <v>-0.4423259291702268</v>
+        <v>-0.4463496853076481</v>
       </c>
       <c r="O34" t="n">
-        <v>-0.2052268727754797</v>
+        <v>-0.208470064564224</v>
       </c>
       <c r="P34" t="n">
-        <v>0.1810199567748038</v>
+        <v>0.1802850342223194</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.4777383015381164</v>
+        <v>0.4756660094052371</v>
       </c>
       <c r="R34" t="n">
-        <v>0.4614961369960316</v>
+        <v>0.5596931606972259</v>
       </c>
       <c r="S34" t="n">
-        <v>0.281254934429144</v>
+        <v>0.3577589526216674</v>
       </c>
       <c r="T34" t="n">
-        <v>0.02261445335075941</v>
+        <v>-0.09535279404087113</v>
       </c>
       <c r="U34" t="n">
-        <v>-0.1071454609133819</v>
+        <v>-0.3434075793763701</v>
       </c>
       <c r="V34" t="n">
-        <v>-0.1893574699569033</v>
+        <v>-0.3846219283583381</v>
       </c>
       <c r="W34" t="n">
-        <v>-0.3174941499752448</v>
+        <v>-0.4776025038023116</v>
       </c>
       <c r="X34" t="n">
-        <v>-0.5373492943629947</v>
+        <v>-0.6355860572333948</v>
       </c>
       <c r="Y34" t="n">
-        <v>-0.7749111023512486</v>
+        <v>-0.7886655230553105</v>
       </c>
       <c r="Z34" t="n">
-        <v>-0.9104667428354868</v>
+        <v>-0.9125861929843561</v>
       </c>
       <c r="AA34" t="n">
-        <v>-0.8497798910986687</v>
+        <v>-0.8578592910826469</v>
       </c>
       <c r="AB34" t="n">
-        <v>-0.6555104587773649</v>
+        <v>-0.6519964494219427</v>
       </c>
       <c r="AC34" t="n">
-        <v>-0.4474637930630371</v>
+        <v>-0.4455789474146131</v>
       </c>
       <c r="AD34" t="n">
-        <v>-0.1862424904931046</v>
+        <v>-0.1711317209013037</v>
       </c>
       <c r="AE34" t="n">
-        <v>0.1465904506059725</v>
+        <v>0.2041889808545186</v>
       </c>
       <c r="AF34" t="n">
-        <v>0.4729880656108474</v>
+        <v>0.5365635533520833</v>
       </c>
       <c r="AG34" t="n">
-        <v>0.8102926801529907</v>
+        <v>0.8259311066700928</v>
       </c>
       <c r="AH34" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>0.8138701872340596</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>0.5130488529851901</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.5544712082264762</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.6980588864449968</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.6769078310661322</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.4416637087427868</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.1517551392401467</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-0.1205306925672984</v>
+      </c>
+      <c r="H35" t="n">
+        <v>-0.519600818154183</v>
+      </c>
+      <c r="I35" t="n">
+        <v>-0.79823557931352</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-0.8391861293255353</v>
+      </c>
+      <c r="K35" t="n">
+        <v>-0.8775403612503444</v>
+      </c>
+      <c r="L35" t="n">
+        <v>-0.8152544194881526</v>
+      </c>
+      <c r="M35" t="n">
+        <v>-0.6916964480156921</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-0.5693628619985686</v>
+      </c>
+      <c r="O35" t="n">
+        <v>-0.5047784422743274</v>
+      </c>
+      <c r="P35" t="n">
+        <v>-0.1978856403269897</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.2157696383860555</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.4752619912785838</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.5322513764706643</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0.2789374407048816</v>
+      </c>
+      <c r="U35" t="n">
+        <v>-0.07061447092530054</v>
+      </c>
+      <c r="V35" t="n">
+        <v>-0.2271763372937852</v>
+      </c>
+      <c r="W35" t="n">
+        <v>-0.2825313481605296</v>
+      </c>
+      <c r="X35" t="n">
+        <v>-0.4045511121353075</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>-0.581737844740208</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>-0.7861599972892123</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>-0.9249580506331136</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>-0.8653974047002634</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>-0.6872765665836111</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>-0.4847336638292347</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>-0.1777415108513312</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>0.2049864390769394</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>0.5095602992794179</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>0.8138701872340596</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>0.8372463774906237</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.5203100468731471</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.4978503187260962</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.6671927780643752</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.6597705322887591</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.4514295549931718</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.1592286580098558</v>
+      </c>
+      <c r="H36" t="n">
+        <v>-0.1885386567070492</v>
+      </c>
+      <c r="I36" t="n">
+        <v>-0.4803697479326687</v>
+      </c>
+      <c r="J36" t="n">
+        <v>-0.7380733365703936</v>
+      </c>
+      <c r="K36" t="n">
+        <v>-0.8253179290882875</v>
+      </c>
+      <c r="L36" t="n">
+        <v>-0.8112651972996459</v>
+      </c>
+      <c r="M36" t="n">
+        <v>-0.7672219266273753</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-0.5894648538193267</v>
+      </c>
+      <c r="O36" t="n">
+        <v>-0.5311814762578591</v>
+      </c>
+      <c r="P36" t="n">
+        <v>-0.4411132395106913</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>-0.08538722500802749</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.2123820301524864</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0.514267962062949</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0.4777898503142286</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0.2590981234713108</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0.03774250412648771</v>
+      </c>
+      <c r="W36" t="n">
+        <v>-0.07865033591781141</v>
+      </c>
+      <c r="X36" t="n">
+        <v>-0.15822291693563</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>-0.2738380309598498</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>-0.5320699781264537</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>-0.7788789337636149</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>-0.927514176008214</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>-0.8481217109129277</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>-0.6629150925037935</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>-0.434643373250868</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>-0.1267597926462354</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>0.2237960266471428</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>0.5130488529851901</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>0.8372463774906236</v>
+      </c>
+      <c r="AJ36" t="n">
         <v>1</v>
       </c>
     </row>

--- a/ysrs2 ssa/matrixes/X_correlations.xlsx
+++ b/ysrs2 ssa/matrixes/X_correlations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ36"/>
+  <dimension ref="A1:AL38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,6 +539,12 @@
       <c r="AJ1" s="1" t="n">
         <v>34</v>
       </c>
+      <c r="AK1" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -548,106 +554,112 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6283621765697914</v>
+        <v>0.6573583192248034</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3204116181222016</v>
+        <v>0.3305449147865836</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1600516300288158</v>
+        <v>0.2742779468598717</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.1436491784022877</v>
+        <v>-0.1238317778393083</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.4415953779833821</v>
+        <v>-0.5107804216590324</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.6826518979750406</v>
+        <v>-0.7964339825671597</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.6980180029974095</v>
+        <v>-0.7298342868310599</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.7294953709102947</v>
+        <v>-0.748639201234134</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.7431619240436254</v>
+        <v>-0.7372807639919192</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.4395577937228188</v>
+        <v>-0.4633603943959834</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.3316884830033103</v>
+        <v>-0.3265734483296756</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.1964231224374326</v>
+        <v>-0.1902368785207513</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.0393136794901946</v>
+        <v>0.02687365539402467</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.1615157867471228</v>
+        <v>-0.2373314942356147</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.1035076439476302</v>
+        <v>0.009437671696308075</v>
       </c>
       <c r="R2" t="n">
-        <v>0.3665123237126118</v>
+        <v>0.3353344211166142</v>
       </c>
       <c r="S2" t="n">
-        <v>0.3802272850151787</v>
+        <v>0.4143677841169092</v>
       </c>
       <c r="T2" t="n">
-        <v>0.2794688454190066</v>
+        <v>0.4319055056032191</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0515655386443383</v>
+        <v>0.2131485850804082</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.1230625478813188</v>
+        <v>-0.1449315964442985</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.3840095570551564</v>
+        <v>-0.6099149700390426</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.6086281207314075</v>
+        <v>-0.8303878018265276</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.6972697754833908</v>
+        <v>-0.8308547380578409</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.8060034265212851</v>
+        <v>-0.843255513560202</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.7907690956867672</v>
+        <v>-0.7859991149124069</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.6419921770075613</v>
+        <v>-0.6682189239456512</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.406810489383623</v>
+        <v>-0.4307270352674994</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.03281697828869995</v>
+        <v>-0.03291128527835945</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.2912940659225297</v>
+        <v>0.2895913012310016</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.4973303804201045</v>
+        <v>0.5272679911997675</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.7094002897365332</v>
+        <v>0.7911653023861014</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.6893023204538372</v>
+        <v>0.7070702007491885</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.5544712082264761</v>
+        <v>0.5421776688279517</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.5203100468731471</v>
+        <v>0.5338558870048501</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0.427578895078721</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0.001871980243348014</v>
       </c>
     </row>
     <row r="3">
@@ -655,109 +667,115 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6283621765697914</v>
+        <v>0.6573583192248034</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4815034559832071</v>
+        <v>0.6327728922487321</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2224264365892538</v>
+        <v>0.3016288304065285</v>
       </c>
       <c r="F3" t="n">
-        <v>0.08204692877787954</v>
+        <v>0.1403213587307322</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2306046228246171</v>
+        <v>-0.2324208708770174</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.5958413961753738</v>
+        <v>-0.7504124410295089</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.7032215379548502</v>
+        <v>-0.7651980809891674</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.6915046173537929</v>
+        <v>-0.7209945359672802</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.7180398664901928</v>
+        <v>-0.7494984445558496</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.7298732072514224</v>
+        <v>-0.7259667520867326</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.3965753306586844</v>
+        <v>-0.4002976229448214</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.2745685930209199</v>
+        <v>-0.2653212565733177</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.04311588239408463</v>
+        <v>-0.107838485580134</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1330070757086117</v>
+        <v>0.09456087160429656</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.02157267403767534</v>
+        <v>0.01854477707071413</v>
       </c>
       <c r="R3" t="n">
-        <v>0.07419416291704103</v>
+        <v>0.1112861034542055</v>
       </c>
       <c r="S3" t="n">
-        <v>0.3153060585539669</v>
+        <v>0.3862986958619096</v>
       </c>
       <c r="T3" t="n">
-        <v>0.187860852404253</v>
+        <v>0.3792544151931078</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1048179149961575</v>
+        <v>0.2828822341937666</v>
       </c>
       <c r="V3" t="n">
-        <v>-0.06195252254205431</v>
+        <v>0.02681432567302692</v>
       </c>
       <c r="W3" t="n">
-        <v>-0.1667496570347468</v>
+        <v>-0.2035751670786628</v>
       </c>
       <c r="X3" t="n">
-        <v>-0.3817520202899922</v>
+        <v>-0.5270036528651716</v>
       </c>
       <c r="Y3" t="n">
-        <v>-0.5820546108142463</v>
+        <v>-0.7121274465453531</v>
       </c>
       <c r="Z3" t="n">
-        <v>-0.6918198098033047</v>
+        <v>-0.7818425993935243</v>
       </c>
       <c r="AA3" t="n">
-        <v>-0.776885021190114</v>
+        <v>-0.8160467318152743</v>
       </c>
       <c r="AB3" t="n">
-        <v>-0.7670460291941079</v>
+        <v>-0.7850895581297643</v>
       </c>
       <c r="AC3" t="n">
-        <v>-0.6071478535280516</v>
+        <v>-0.6121192481144259</v>
       </c>
       <c r="AD3" t="n">
-        <v>-0.2894603810121714</v>
+        <v>-0.340112153574106</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.1291431154564319</v>
+        <v>0.112189651056655</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.4321123500367475</v>
+        <v>0.4767414177423731</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.5987909141862204</v>
+        <v>0.6670484742242343</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.7502860034669728</v>
+        <v>0.834682712584651</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.6980588864449967</v>
+        <v>0.7265765355400284</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.4978503187260961</v>
+        <v>0.5224535731651491</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.4735060006966387</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.3124351079353112</v>
       </c>
     </row>
     <row r="4">
@@ -765,109 +783,115 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.3204116181222016</v>
+        <v>0.3305449147865836</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4815034559832071</v>
+        <v>0.6327728922487321</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5486236278300439</v>
+        <v>0.6126743547465177</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3590359608473208</v>
+        <v>0.2809174017955253</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2747120483415574</v>
+        <v>0.1281583178902848</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.09254071404104729</v>
+        <v>-0.2835923833239495</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3944849675467693</v>
+        <v>-0.5953541164385424</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.5010970372333757</v>
+        <v>-0.6919427583565679</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.5902385429812813</v>
+        <v>-0.678532057808921</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.5195391418039532</v>
+        <v>-0.7262766271022085</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.5703691574892351</v>
+        <v>-0.787561132930608</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.1704575341820929</v>
+        <v>-0.3738915042958875</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.3269698025115703</v>
+        <v>-0.2124972821659121</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.2312439347947339</v>
+        <v>-0.02783241928721389</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.07126562723853636</v>
+        <v>0.2471026749697854</v>
       </c>
       <c r="R4" t="n">
-        <v>0.05303378604993901</v>
+        <v>-0.03158307526969989</v>
       </c>
       <c r="S4" t="n">
-        <v>0.2249114933260789</v>
+        <v>0.09348869563023365</v>
       </c>
       <c r="T4" t="n">
-        <v>0.509834698180014</v>
+        <v>0.3803460412657172</v>
       </c>
       <c r="U4" t="n">
-        <v>0.3974146497711362</v>
+        <v>0.3547968732360747</v>
       </c>
       <c r="V4" t="n">
-        <v>0.3977542405462401</v>
+        <v>0.2356534428778761</v>
       </c>
       <c r="W4" t="n">
-        <v>0.2668492358445674</v>
+        <v>0.06191612775899327</v>
       </c>
       <c r="X4" t="n">
-        <v>0.120408061243258</v>
+        <v>-0.09084267364187119</v>
       </c>
       <c r="Y4" t="n">
-        <v>-0.09385052063249628</v>
+        <v>-0.3493627283082048</v>
       </c>
       <c r="Z4" t="n">
-        <v>-0.4272139738890009</v>
+        <v>-0.5765190455551175</v>
       </c>
       <c r="AA4" t="n">
-        <v>-0.6424882838884834</v>
+        <v>-0.6789263269584799</v>
       </c>
       <c r="AB4" t="n">
-        <v>-0.7148842262876238</v>
+        <v>-0.794257006357078</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.6883936242099349</v>
+        <v>-0.7970438760647939</v>
       </c>
       <c r="AD4" t="n">
-        <v>-0.6566322562019019</v>
+        <v>-0.6355888406231371</v>
       </c>
       <c r="AE4" t="n">
-        <v>-0.3770978380856166</v>
+        <v>-0.3243335006520276</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.001140748468651286</v>
+        <v>0.1518181818131306</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.2191661252163233</v>
+        <v>0.4781458582386426</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.4591730565330711</v>
+        <v>0.6159251918414557</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.6769078310661321</v>
+        <v>0.7504401862234878</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.6671927780643752</v>
+        <v>0.7049702828788037</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0.5292283524873211</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.4870172231763293</v>
       </c>
     </row>
     <row r="5">
@@ -875,109 +899,115 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1600516300288158</v>
+        <v>0.2742779468598716</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2224264365892538</v>
+        <v>0.3016288304065285</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5486236278300439</v>
+        <v>0.6126743547465178</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6078804436045001</v>
+        <v>0.4621983495991684</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4461806350183574</v>
+        <v>0.1750036891476705</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3180985424819781</v>
+        <v>-0.06414306184782628</v>
       </c>
       <c r="I5" t="n">
-        <v>0.006221699572579715</v>
+        <v>-0.3154840427081846</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.2660938023016441</v>
+        <v>-0.5812880891485317</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.4432437349905342</v>
+        <v>-0.6878254621177948</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.4454195508789734</v>
+        <v>-0.6590703459984736</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.3821884075021275</v>
+        <v>-0.7210699067716014</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.3906049544650236</v>
+        <v>-0.8083390634489886</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.1669413988611618</v>
+        <v>-0.3144697578099668</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.4030151430100884</v>
+        <v>-0.1485979760869064</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.2484342202349774</v>
+        <v>0.3065915441131188</v>
       </c>
       <c r="R5" t="n">
-        <v>0.08642506450386415</v>
+        <v>0.2591021930750822</v>
       </c>
       <c r="S5" t="n">
-        <v>0.1715347346032492</v>
+        <v>0.02142933854938823</v>
       </c>
       <c r="T5" t="n">
-        <v>0.3768042941488108</v>
+        <v>0.05505485853378411</v>
       </c>
       <c r="U5" t="n">
-        <v>0.5732226673937855</v>
+        <v>0.2438914069093789</v>
       </c>
       <c r="V5" t="n">
-        <v>0.509825508914558</v>
+        <v>0.1557181622420741</v>
       </c>
       <c r="W5" t="n">
-        <v>0.5254781520025598</v>
+        <v>0.1253288146243001</v>
       </c>
       <c r="X5" t="n">
-        <v>0.4160381053477108</v>
+        <v>-0.0237145729556655</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.2925377126593822</v>
+        <v>-0.09981337440352663</v>
       </c>
       <c r="Z5" t="n">
-        <v>-0.003559440519855748</v>
+        <v>-0.3382096976195609</v>
       </c>
       <c r="AA5" t="n">
-        <v>-0.4079515532886314</v>
+        <v>-0.5537416121536647</v>
       </c>
       <c r="AB5" t="n">
-        <v>-0.6158001432903836</v>
+        <v>-0.6740817707560953</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0.6643703106829915</v>
+        <v>-0.7551323255505884</v>
       </c>
       <c r="AD5" t="n">
-        <v>-0.7207328267682725</v>
+        <v>-0.7697845074632528</v>
       </c>
       <c r="AE5" t="n">
-        <v>-0.6948475208544836</v>
+        <v>-0.5942437883899206</v>
       </c>
       <c r="AF5" t="n">
-        <v>-0.4162397329639783</v>
+        <v>-0.1789948120123699</v>
       </c>
       <c r="AG5" t="n">
-        <v>-0.08816985436110079</v>
+        <v>0.2876729025828043</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.1593958777932545</v>
+        <v>0.5282344811469426</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.4416637087427868</v>
+        <v>0.6312608482682091</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.6597705322887593</v>
+        <v>0.7375851798821627</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0.67399532433888</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0.4414661353053433</v>
       </c>
     </row>
     <row r="6">
@@ -985,109 +1015,115 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.1436491784022877</v>
+        <v>-0.1238317778393083</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08204692877787954</v>
+        <v>0.1403213587307322</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3590359608473208</v>
+        <v>0.2809174017955252</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6078804436045001</v>
+        <v>0.4621983495991683</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6798226176812332</v>
+        <v>0.5422904727557557</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5313103276954944</v>
+        <v>0.3371900705081055</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3859182152463663</v>
+        <v>0.2266081862168967</v>
       </c>
       <c r="J6" t="n">
-        <v>0.103768859051204</v>
+        <v>-0.07457474563056053</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.2239552067903367</v>
+        <v>-0.3639110965743959</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.3130297539085928</v>
+        <v>-0.4841615014796333</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.3437865669771068</v>
+        <v>-0.6214383731109284</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.228035177444553</v>
+        <v>-0.5498730130601598</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.4781949043948097</v>
+        <v>-0.6222852333434379</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.3300140971883966</v>
+        <v>-0.0491794162973261</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.5232542391476528</v>
+        <v>-0.3140240184620203</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.1957960888575413</v>
+        <v>-0.1604395154789633</v>
       </c>
       <c r="S6" t="n">
-        <v>0.2123192687731354</v>
+        <v>0.06227662192214932</v>
       </c>
       <c r="T6" t="n">
-        <v>0.3765892170517404</v>
+        <v>0.05225563954444196</v>
       </c>
       <c r="U6" t="n">
-        <v>0.5129788722122924</v>
+        <v>0.1950483472638866</v>
       </c>
       <c r="V6" t="n">
-        <v>0.6509954377047537</v>
+        <v>0.4876595547638756</v>
       </c>
       <c r="W6" t="n">
-        <v>0.6196843522621099</v>
+        <v>0.4130716367242614</v>
       </c>
       <c r="X6" t="n">
-        <v>0.6280793441589635</v>
+        <v>0.4395611979585698</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.538313924672891</v>
+        <v>0.3310786376381869</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.3437554548678348</v>
+        <v>0.1907512057261531</v>
       </c>
       <c r="AA6" t="n">
-        <v>-0.02389391611411579</v>
+        <v>-0.04700440285084995</v>
       </c>
       <c r="AB6" t="n">
-        <v>-0.3969721221655134</v>
+        <v>-0.3981497898418193</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.5830483142764468</v>
+        <v>-0.6415554794999068</v>
       </c>
       <c r="AD6" t="n">
-        <v>-0.7462333862316481</v>
+        <v>-0.7554136612310013</v>
       </c>
       <c r="AE6" t="n">
-        <v>-0.8070820079351431</v>
+        <v>-0.747237888747147</v>
       </c>
       <c r="AF6" t="n">
-        <v>-0.7566440515725464</v>
+        <v>-0.6758498455156736</v>
       </c>
       <c r="AG6" t="n">
-        <v>-0.5053225048402321</v>
+        <v>-0.3278474562480087</v>
       </c>
       <c r="AH6" t="n">
-        <v>-0.1427191097052166</v>
+        <v>0.06038304052304</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.1517551392401467</v>
+        <v>0.2337176030744575</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.4514295549931718</v>
+        <v>0.4583139597819183</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.7014295379568685</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.7315986026889431</v>
       </c>
     </row>
     <row r="7">
@@ -1095,109 +1131,115 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.4415953779833822</v>
+        <v>-0.5107804216590323</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.230604622824617</v>
+        <v>-0.2324208708770174</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2747120483415574</v>
+        <v>0.1281583178902848</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4461806350183574</v>
+        <v>0.1750036891476705</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6798226176812333</v>
+        <v>0.5422904727557557</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.7250316965238638</v>
+        <v>0.5917670191410239</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5822880922648631</v>
+        <v>0.4660068181560899</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4725143179141011</v>
+        <v>0.3697881879008982</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1341542460739074</v>
+        <v>0.05143973878642582</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.04529035294736564</v>
+        <v>-0.2073809257882108</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.1155611883514374</v>
+        <v>-0.4128187491850899</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.09091448895539288</v>
+        <v>-0.4648069536332053</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.2727990376153779</v>
+        <v>-0.3745875947797121</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.5996362762670968</v>
+        <v>-0.3797536763900242</v>
       </c>
       <c r="Q7" t="n">
-        <v>-0.4055348440126746</v>
+        <v>-0.007707289708545092</v>
       </c>
       <c r="R7" t="n">
-        <v>-0.4257036205375258</v>
+        <v>-0.4757097186977216</v>
       </c>
       <c r="S7" t="n">
-        <v>0.01076045483466342</v>
+        <v>-0.2522620075260666</v>
       </c>
       <c r="T7" t="n">
-        <v>0.4565623739999102</v>
+        <v>0.06843736789746327</v>
       </c>
       <c r="U7" t="n">
-        <v>0.5452808528242864</v>
+        <v>0.1047922610235948</v>
       </c>
       <c r="V7" t="n">
-        <v>0.6676310528448912</v>
+        <v>0.3697606668105808</v>
       </c>
       <c r="W7" t="n">
-        <v>0.7676631666509802</v>
+        <v>0.6004392480551335</v>
       </c>
       <c r="X7" t="n">
-        <v>0.7405812351269444</v>
+        <v>0.5559733666798841</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.7562076031759896</v>
+        <v>0.6159841464384639</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.5798127046781418</v>
+        <v>0.4940086321509818</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.2953187936859973</v>
+        <v>0.3591213383456753</v>
       </c>
       <c r="AB7" t="n">
-        <v>-0.03263841728832555</v>
+        <v>0.04326552343526897</v>
       </c>
       <c r="AC7" t="n">
-        <v>-0.3247286105949859</v>
+        <v>-0.3634055925180056</v>
       </c>
       <c r="AD7" t="n">
-        <v>-0.623184398038574</v>
+        <v>-0.6231822359007799</v>
       </c>
       <c r="AE7" t="n">
-        <v>-0.7972830335676782</v>
+        <v>-0.7307081314271099</v>
       </c>
       <c r="AF7" t="n">
-        <v>-0.8334232195045819</v>
+        <v>-0.7758272126027651</v>
       </c>
       <c r="AG7" t="n">
-        <v>-0.7935715513774959</v>
+        <v>-0.7058390064353228</v>
       </c>
       <c r="AH7" t="n">
-        <v>-0.5143944282382373</v>
+        <v>-0.4073940654185935</v>
       </c>
       <c r="AI7" t="n">
-        <v>-0.1205306925672984</v>
+        <v>-0.08750456406332766</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.1592286580098558</v>
+        <v>0.1094421458682983</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0.4012474448441879</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0.7250418193524102</v>
       </c>
     </row>
     <row r="8">
@@ -1205,109 +1247,115 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.6826518979750407</v>
+        <v>-0.7964339825671596</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.5958413961753738</v>
+        <v>-0.7504124410295089</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.0925407140410473</v>
+        <v>-0.2835923833239495</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3180985424819781</v>
+        <v>-0.06414306184782628</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5313103276954942</v>
+        <v>0.3371900705081055</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7250316965238637</v>
+        <v>0.5917670191410239</v>
       </c>
       <c r="H8" t="n">
         <v>0.9999999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>0.8060131001213758</v>
+        <v>0.7676210117732202</v>
       </c>
       <c r="J8" t="n">
-        <v>0.732232435392265</v>
+        <v>0.7207631129220974</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5601202488034187</v>
+        <v>0.5757096284609216</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3515906670361481</v>
+        <v>0.3532962369366968</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2669795848302634</v>
+        <v>0.09680142217562653</v>
       </c>
       <c r="N8" t="n">
-        <v>0.2205514237766707</v>
+        <v>-0.02043972675619255</v>
       </c>
       <c r="O8" t="n">
-        <v>0.03389488684906942</v>
+        <v>-0.07804950672617667</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.2924419449327479</v>
+        <v>0.05668875423808145</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.5630562293048939</v>
+        <v>-0.1876852744500815</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.4048142824807461</v>
+        <v>-0.3675123702714808</v>
       </c>
       <c r="S8" t="n">
-        <v>-0.2698322098811053</v>
+        <v>-0.5968268268289452</v>
       </c>
       <c r="T8" t="n">
-        <v>0.2158017198558968</v>
+        <v>-0.2788984684243695</v>
       </c>
       <c r="U8" t="n">
-        <v>0.5218797753247375</v>
+        <v>0.04533537348943754</v>
       </c>
       <c r="V8" t="n">
-        <v>0.6337097862584812</v>
+        <v>0.3739802679771644</v>
       </c>
       <c r="W8" t="n">
-        <v>0.7691579238971703</v>
+        <v>0.6230450287539401</v>
       </c>
       <c r="X8" t="n">
-        <v>0.8931189638509923</v>
+        <v>0.8310256395042045</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.9285683111562033</v>
+        <v>0.8903206306565958</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.8893873413834434</v>
+        <v>0.8848339883579118</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.6391267175089003</v>
+        <v>0.769999580985311</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.33740094189779</v>
+        <v>0.531960569779105</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.09790413710280868</v>
+        <v>0.1966276875083683</v>
       </c>
       <c r="AD8" t="n">
-        <v>-0.2565060051604934</v>
+        <v>-0.1869600761313955</v>
       </c>
       <c r="AE8" t="n">
-        <v>-0.6050763438746967</v>
+        <v>-0.4619360367881423</v>
       </c>
       <c r="AF8" t="n">
-        <v>-0.7947618141800291</v>
+        <v>-0.7135080666994232</v>
       </c>
       <c r="AG8" t="n">
-        <v>-0.8454236671874846</v>
+        <v>-0.7973368755666754</v>
       </c>
       <c r="AH8" t="n">
-        <v>-0.8300335277724258</v>
+        <v>-0.8075363056137074</v>
       </c>
       <c r="AI8" t="n">
-        <v>-0.5196008181541829</v>
+        <v>-0.5728231946482049</v>
       </c>
       <c r="AJ8" t="n">
-        <v>-0.1885386567070492</v>
+        <v>-0.3256695401185223</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>-0.1316307590551252</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0.2408592567387552</v>
       </c>
     </row>
     <row r="9">
@@ -1315,109 +1363,115 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.6980180029974096</v>
+        <v>-0.7298342868310599</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.7032215379548502</v>
+        <v>-0.7651980809891674</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.3944849675467693</v>
+        <v>-0.5953541164385425</v>
       </c>
       <c r="E9" t="n">
-        <v>0.006221699572579715</v>
+        <v>-0.3154840427081846</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3859182152463663</v>
+        <v>0.2266081862168967</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5822880922648631</v>
+        <v>0.4660068181560899</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8060131001213757</v>
+        <v>0.7676210117732202</v>
       </c>
       <c r="I9" t="n">
         <v>0.9999999999999999</v>
       </c>
       <c r="J9" t="n">
-        <v>0.8264561847743138</v>
+        <v>0.8042471438139182</v>
       </c>
       <c r="K9" t="n">
-        <v>0.7230321645024752</v>
+        <v>0.726045194037904</v>
       </c>
       <c r="L9" t="n">
-        <v>0.6108127157389743</v>
+        <v>0.6221509411761084</v>
       </c>
       <c r="M9" t="n">
-        <v>0.4401215418215006</v>
+        <v>0.3575014758535092</v>
       </c>
       <c r="N9" t="n">
-        <v>0.3637563104102675</v>
+        <v>0.2438494591213266</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1630252314641548</v>
+        <v>0.1403889529229943</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.1136417473676217</v>
+        <v>0.1560338661887229</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.4298902560554286</v>
+        <v>-0.1999550209031589</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.5179697903345504</v>
+        <v>-0.5081493568361911</v>
       </c>
       <c r="S9" t="n">
-        <v>-0.2814183905592392</v>
+        <v>-0.468698500126386</v>
       </c>
       <c r="T9" t="n">
-        <v>-0.02620548983844388</v>
+        <v>-0.4447384509390571</v>
       </c>
       <c r="U9" t="n">
-        <v>0.3299306559315842</v>
+        <v>-0.02251044796530673</v>
       </c>
       <c r="V9" t="n">
-        <v>0.5347607825148264</v>
+        <v>0.4166143496731197</v>
       </c>
       <c r="W9" t="n">
-        <v>0.632731338863419</v>
+        <v>0.5897311458812772</v>
       </c>
       <c r="X9" t="n">
-        <v>0.7731866886777879</v>
+        <v>0.7667322949790906</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.9082296307799859</v>
+        <v>0.9132731821932464</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.9376287715912319</v>
+        <v>0.9328469364409893</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.8480721128269985</v>
+        <v>0.916534516458016</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.603171683916372</v>
+        <v>0.7242402788506005</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.3370521170200694</v>
+        <v>0.4122542580129688</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.02288537456880282</v>
+        <v>0.1223572494629875</v>
       </c>
       <c r="AE9" t="n">
-        <v>-0.3608448638779702</v>
+        <v>-0.2053302851012364</v>
       </c>
       <c r="AF9" t="n">
-        <v>-0.6828233043871462</v>
+        <v>-0.5999415305144253</v>
       </c>
       <c r="AG9" t="n">
-        <v>-0.8385461319295405</v>
+        <v>-0.8044640237038885</v>
       </c>
       <c r="AH9" t="n">
-        <v>-0.8507334544207715</v>
+        <v>-0.8249735138555016</v>
       </c>
       <c r="AI9" t="n">
-        <v>-0.79823557931352</v>
+        <v>-0.8356405477321972</v>
       </c>
       <c r="AJ9" t="n">
-        <v>-0.4803697479326687</v>
+        <v>-0.5832601091772269</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>-0.281603101631527</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>-0.01252517178048065</v>
       </c>
     </row>
     <row r="10">
@@ -1425,109 +1479,115 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.7294953709102947</v>
+        <v>-0.748639201234134</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.6915046173537929</v>
+        <v>-0.7209945359672802</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.5010970372333757</v>
+        <v>-0.691942758356568</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.2660938023016441</v>
+        <v>-0.5812880891485317</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1037688590512041</v>
+        <v>-0.07457474563056052</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4725143179141011</v>
+        <v>0.3697881879008982</v>
       </c>
       <c r="H10" t="n">
-        <v>0.732232435392265</v>
+        <v>0.7207631129220974</v>
       </c>
       <c r="I10" t="n">
-        <v>0.8264561847743138</v>
+        <v>0.8042471438139182</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.8083326242089447</v>
+        <v>0.8116896264809511</v>
       </c>
       <c r="L10" t="n">
-        <v>0.7273336191915921</v>
+        <v>0.7330573857083936</v>
       </c>
       <c r="M10" t="n">
-        <v>0.6358555070890589</v>
+        <v>0.5937956683313056</v>
       </c>
       <c r="N10" t="n">
-        <v>0.4502449747450857</v>
+        <v>0.3725290288765494</v>
       </c>
       <c r="O10" t="n">
-        <v>0.2404446001726953</v>
+        <v>0.2520989252486754</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.03950613261665255</v>
+        <v>0.1877273917059788</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.3337382140175054</v>
+        <v>-0.1589792242301437</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.3917736516641863</v>
+        <v>-0.3759550966012087</v>
       </c>
       <c r="S10" t="n">
-        <v>-0.416553482863286</v>
+        <v>-0.5790625447419678</v>
       </c>
       <c r="T10" t="n">
-        <v>-0.05432620702383403</v>
+        <v>-0.3952226473438749</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1463327578292867</v>
+        <v>-0.2242245489903442</v>
       </c>
       <c r="V10" t="n">
-        <v>0.3859328377090885</v>
+        <v>0.2403218257653026</v>
       </c>
       <c r="W10" t="n">
-        <v>0.5348311099284683</v>
+        <v>0.5204071828063219</v>
       </c>
       <c r="X10" t="n">
-        <v>0.6361429809620552</v>
+        <v>0.6290422814596957</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.76729204565183</v>
+        <v>0.7644608219081636</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.9067326607371445</v>
+        <v>0.9116021462880631</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.8917822469737381</v>
+        <v>0.9377003493347371</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.8062527887569658</v>
+        <v>0.8986279611589938</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.5678480697183864</v>
+        <v>0.630428369942329</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.2091113351992457</v>
+        <v>0.3067155708258124</v>
       </c>
       <c r="AE10" t="n">
-        <v>-0.1425857709570255</v>
+        <v>0.01378143450307069</v>
       </c>
       <c r="AF10" t="n">
-        <v>-0.5016171942625152</v>
+        <v>-0.4118672379290063</v>
       </c>
       <c r="AG10" t="n">
-        <v>-0.7798228487328289</v>
+        <v>-0.7565775469087459</v>
       </c>
       <c r="AH10" t="n">
-        <v>-0.868747217620202</v>
+        <v>-0.8621830498091894</v>
       </c>
       <c r="AI10" t="n">
-        <v>-0.8391861293255353</v>
+        <v>-0.8612990846203837</v>
       </c>
       <c r="AJ10" t="n">
-        <v>-0.7380733365703938</v>
+        <v>-0.8256294754451411</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>-0.517257183424654</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>-0.1251178498730414</v>
       </c>
     </row>
     <row r="11">
@@ -1535,109 +1595,115 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.7431619240436254</v>
+        <v>-0.7372807639919191</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.7180398664901927</v>
+        <v>-0.7494984445558496</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.5902385429812813</v>
+        <v>-0.6785320578089211</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.4432437349905342</v>
+        <v>-0.6878254621177947</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.2239552067903367</v>
+        <v>-0.3639110965743959</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1341542460739074</v>
+        <v>0.05143973878642583</v>
       </c>
       <c r="H11" t="n">
-        <v>0.5601202488034187</v>
+        <v>0.5757096284609216</v>
       </c>
       <c r="I11" t="n">
-        <v>0.7230321645024753</v>
+        <v>0.726045194037904</v>
       </c>
       <c r="J11" t="n">
-        <v>0.8083326242089448</v>
+        <v>0.8116896264809511</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>0.7973479059433495</v>
+        <v>0.826854030293357</v>
       </c>
       <c r="M11" t="n">
-        <v>0.7551344295768552</v>
+        <v>0.7579310736429163</v>
       </c>
       <c r="N11" t="n">
-        <v>0.6345147355144402</v>
+        <v>0.6437452135087166</v>
       </c>
       <c r="O11" t="n">
-        <v>0.4084224247301444</v>
+        <v>0.3918992975624612</v>
       </c>
       <c r="P11" t="n">
-        <v>0.1418920137482355</v>
+        <v>0.2788238585778576</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.1751859109890834</v>
+        <v>-0.03327373544083616</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.3215963233829704</v>
+        <v>-0.2794905220670333</v>
       </c>
       <c r="S11" t="n">
-        <v>-0.3679476434241132</v>
+        <v>-0.4356731489148084</v>
       </c>
       <c r="T11" t="n">
-        <v>-0.284230746296752</v>
+        <v>-0.5289338370702259</v>
       </c>
       <c r="U11" t="n">
-        <v>0.00711164190784102</v>
+        <v>-0.2356400387614828</v>
       </c>
       <c r="V11" t="n">
-        <v>0.1290677303931364</v>
+        <v>0.02397570128097203</v>
       </c>
       <c r="W11" t="n">
-        <v>0.3097591826587864</v>
+        <v>0.3308175244973203</v>
       </c>
       <c r="X11" t="n">
-        <v>0.4692997094198848</v>
+        <v>0.5209646897216428</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.5781130422931993</v>
+        <v>0.6124418418944106</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.755712287458475</v>
+        <v>0.7573079553342489</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.8975123526490379</v>
+        <v>0.9026593743324041</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.8837706739994622</v>
+        <v>0.9336477379029959</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.8071124459338371</v>
+        <v>0.8522883601131789</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.532397524185353</v>
+        <v>0.5868821413288854</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.1294677878474727</v>
+        <v>0.2434502529359919</v>
       </c>
       <c r="AF11" t="n">
-        <v>-0.2172532577631745</v>
+        <v>-0.1480505845638488</v>
       </c>
       <c r="AG11" t="n">
-        <v>-0.5412638064329184</v>
+        <v>-0.5442496670447408</v>
       </c>
       <c r="AH11" t="n">
-        <v>-0.7951814043883416</v>
+        <v>-0.7986427147628131</v>
       </c>
       <c r="AI11" t="n">
-        <v>-0.8775403612503444</v>
+        <v>-0.8754363651580582</v>
       </c>
       <c r="AJ11" t="n">
-        <v>-0.8253179290882875</v>
+        <v>-0.864629266246281</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>-0.8202680079538992</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>-0.4402919636237196</v>
       </c>
     </row>
     <row r="12">
@@ -1645,109 +1711,115 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.4395577937228188</v>
+        <v>-0.4633603943959835</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.7298732072514224</v>
+        <v>-0.7259667520867326</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.5195391418039532</v>
+        <v>-0.7262766271022085</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.4454195508789734</v>
+        <v>-0.6590703459984736</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.3130297539085929</v>
+        <v>-0.4841615014796334</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.04529035294736564</v>
+        <v>-0.2073809257882108</v>
       </c>
       <c r="H12" t="n">
-        <v>0.3515906670361481</v>
+        <v>0.3532962369366968</v>
       </c>
       <c r="I12" t="n">
-        <v>0.6108127157389743</v>
+        <v>0.6221509411761084</v>
       </c>
       <c r="J12" t="n">
-        <v>0.727333619191592</v>
+        <v>0.7330573857083936</v>
       </c>
       <c r="K12" t="n">
-        <v>0.7973479059433495</v>
+        <v>0.826854030293357</v>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="M12" t="n">
-        <v>0.7879827246467218</v>
+        <v>0.7929265176830108</v>
       </c>
       <c r="N12" t="n">
-        <v>0.7398054552676618</v>
+        <v>0.7420719577119373</v>
       </c>
       <c r="O12" t="n">
-        <v>0.4776132008824134</v>
+        <v>0.6042303850542184</v>
       </c>
       <c r="P12" t="n">
-        <v>0.1378587086592289</v>
+        <v>0.3314094577121752</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.143811304666393</v>
+        <v>-0.09665505160996683</v>
       </c>
       <c r="R12" t="n">
-        <v>-0.1337152410902044</v>
+        <v>-0.1645500934371693</v>
       </c>
       <c r="S12" t="n">
-        <v>-0.2507028809620743</v>
+        <v>-0.3606004591314645</v>
       </c>
       <c r="T12" t="n">
-        <v>-0.1177798211256646</v>
+        <v>-0.3927592235198007</v>
       </c>
       <c r="U12" t="n">
-        <v>-0.03977308507231007</v>
+        <v>-0.3308723167792727</v>
       </c>
       <c r="V12" t="n">
-        <v>0.167408949029714</v>
+        <v>-0.0003760428931752835</v>
       </c>
       <c r="W12" t="n">
-        <v>0.2229128442108216</v>
+        <v>0.1357320952177102</v>
       </c>
       <c r="X12" t="n">
-        <v>0.3535619634107503</v>
+        <v>0.3637324120271383</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.4709431735592088</v>
+        <v>0.4873497704911058</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.5738731580478644</v>
+        <v>0.6116582490611915</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.7088920775680985</v>
+        <v>0.7553457318712465</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.8680086653175391</v>
+        <v>0.9139203558521236</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.8453369000479535</v>
+        <v>0.8742843829023138</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.6717930084243172</v>
+        <v>0.7815982201252338</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.3329002770903566</v>
+        <v>0.484465593473513</v>
       </c>
       <c r="AF12" t="n">
-        <v>-0.06627681809772398</v>
+        <v>0.01777404302924266</v>
       </c>
       <c r="AG12" t="n">
-        <v>-0.3898503456874753</v>
+        <v>-0.358262172458534</v>
       </c>
       <c r="AH12" t="n">
-        <v>-0.6088205487964994</v>
+        <v>-0.6425455814780949</v>
       </c>
       <c r="AI12" t="n">
-        <v>-0.8152544194881526</v>
+        <v>-0.8502653142288363</v>
       </c>
       <c r="AJ12" t="n">
-        <v>-0.8112651972996459</v>
+        <v>-0.8685816781451177</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>-0.8150405926523216</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>-0.7185577059135885</v>
       </c>
     </row>
     <row r="13">
@@ -1755,109 +1827,115 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.3316884830033103</v>
+        <v>-0.3265734483296756</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.3965753306586844</v>
+        <v>-0.4002976229448214</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.5703691574892351</v>
+        <v>-0.787561132930608</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.3821884075021275</v>
+        <v>-0.7210699067716014</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.3437865669771067</v>
+        <v>-0.6214383731109284</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.1155611883514374</v>
+        <v>-0.4128187491850898</v>
       </c>
       <c r="H13" t="n">
-        <v>0.2669795848302634</v>
+        <v>0.09680142217562651</v>
       </c>
       <c r="I13" t="n">
-        <v>0.4401215418215006</v>
+        <v>0.3575014758535092</v>
       </c>
       <c r="J13" t="n">
-        <v>0.6358555070890589</v>
+        <v>0.5937956683313056</v>
       </c>
       <c r="K13" t="n">
-        <v>0.7551344295768551</v>
+        <v>0.7579310736429163</v>
       </c>
       <c r="L13" t="n">
-        <v>0.7879827246467218</v>
+        <v>0.7929265176830108</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.717745584264636</v>
+        <v>0.6803956444180292</v>
       </c>
       <c r="O13" t="n">
-        <v>0.5324696866824222</v>
+        <v>0.6090584438426935</v>
       </c>
       <c r="P13" t="n">
-        <v>0.1421132779603795</v>
+        <v>0.4284252691126932</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.3235571634467033</v>
+        <v>-0.1622439513902257</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.09657079293318171</v>
+        <v>-0.05637109707796544</v>
       </c>
       <c r="S13" t="n">
-        <v>-0.08963839661664473</v>
+        <v>-0.2135677836596756</v>
       </c>
       <c r="T13" t="n">
-        <v>-0.02387351364075379</v>
+        <v>-0.3561564353028625</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1441990179675018</v>
+        <v>-0.2205952878953802</v>
       </c>
       <c r="V13" t="n">
-        <v>0.1395070130855759</v>
+        <v>-0.2383504839866287</v>
       </c>
       <c r="W13" t="n">
-        <v>0.2567565946344977</v>
+        <v>-0.03121637854733779</v>
       </c>
       <c r="X13" t="n">
-        <v>0.2742222001927384</v>
+        <v>0.05283854029126744</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.3434913117133543</v>
+        <v>0.1936435824895193</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.4721935625126168</v>
+        <v>0.4067549971451564</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.5337304686727021</v>
+        <v>0.5580545179275378</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.7124016674793373</v>
+        <v>0.7954631108863289</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.8406045343639997</v>
+        <v>0.9155841125400612</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.6793009845026016</v>
+        <v>0.8258954389398745</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.4346673648269114</v>
+        <v>0.7028772781731881</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.08388138981626778</v>
+        <v>0.3028485437518205</v>
       </c>
       <c r="AG13" t="n">
-        <v>-0.3219878294620189</v>
+        <v>-0.1918275484753681</v>
       </c>
       <c r="AH13" t="n">
-        <v>-0.5166597795181248</v>
+        <v>-0.4589653067646651</v>
       </c>
       <c r="AI13" t="n">
-        <v>-0.6916964480156921</v>
+        <v>-0.7066395916636996</v>
       </c>
       <c r="AJ13" t="n">
-        <v>-0.7672219266273753</v>
+        <v>-0.8561117818731429</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>-0.8279644020745691</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>-0.7187236172500235</v>
       </c>
     </row>
     <row r="14">
@@ -1865,109 +1943,115 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.1964231224374326</v>
+        <v>-0.1902368785207512</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.2745685930209199</v>
+        <v>-0.2653212565733177</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.1704575341820929</v>
+        <v>-0.3738915042958875</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.3906049544650236</v>
+        <v>-0.8083390634489885</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.228035177444553</v>
+        <v>-0.5498730130601598</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.09091448895539288</v>
+        <v>-0.4648069536332054</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2205514237766708</v>
+        <v>-0.02043972675619255</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3637563104102675</v>
+        <v>0.2438494591213266</v>
       </c>
       <c r="J14" t="n">
-        <v>0.4502449747450856</v>
+        <v>0.3725290288765494</v>
       </c>
       <c r="K14" t="n">
-        <v>0.6345147355144403</v>
+        <v>0.6437452135087167</v>
       </c>
       <c r="L14" t="n">
-        <v>0.7398054552676618</v>
+        <v>0.7420719577119372</v>
       </c>
       <c r="M14" t="n">
-        <v>0.7177455842646359</v>
+        <v>0.6803956444180291</v>
       </c>
       <c r="N14" t="n">
         <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>0.4583134528385218</v>
+        <v>0.568164383630695</v>
       </c>
       <c r="P14" t="n">
-        <v>0.1380874237277844</v>
+        <v>0.5121139398452387</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.3509296406900526</v>
+        <v>-0.1503064503493087</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.2865445369240909</v>
+        <v>-0.2859219289868088</v>
       </c>
       <c r="S14" t="n">
-        <v>-0.01284068784099885</v>
+        <v>-0.1716855218163724</v>
       </c>
       <c r="T14" t="n">
-        <v>0.1832141574300152</v>
+        <v>-0.1520009605543248</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2920615080944197</v>
+        <v>-0.07007244351986151</v>
       </c>
       <c r="V14" t="n">
-        <v>0.3552844672178313</v>
+        <v>0.03434496432686172</v>
       </c>
       <c r="W14" t="n">
-        <v>0.293699035797248</v>
+        <v>-0.09902948309203097</v>
       </c>
       <c r="X14" t="n">
-        <v>0.3530126819994925</v>
+        <v>0.09362342723082083</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.2943592086432419</v>
+        <v>0.06615759895247396</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.3314687899241781</v>
+        <v>0.2252461130042215</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.3941657657598406</v>
+        <v>0.4303477752846304</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.4868762079126774</v>
+        <v>0.5838990607130354</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.6298987060481203</v>
+        <v>0.7181833720054511</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.6241228023422636</v>
+        <v>0.82313728315178</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.3919188579079172</v>
+        <v>0.7214466916404815</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.158272925379865</v>
+        <v>0.4553687614643704</v>
       </c>
       <c r="AG14" t="n">
-        <v>-0.1955477014474589</v>
+        <v>0.01630347432030769</v>
       </c>
       <c r="AH14" t="n">
-        <v>-0.446349685307648</v>
+        <v>-0.3665576186757457</v>
       </c>
       <c r="AI14" t="n">
-        <v>-0.5693628619985686</v>
+        <v>-0.5962115284020298</v>
       </c>
       <c r="AJ14" t="n">
-        <v>-0.5894648538193267</v>
+        <v>-0.7043239801771533</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>-0.7725121464060928</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>-0.6546367058847664</v>
       </c>
     </row>
     <row r="15">
@@ -1975,109 +2059,115 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.0393136794901946</v>
+        <v>0.02687365539402467</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.04311588239408463</v>
+        <v>-0.107838485580134</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.3269698025115703</v>
+        <v>-0.2124972821659121</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.1669413988611618</v>
+        <v>-0.3144697578099668</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.4781949043948097</v>
+        <v>-0.6222852333434379</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.2727990376153779</v>
+        <v>-0.3745875947797122</v>
       </c>
       <c r="H15" t="n">
-        <v>0.03389488684906942</v>
+        <v>-0.07804950672617667</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1630252314641548</v>
+        <v>0.1403889529229943</v>
       </c>
       <c r="J15" t="n">
-        <v>0.2404446001726953</v>
+        <v>0.2520989252486754</v>
       </c>
       <c r="K15" t="n">
-        <v>0.4084224247301444</v>
+        <v>0.3918992975624612</v>
       </c>
       <c r="L15" t="n">
-        <v>0.4776132008824134</v>
+        <v>0.6042303850542184</v>
       </c>
       <c r="M15" t="n">
-        <v>0.5324696866824222</v>
+        <v>0.6090584438426934</v>
       </c>
       <c r="N15" t="n">
-        <v>0.4583134528385218</v>
+        <v>0.568164383630695</v>
       </c>
       <c r="O15" t="n">
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>0.3846121189647241</v>
+        <v>0.4696200585360804</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.1498931915379738</v>
+        <v>-0.01048257001231879</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.3782686128189035</v>
+        <v>-0.2879443476258898</v>
       </c>
       <c r="S15" t="n">
-        <v>-0.4210623812615942</v>
+        <v>-0.4270470773193415</v>
       </c>
       <c r="T15" t="n">
-        <v>-0.1451757788755181</v>
+        <v>-0.100914736104186</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1166929720676879</v>
+        <v>0.1705560751132947</v>
       </c>
       <c r="V15" t="n">
-        <v>0.04386813686522339</v>
+        <v>0.1732979525486204</v>
       </c>
       <c r="W15" t="n">
-        <v>0.09605193849496042</v>
+        <v>0.1650762878801823</v>
       </c>
       <c r="X15" t="n">
-        <v>0.08893596349970118</v>
+        <v>0.0539303295056798</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.1292742133531336</v>
+        <v>0.1186455307491951</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.1864907684724487</v>
+        <v>0.106564315341285</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.2874012190888135</v>
+        <v>0.2426794272196386</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.3754066607289434</v>
+        <v>0.433601855813208</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.3737876186789499</v>
+        <v>0.451881445685601</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.5394719535004939</v>
+        <v>0.5578752933333198</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.5511507611814654</v>
+        <v>0.7135309024608351</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.3230514712660819</v>
+        <v>0.4686374978988965</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.1221924320258294</v>
+        <v>0.1797604324803172</v>
       </c>
       <c r="AH15" t="n">
-        <v>-0.208470064564224</v>
+        <v>-0.145069940405593</v>
       </c>
       <c r="AI15" t="n">
-        <v>-0.5047784422743274</v>
+        <v>-0.4988893017496672</v>
       </c>
       <c r="AJ15" t="n">
-        <v>-0.5311814762578592</v>
+        <v>-0.5712350505233798</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>-0.5698961890879665</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>-0.5741106787482904</v>
       </c>
     </row>
     <row r="16">
@@ -2085,109 +2175,115 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.1615157867471228</v>
+        <v>-0.2373314942356147</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1330070757086117</v>
+        <v>0.09456087160429656</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.2312439347947339</v>
+        <v>-0.02783241928721389</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.4030151430100885</v>
+        <v>-0.1485979760869064</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.3300140971883966</v>
+        <v>-0.04917941629732611</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.5996362762670968</v>
+        <v>-0.3797536763900241</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.2924419449327479</v>
+        <v>0.05668875423808145</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.1136417473676217</v>
+        <v>0.1560338661887228</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.03950613261665255</v>
+        <v>0.1877273917059788</v>
       </c>
       <c r="K16" t="n">
-        <v>0.1418920137482355</v>
+        <v>0.2788238585778576</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1378587086592289</v>
+        <v>0.3314094577121751</v>
       </c>
       <c r="M16" t="n">
-        <v>0.1421132779603795</v>
+        <v>0.4284252691126932</v>
       </c>
       <c r="N16" t="n">
-        <v>0.1380874237277844</v>
+        <v>0.5121139398452386</v>
       </c>
       <c r="O16" t="n">
-        <v>0.3846121189647241</v>
+        <v>0.4696200585360804</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.3195321944922441</v>
+        <v>-0.06594832081697791</v>
       </c>
       <c r="R16" t="n">
-        <v>-0.1593308349602125</v>
+        <v>-0.2613264037256285</v>
       </c>
       <c r="S16" t="n">
-        <v>-0.5303070327626558</v>
+        <v>-0.4346148159057726</v>
       </c>
       <c r="T16" t="n">
-        <v>-0.6215300050043275</v>
+        <v>-0.357209177597973</v>
       </c>
       <c r="U16" t="n">
-        <v>-0.3632465946428531</v>
+        <v>0.2367613911134473</v>
       </c>
       <c r="V16" t="n">
-        <v>-0.3041378471673084</v>
+        <v>0.4346858990411078</v>
       </c>
       <c r="W16" t="n">
-        <v>-0.3408092892610262</v>
+        <v>0.3565834840526913</v>
       </c>
       <c r="X16" t="n">
-        <v>-0.2367416499876003</v>
+        <v>0.3522149974116481</v>
       </c>
       <c r="Y16" t="n">
-        <v>-0.2362510824613171</v>
+        <v>0.1845840770952551</v>
       </c>
       <c r="Z16" t="n">
-        <v>-0.03427835118468425</v>
+        <v>0.2286668978017902</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.1427630012593951</v>
+        <v>0.1785445751245504</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.2448818710552747</v>
+        <v>0.2298903540193597</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.2339914100292654</v>
+        <v>0.2553631587657742</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.3173227041809368</v>
+        <v>0.2119370263295876</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.5280554005607037</v>
+        <v>0.3614965692604407</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.5585612186585668</v>
+        <v>0.3974284958895042</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.3954962268802871</v>
+        <v>0.1398277405983929</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.1802850342223194</v>
+        <v>-0.01848485708325191</v>
       </c>
       <c r="AI16" t="n">
-        <v>-0.1978856403269897</v>
+        <v>-0.296257621705385</v>
       </c>
       <c r="AJ16" t="n">
-        <v>-0.4411132395106912</v>
+        <v>-0.459540196421983</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>-0.391404524026977</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>-0.288744540575447</v>
       </c>
     </row>
     <row r="17">
@@ -2195,109 +2291,115 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1035076439476302</v>
+        <v>0.009437671696308074</v>
       </c>
       <c r="C17" t="n">
-        <v>0.02157267403767534</v>
+        <v>0.01854477707071413</v>
       </c>
       <c r="D17" t="n">
-        <v>0.07126562723853634</v>
+        <v>0.2471026749697854</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.2484342202349774</v>
+        <v>0.3065915441131188</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.5232542391476528</v>
+        <v>-0.3140240184620203</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.4055348440126747</v>
+        <v>-0.007707289708545092</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.5630562293048939</v>
+        <v>-0.1876852744500815</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.4298902560554286</v>
+        <v>-0.1999550209031589</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.3337382140175054</v>
+        <v>-0.1589792242301437</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.1751859109890834</v>
+        <v>-0.03327373544083617</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.143811304666393</v>
+        <v>-0.09665505160996683</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.3235571634467033</v>
+        <v>-0.1622439513902258</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.3509296406900526</v>
+        <v>-0.1503064503493087</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.1498931915379738</v>
+        <v>-0.01048257001231879</v>
       </c>
       <c r="P17" t="n">
-        <v>0.3195321944922441</v>
+        <v>-0.06594832081697791</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="R17" t="n">
-        <v>0.3943986149482766</v>
+        <v>0.333943405834197</v>
       </c>
       <c r="S17" t="n">
-        <v>-0.31446154992847</v>
+        <v>-0.2350249295643923</v>
       </c>
       <c r="T17" t="n">
-        <v>-0.6413217288059085</v>
+        <v>-0.5330043578347783</v>
       </c>
       <c r="U17" t="n">
-        <v>-0.6689743326625001</v>
+        <v>-0.2691948675461256</v>
       </c>
       <c r="V17" t="n">
-        <v>-0.530001577895436</v>
+        <v>-0.03007535826864561</v>
       </c>
       <c r="W17" t="n">
-        <v>-0.5339550737046046</v>
+        <v>0.1235537836238599</v>
       </c>
       <c r="X17" t="n">
-        <v>-0.5900563637158079</v>
+        <v>-0.1153061834680412</v>
       </c>
       <c r="Y17" t="n">
-        <v>-0.5492173715482899</v>
+        <v>-0.1951441327253279</v>
       </c>
       <c r="Z17" t="n">
-        <v>-0.4524036232104603</v>
+        <v>-0.2021416837379572</v>
       </c>
       <c r="AA17" t="n">
-        <v>-0.1472497122163286</v>
+        <v>-0.1118154591707089</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.08136734223081461</v>
+        <v>-0.004342267550539258</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.059733133112291</v>
+        <v>-0.01257059367365352</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.02823743895211579</v>
+        <v>-0.1383791633299914</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.1799335957727127</v>
+        <v>-0.2500113232137882</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.4887697617015408</v>
+        <v>0.2145185830572343</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.5793032376417138</v>
+        <v>0.3888075245084677</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.475666009405237</v>
+        <v>0.2663315106293466</v>
       </c>
       <c r="AI17" t="n">
-        <v>0.2157696383860556</v>
+        <v>0.1675883050844261</v>
       </c>
       <c r="AJ17" t="n">
-        <v>-0.08538722500802749</v>
+        <v>-0.0315546476317126</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>-0.1754259293408275</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>-0.04282295848644244</v>
       </c>
     </row>
     <row r="18">
@@ -2305,109 +2407,115 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.3665123237126118</v>
+        <v>0.3353344211166142</v>
       </c>
       <c r="C18" t="n">
-        <v>0.07419416291704102</v>
+        <v>0.1112861034542055</v>
       </c>
       <c r="D18" t="n">
-        <v>0.05303378604993902</v>
+        <v>-0.03158307526969989</v>
       </c>
       <c r="E18" t="n">
-        <v>0.08642506450386414</v>
+        <v>0.2591021930750822</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.1957960888575413</v>
+        <v>-0.1604395154789633</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.4257036205375258</v>
+        <v>-0.4757097186977215</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.4048142824807461</v>
+        <v>-0.3675123702714807</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.5179697903345505</v>
+        <v>-0.5081493568361911</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.3917736516641863</v>
+        <v>-0.3759550966012087</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.3215963233829705</v>
+        <v>-0.2794905220670333</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.1337152410902044</v>
+        <v>-0.1645500934371693</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.0965707929331817</v>
+        <v>-0.05637109707796544</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.2865445369240908</v>
+        <v>-0.2859219289868089</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.3782686128189035</v>
+        <v>-0.2879443476258898</v>
       </c>
       <c r="P18" t="n">
-        <v>-0.1593308349602125</v>
+        <v>-0.2613264037256284</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.3943986149482766</v>
+        <v>0.333943405834197</v>
       </c>
       <c r="R18" t="n">
         <v>1</v>
       </c>
       <c r="S18" t="n">
-        <v>0.4052500248331806</v>
+        <v>0.4538909263924021</v>
       </c>
       <c r="T18" t="n">
-        <v>-0.1802878930997154</v>
+        <v>-0.2365784843177612</v>
       </c>
       <c r="U18" t="n">
-        <v>-0.4752096511960145</v>
+        <v>-0.661993280674335</v>
       </c>
       <c r="V18" t="n">
-        <v>-0.3959758252160173</v>
+        <v>-0.6329460613640672</v>
       </c>
       <c r="W18" t="n">
-        <v>-0.3376947294540672</v>
+        <v>-0.4489397404881326</v>
       </c>
       <c r="X18" t="n">
-        <v>-0.4059722396768246</v>
+        <v>-0.4461817166108877</v>
       </c>
       <c r="Y18" t="n">
-        <v>-0.4917746585517497</v>
+        <v>-0.5239568666053832</v>
       </c>
       <c r="Z18" t="n">
-        <v>-0.5217541014834902</v>
+        <v>-0.4779419016818322</v>
       </c>
       <c r="AA18" t="n">
-        <v>-0.4515117286360539</v>
+        <v>-0.4266923891586942</v>
       </c>
       <c r="AB18" t="n">
-        <v>-0.1428436659943171</v>
+        <v>-0.1775786121894938</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.1128326101555098</v>
+        <v>0.08667578023116347</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.07987686736656044</v>
+        <v>0.09956623455731473</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.03241726134542008</v>
+        <v>-0.04419906292544386</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.1752888158604008</v>
+        <v>0.104916413623576</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.4480876539533176</v>
+        <v>0.4641047670713083</v>
       </c>
       <c r="AH18" t="n">
-        <v>0.5596931606972259</v>
+        <v>0.5271759158937906</v>
       </c>
       <c r="AI18" t="n">
-        <v>0.4752619912785839</v>
+        <v>0.4529161866879763</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0.2123820301524864</v>
+        <v>0.2277605527458048</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>-0.08294854774336555</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>-0.325731197164965</v>
       </c>
     </row>
     <row r="19">
@@ -2415,109 +2523,115 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.3802272850151787</v>
+        <v>0.4143677841169092</v>
       </c>
       <c r="C19" t="n">
-        <v>0.315306058553967</v>
+        <v>0.3862986958619096</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2249114933260789</v>
+        <v>0.09348869563023365</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1715347346032492</v>
+        <v>0.02142933854938823</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2123192687731354</v>
+        <v>0.06227662192214932</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01076045483466342</v>
+        <v>-0.2522620075260666</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.2698322098811053</v>
+        <v>-0.5968268268289452</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.2814183905592392</v>
+        <v>-0.468698500126386</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.416553482863286</v>
+        <v>-0.5790625447419678</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.3679476434241132</v>
+        <v>-0.4356731489148084</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.2507028809620743</v>
+        <v>-0.3606004591314644</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.08963839661664472</v>
+        <v>-0.2135677836596756</v>
       </c>
       <c r="N19" t="n">
-        <v>-0.01284068784099885</v>
+        <v>-0.1716855218163724</v>
       </c>
       <c r="O19" t="n">
-        <v>-0.4210623812615942</v>
+        <v>-0.4270470773193414</v>
       </c>
       <c r="P19" t="n">
-        <v>-0.5303070327626558</v>
+        <v>-0.4346148159057726</v>
       </c>
       <c r="Q19" t="n">
-        <v>-0.3144615499284699</v>
+        <v>-0.2350249295643923</v>
       </c>
       <c r="R19" t="n">
-        <v>0.4052500248331806</v>
+        <v>0.4538909263924021</v>
       </c>
       <c r="S19" t="n">
         <v>1</v>
       </c>
       <c r="T19" t="n">
-        <v>0.5151182933621902</v>
+        <v>0.4061335532059946</v>
       </c>
       <c r="U19" t="n">
-        <v>0.07825407097065837</v>
+        <v>-0.3306996792005717</v>
       </c>
       <c r="V19" t="n">
-        <v>-0.06372660121800917</v>
+        <v>-0.6741495157615668</v>
       </c>
       <c r="W19" t="n">
-        <v>-0.06487098572310386</v>
+        <v>-0.6746217480434409</v>
       </c>
       <c r="X19" t="n">
-        <v>-0.1051598522295835</v>
+        <v>-0.5340694663809166</v>
       </c>
       <c r="Y19" t="n">
-        <v>-0.2181686232658627</v>
+        <v>-0.5542116997010783</v>
       </c>
       <c r="Z19" t="n">
-        <v>-0.4166215406367741</v>
+        <v>-0.6050682871708428</v>
       </c>
       <c r="AA19" t="n">
-        <v>-0.5334564077679886</v>
+        <v>-0.5622953033589543</v>
       </c>
       <c r="AB19" t="n">
-        <v>-0.4587685120954043</v>
+        <v>-0.4600880605084944</v>
       </c>
       <c r="AC19" t="n">
-        <v>-0.1587684604743609</v>
+        <v>-0.1599298843902943</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.00353839610218607</v>
+        <v>0.1095586154423637</v>
       </c>
       <c r="AE19" t="n">
-        <v>-0.06035833778442704</v>
+        <v>0.1045894406887594</v>
       </c>
       <c r="AF19" t="n">
-        <v>-0.1000780520382277</v>
+        <v>0.05998820453918543</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.0142594806131035</v>
+        <v>0.2204026702051236</v>
       </c>
       <c r="AH19" t="n">
-        <v>0.3577589526216674</v>
+        <v>0.5270490106385888</v>
       </c>
       <c r="AI19" t="n">
-        <v>0.5322513764706643</v>
+        <v>0.5860374905402945</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0.5142679620629489</v>
+        <v>0.5057386957479907</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>0.2487090775242476</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>-0.1351007506843416</v>
       </c>
     </row>
     <row r="20">
@@ -2525,109 +2639,115 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.2794688454190065</v>
+        <v>0.4319055056032191</v>
       </c>
       <c r="C20" t="n">
-        <v>0.187860852404253</v>
+        <v>0.3792544151931078</v>
       </c>
       <c r="D20" t="n">
-        <v>0.509834698180014</v>
+        <v>0.3803460412657172</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3768042941488108</v>
+        <v>0.05505485853378413</v>
       </c>
       <c r="F20" t="n">
-        <v>0.3765892170517404</v>
+        <v>0.05225563954444196</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4565623739999102</v>
+        <v>0.06843736789746327</v>
       </c>
       <c r="H20" t="n">
-        <v>0.2158017198558968</v>
+        <v>-0.2788984684243696</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.02620548983844387</v>
+        <v>-0.4447384509390571</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.05432620702383403</v>
+        <v>-0.395222647343875</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.284230746296752</v>
+        <v>-0.5289338370702259</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.1177798211256646</v>
+        <v>-0.3927592235198006</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.02387351364075379</v>
+        <v>-0.3561564353028625</v>
       </c>
       <c r="N20" t="n">
-        <v>0.1832141574300152</v>
+        <v>-0.1520009605543248</v>
       </c>
       <c r="O20" t="n">
-        <v>-0.1451757788755181</v>
+        <v>-0.100914736104186</v>
       </c>
       <c r="P20" t="n">
-        <v>-0.6215300050043275</v>
+        <v>-0.357209177597973</v>
       </c>
       <c r="Q20" t="n">
-        <v>-0.6413217288059085</v>
+        <v>-0.5330043578347784</v>
       </c>
       <c r="R20" t="n">
-        <v>-0.1802878930997154</v>
+        <v>-0.2365784843177612</v>
       </c>
       <c r="S20" t="n">
-        <v>0.5151182933621903</v>
+        <v>0.4061335532059946</v>
       </c>
       <c r="T20" t="n">
         <v>1</v>
       </c>
       <c r="U20" t="n">
-        <v>0.707249607196897</v>
+        <v>0.3987672678007231</v>
       </c>
       <c r="V20" t="n">
-        <v>0.5160643240341567</v>
+        <v>-0.1829507498607451</v>
       </c>
       <c r="W20" t="n">
-        <v>0.3967033359112766</v>
+        <v>-0.4728187790280826</v>
       </c>
       <c r="X20" t="n">
-        <v>0.3016910716206311</v>
+        <v>-0.3952197905147432</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.2216297599759232</v>
+        <v>-0.3318636208165795</v>
       </c>
       <c r="Z20" t="n">
-        <v>-0.04864734359897733</v>
+        <v>-0.4191434449718048</v>
       </c>
       <c r="AA20" t="n">
-        <v>-0.3601496876881016</v>
+        <v>-0.4993065095129943</v>
       </c>
       <c r="AB20" t="n">
-        <v>-0.4417904846732271</v>
+        <v>-0.5325185196155507</v>
       </c>
       <c r="AC20" t="n">
-        <v>-0.349094075113086</v>
+        <v>-0.4566281495120031</v>
       </c>
       <c r="AD20" t="n">
-        <v>-0.2766568024114858</v>
+        <v>-0.1305053318117911</v>
       </c>
       <c r="AE20" t="n">
-        <v>-0.200537389291702</v>
+        <v>0.1839655586552147</v>
       </c>
       <c r="AF20" t="n">
-        <v>-0.2492248438983026</v>
+        <v>0.1241299150418888</v>
       </c>
       <c r="AG20" t="n">
-        <v>-0.3137775808303055</v>
+        <v>0.05541829368251084</v>
       </c>
       <c r="AH20" t="n">
-        <v>-0.09535279404087112</v>
+        <v>0.1816679652407531</v>
       </c>
       <c r="AI20" t="n">
-        <v>0.2789374407048816</v>
+        <v>0.4494945661160164</v>
       </c>
       <c r="AJ20" t="n">
-        <v>0.4777898503142286</v>
+        <v>0.5548350844153109</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>0.5162507675208033</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>0.2378995364516171</v>
       </c>
     </row>
     <row r="21">
@@ -2635,109 +2755,115 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.05156553864433829</v>
+        <v>0.2131485850804082</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1048179149961575</v>
+        <v>0.2828822341937666</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3974146497711361</v>
+        <v>0.3547968732360748</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5732226673937855</v>
+        <v>0.2438914069093789</v>
       </c>
       <c r="F21" t="n">
-        <v>0.5129788722122924</v>
+        <v>0.1950483472638866</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5452808528242864</v>
+        <v>0.1047922610235948</v>
       </c>
       <c r="H21" t="n">
-        <v>0.5218797753247375</v>
+        <v>0.04533537348943754</v>
       </c>
       <c r="I21" t="n">
-        <v>0.3299306559315842</v>
+        <v>-0.02251044796530673</v>
       </c>
       <c r="J21" t="n">
-        <v>0.1463327578292867</v>
+        <v>-0.2242245489903442</v>
       </c>
       <c r="K21" t="n">
-        <v>0.00711164190784102</v>
+        <v>-0.2356400387614828</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.03977308507231007</v>
+        <v>-0.3308723167792728</v>
       </c>
       <c r="M21" t="n">
-        <v>0.1441990179675018</v>
+        <v>-0.2205952878953802</v>
       </c>
       <c r="N21" t="n">
-        <v>0.2920615080944197</v>
+        <v>-0.07007244351986151</v>
       </c>
       <c r="O21" t="n">
-        <v>0.1166929720676879</v>
+        <v>0.1705560751132947</v>
       </c>
       <c r="P21" t="n">
-        <v>-0.3632465946428531</v>
+        <v>0.2367613911134473</v>
       </c>
       <c r="Q21" t="n">
-        <v>-0.6689743326625001</v>
+        <v>-0.2691948675461256</v>
       </c>
       <c r="R21" t="n">
-        <v>-0.4752096511960145</v>
+        <v>-0.661993280674335</v>
       </c>
       <c r="S21" t="n">
-        <v>0.07825407097065837</v>
+        <v>-0.3306996792005717</v>
       </c>
       <c r="T21" t="n">
-        <v>0.707249607196897</v>
+        <v>0.3987672678007231</v>
       </c>
       <c r="U21" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="V21" t="n">
-        <v>0.837842050187613</v>
+        <v>0.526138745093596</v>
       </c>
       <c r="W21" t="n">
-        <v>0.7294107355976114</v>
+        <v>0.1069885824485862</v>
       </c>
       <c r="X21" t="n">
-        <v>0.6109347871755432</v>
+        <v>-0.02007028663407213</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.527393680438706</v>
+        <v>0.02908308402385507</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.3091894550240518</v>
+        <v>-0.03505402950881125</v>
       </c>
       <c r="AA21" t="n">
-        <v>-0.05537473626244772</v>
+        <v>-0.1571111770801653</v>
       </c>
       <c r="AB21" t="n">
-        <v>-0.3087338426417832</v>
+        <v>-0.3818102557263433</v>
       </c>
       <c r="AC21" t="n">
-        <v>-0.3210295049662015</v>
+        <v>-0.4646886646853071</v>
       </c>
       <c r="AD21" t="n">
-        <v>-0.383475419208086</v>
+        <v>-0.3557719336691119</v>
       </c>
       <c r="AE21" t="n">
-        <v>-0.3682086189078564</v>
+        <v>0.04062852689831114</v>
       </c>
       <c r="AF21" t="n">
-        <v>-0.3105018707748734</v>
+        <v>0.2166767334645467</v>
       </c>
       <c r="AG21" t="n">
-        <v>-0.3876884839433521</v>
+        <v>0.08064652320026679</v>
       </c>
       <c r="AH21" t="n">
-        <v>-0.34340757937637</v>
+        <v>-0.05555301696609781</v>
       </c>
       <c r="AI21" t="n">
-        <v>-0.07061447092530056</v>
+        <v>0.01891368033192804</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0.2590981234713108</v>
+        <v>0.2903903178622418</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>0.4458947252674373</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>0.4417589788283577</v>
       </c>
     </row>
     <row r="22">
@@ -2745,109 +2871,115 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.1230625478813188</v>
+        <v>-0.1449315964442985</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.06195252254205431</v>
+        <v>0.02681432567302692</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3977542405462401</v>
+        <v>0.2356534428778761</v>
       </c>
       <c r="E22" t="n">
-        <v>0.509825508914558</v>
+        <v>0.1557181622420741</v>
       </c>
       <c r="F22" t="n">
-        <v>0.6509954377047537</v>
+        <v>0.4876595547638756</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6676310528448912</v>
+        <v>0.3697606668105808</v>
       </c>
       <c r="H22" t="n">
-        <v>0.6337097862584811</v>
+        <v>0.3739802679771644</v>
       </c>
       <c r="I22" t="n">
-        <v>0.5347607825148264</v>
+        <v>0.4166143496731196</v>
       </c>
       <c r="J22" t="n">
-        <v>0.3859328377090884</v>
+        <v>0.2403218257653026</v>
       </c>
       <c r="K22" t="n">
-        <v>0.1290677303931364</v>
+        <v>0.02397570128097203</v>
       </c>
       <c r="L22" t="n">
-        <v>0.167408949029714</v>
+        <v>-0.0003760428931752835</v>
       </c>
       <c r="M22" t="n">
-        <v>0.1395070130855758</v>
+        <v>-0.2383504839866287</v>
       </c>
       <c r="N22" t="n">
-        <v>0.3552844672178313</v>
+        <v>0.03434496432686172</v>
       </c>
       <c r="O22" t="n">
-        <v>0.04386813686522338</v>
+        <v>0.1732979525486204</v>
       </c>
       <c r="P22" t="n">
-        <v>-0.3041378471673083</v>
+        <v>0.4346858990411078</v>
       </c>
       <c r="Q22" t="n">
-        <v>-0.5300015778954361</v>
+        <v>-0.0300753582686456</v>
       </c>
       <c r="R22" t="n">
-        <v>-0.3959758252160172</v>
+        <v>-0.6329460613640672</v>
       </c>
       <c r="S22" t="n">
-        <v>-0.06372660121800917</v>
+        <v>-0.6741495157615669</v>
       </c>
       <c r="T22" t="n">
-        <v>0.5160643240341567</v>
+        <v>-0.1829507498607451</v>
       </c>
       <c r="U22" t="n">
-        <v>0.8378420501876129</v>
+        <v>0.5261387450935959</v>
       </c>
       <c r="V22" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="W22" t="n">
-        <v>0.9120447853064509</v>
+        <v>0.7302805604571756</v>
       </c>
       <c r="X22" t="n">
-        <v>0.8069133042841961</v>
+        <v>0.5622092445122339</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.7023979248563765</v>
+        <v>0.4650376819697947</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.4821568554697762</v>
+        <v>0.3862330259571582</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.1598766750406501</v>
+        <v>0.2854245844828929</v>
       </c>
       <c r="AB22" t="n">
-        <v>-0.08781120894447256</v>
+        <v>0.0007222247934337272</v>
       </c>
       <c r="AC22" t="n">
-        <v>-0.23079464965208</v>
+        <v>-0.3403842914892732</v>
       </c>
       <c r="AD22" t="n">
-        <v>-0.4376439325318607</v>
+        <v>-0.4280500821013993</v>
       </c>
       <c r="AE22" t="n">
-        <v>-0.5322319249417632</v>
+        <v>-0.2993707089727671</v>
       </c>
       <c r="AF22" t="n">
-        <v>-0.5022415700575493</v>
+        <v>-0.202252946745412</v>
       </c>
       <c r="AG22" t="n">
-        <v>-0.4862235187708649</v>
+        <v>-0.1266979933253254</v>
       </c>
       <c r="AH22" t="n">
-        <v>-0.3846219283583381</v>
+        <v>-0.2017418529926814</v>
       </c>
       <c r="AI22" t="n">
-        <v>-0.2271763372937852</v>
+        <v>-0.3110345766085616</v>
       </c>
       <c r="AJ22" t="n">
-        <v>0.03774250412648771</v>
+        <v>-0.1210487213243942</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>0.2360566792535313</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>0.4835132316861375</v>
       </c>
     </row>
     <row r="23">
@@ -2855,109 +2987,115 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.3840095570551564</v>
+        <v>-0.6099149700390427</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.1667496570347468</v>
+        <v>-0.2035751670786628</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2668492358445674</v>
+        <v>0.06191612775899327</v>
       </c>
       <c r="E23" t="n">
-        <v>0.5254781520025598</v>
+        <v>0.1253288146243001</v>
       </c>
       <c r="F23" t="n">
-        <v>0.6196843522621098</v>
+        <v>0.4130716367242614</v>
       </c>
       <c r="G23" t="n">
-        <v>0.7676631666509802</v>
+        <v>0.6004392480551334</v>
       </c>
       <c r="H23" t="n">
-        <v>0.7691579238971703</v>
+        <v>0.6230450287539401</v>
       </c>
       <c r="I23" t="n">
-        <v>0.632731338863419</v>
+        <v>0.5897311458812772</v>
       </c>
       <c r="J23" t="n">
-        <v>0.5348311099284683</v>
+        <v>0.5204071828063219</v>
       </c>
       <c r="K23" t="n">
-        <v>0.3097591826587864</v>
+        <v>0.3308175244973203</v>
       </c>
       <c r="L23" t="n">
-        <v>0.2229128442108216</v>
+        <v>0.1357320952177102</v>
       </c>
       <c r="M23" t="n">
-        <v>0.2567565946344977</v>
+        <v>-0.03121637854733779</v>
       </c>
       <c r="N23" t="n">
-        <v>0.293699035797248</v>
+        <v>-0.09902948309203097</v>
       </c>
       <c r="O23" t="n">
-        <v>0.09605193849496041</v>
+        <v>0.1650762878801823</v>
       </c>
       <c r="P23" t="n">
-        <v>-0.3408092892610262</v>
+        <v>0.3565834840526913</v>
       </c>
       <c r="Q23" t="n">
-        <v>-0.5339550737046045</v>
+        <v>0.1235537836238599</v>
       </c>
       <c r="R23" t="n">
-        <v>-0.3376947294540673</v>
+        <v>-0.4489397404881327</v>
       </c>
       <c r="S23" t="n">
-        <v>-0.06487098572310386</v>
+        <v>-0.6746217480434409</v>
       </c>
       <c r="T23" t="n">
-        <v>0.3967033359112767</v>
+        <v>-0.4728187790280827</v>
       </c>
       <c r="U23" t="n">
-        <v>0.7294107355976114</v>
+        <v>0.1069885824485862</v>
       </c>
       <c r="V23" t="n">
-        <v>0.9120447853064509</v>
+        <v>0.7302805604571756</v>
       </c>
       <c r="W23" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="X23" t="n">
-        <v>0.927597740853495</v>
+        <v>0.8415073498723278</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.8350321433112736</v>
+        <v>0.7430781130402087</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.6286794273138858</v>
+        <v>0.628095363680752</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.3072629993313583</v>
+        <v>0.5343889291522854</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.06735049417810328</v>
+        <v>0.3092542780738238</v>
       </c>
       <c r="AC23" t="n">
-        <v>-0.1003445126586356</v>
+        <v>-0.08246415595994251</v>
       </c>
       <c r="AD23" t="n">
-        <v>-0.4059002833884432</v>
+        <v>-0.4080733876079788</v>
       </c>
       <c r="AE23" t="n">
-        <v>-0.6130894938792915</v>
+        <v>-0.4547513044621261</v>
       </c>
       <c r="AF23" t="n">
-        <v>-0.6552954938523504</v>
+        <v>-0.4981715117018825</v>
       </c>
       <c r="AG23" t="n">
-        <v>-0.6370998201217134</v>
+        <v>-0.4339236009837548</v>
       </c>
       <c r="AH23" t="n">
-        <v>-0.4776025038023115</v>
+        <v>-0.3293987658914426</v>
       </c>
       <c r="AI23" t="n">
-        <v>-0.2825313481605296</v>
+        <v>-0.3889247440565554</v>
       </c>
       <c r="AJ23" t="n">
-        <v>-0.07865033591781141</v>
+        <v>-0.3404332108417452</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>-0.05047584591539081</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>0.3838269730259045</v>
       </c>
     </row>
     <row r="24">
@@ -2965,109 +3103,115 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.6086281207314075</v>
+        <v>-0.8303878018265275</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.3817520202899922</v>
+        <v>-0.5270036528651716</v>
       </c>
       <c r="D24" t="n">
-        <v>0.120408061243258</v>
+        <v>-0.09084267364187119</v>
       </c>
       <c r="E24" t="n">
-        <v>0.4160381053477109</v>
+        <v>-0.0237145729556655</v>
       </c>
       <c r="F24" t="n">
-        <v>0.6280793441589635</v>
+        <v>0.4395611979585699</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7405812351269444</v>
+        <v>0.5559733666798841</v>
       </c>
       <c r="H24" t="n">
-        <v>0.8931189638509923</v>
+        <v>0.8310256395042044</v>
       </c>
       <c r="I24" t="n">
-        <v>0.7731866886777879</v>
+        <v>0.7667322949790907</v>
       </c>
       <c r="J24" t="n">
-        <v>0.6361429809620552</v>
+        <v>0.6290422814596957</v>
       </c>
       <c r="K24" t="n">
-        <v>0.4692997094198848</v>
+        <v>0.5209646897216429</v>
       </c>
       <c r="L24" t="n">
-        <v>0.3535619634107503</v>
+        <v>0.3637324120271384</v>
       </c>
       <c r="M24" t="n">
-        <v>0.2742222001927383</v>
+        <v>0.05283854029126744</v>
       </c>
       <c r="N24" t="n">
-        <v>0.3530126819994925</v>
+        <v>0.09362342723082084</v>
       </c>
       <c r="O24" t="n">
-        <v>0.08893596349970116</v>
+        <v>0.0539303295056798</v>
       </c>
       <c r="P24" t="n">
-        <v>-0.2367416499876003</v>
+        <v>0.3522149974116481</v>
       </c>
       <c r="Q24" t="n">
-        <v>-0.5900563637158079</v>
+        <v>-0.1153061834680412</v>
       </c>
       <c r="R24" t="n">
-        <v>-0.4059722396768246</v>
+        <v>-0.4461817166108877</v>
       </c>
       <c r="S24" t="n">
-        <v>-0.1051598522295835</v>
+        <v>-0.5340694663809166</v>
       </c>
       <c r="T24" t="n">
-        <v>0.3016910716206312</v>
+        <v>-0.3952197905147431</v>
       </c>
       <c r="U24" t="n">
-        <v>0.6109347871755432</v>
+        <v>-0.02007028663407213</v>
       </c>
       <c r="V24" t="n">
-        <v>0.8069133042841961</v>
+        <v>0.5622092445122339</v>
       </c>
       <c r="W24" t="n">
-        <v>0.9275977408534951</v>
+        <v>0.8415073498723278</v>
       </c>
       <c r="X24" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.9419100727205508</v>
+        <v>0.9167145583367353</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.787685050795751</v>
+        <v>0.8087061179105858</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.4904083885646693</v>
+        <v>0.6954967667845084</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.2162407231414878</v>
+        <v>0.4658182227622888</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.01911070172098601</v>
+        <v>0.1178891547917645</v>
       </c>
       <c r="AD24" t="n">
-        <v>-0.2918383955404472</v>
+        <v>-0.2063400706828593</v>
       </c>
       <c r="AE24" t="n">
-        <v>-0.6017951931284747</v>
+        <v>-0.4257797147267879</v>
       </c>
       <c r="AF24" t="n">
-        <v>-0.7477657942905725</v>
+        <v>-0.6429579734593392</v>
       </c>
       <c r="AG24" t="n">
-        <v>-0.7690911531617809</v>
+        <v>-0.6762936398322109</v>
       </c>
       <c r="AH24" t="n">
-        <v>-0.6355860572333948</v>
+        <v>-0.5637637993114816</v>
       </c>
       <c r="AI24" t="n">
-        <v>-0.4045511121353075</v>
+        <v>-0.4968656116862932</v>
       </c>
       <c r="AJ24" t="n">
-        <v>-0.15822291693563</v>
+        <v>-0.371880731558733</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>-0.1812302580120129</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>0.1776238786246694</v>
       </c>
     </row>
     <row r="25">
@@ -3075,109 +3219,115 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.6972697754833909</v>
+        <v>-0.8308547380578409</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.5820546108142463</v>
+        <v>-0.7121274465453531</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.09385052063249628</v>
+        <v>-0.3493627283082048</v>
       </c>
       <c r="E25" t="n">
-        <v>0.2925377126593822</v>
+        <v>-0.09981337440352663</v>
       </c>
       <c r="F25" t="n">
-        <v>0.538313924672891</v>
+        <v>0.331078637638187</v>
       </c>
       <c r="G25" t="n">
-        <v>0.7562076031759896</v>
+        <v>0.6159841464384639</v>
       </c>
       <c r="H25" t="n">
-        <v>0.9285683111562033</v>
+        <v>0.8903206306565958</v>
       </c>
       <c r="I25" t="n">
-        <v>0.9082296307799859</v>
+        <v>0.9132731821932465</v>
       </c>
       <c r="J25" t="n">
-        <v>0.7672920456518301</v>
+        <v>0.7644608219081636</v>
       </c>
       <c r="K25" t="n">
-        <v>0.5781130422931993</v>
+        <v>0.6124418418944108</v>
       </c>
       <c r="L25" t="n">
-        <v>0.4709431735592089</v>
+        <v>0.4873497704911059</v>
       </c>
       <c r="M25" t="n">
-        <v>0.3434913117133543</v>
+        <v>0.1936435824895193</v>
       </c>
       <c r="N25" t="n">
-        <v>0.2943592086432419</v>
+        <v>0.06615759895247397</v>
       </c>
       <c r="O25" t="n">
-        <v>0.1292742133531336</v>
+        <v>0.1186455307491951</v>
       </c>
       <c r="P25" t="n">
-        <v>-0.2362510824613171</v>
+        <v>0.1845840770952551</v>
       </c>
       <c r="Q25" t="n">
-        <v>-0.5492173715482899</v>
+        <v>-0.1951441327253279</v>
       </c>
       <c r="R25" t="n">
-        <v>-0.4917746585517497</v>
+        <v>-0.5239568666053832</v>
       </c>
       <c r="S25" t="n">
-        <v>-0.2181686232658627</v>
+        <v>-0.5542116997010783</v>
       </c>
       <c r="T25" t="n">
-        <v>0.2216297599759232</v>
+        <v>-0.3318636208165795</v>
       </c>
       <c r="U25" t="n">
-        <v>0.5273936804387059</v>
+        <v>0.02908308402385507</v>
       </c>
       <c r="V25" t="n">
-        <v>0.7023979248563765</v>
+        <v>0.4650376819697947</v>
       </c>
       <c r="W25" t="n">
-        <v>0.8350321433112736</v>
+        <v>0.7430781130402087</v>
       </c>
       <c r="X25" t="n">
-        <v>0.9419100727205507</v>
+        <v>0.9167145583367352</v>
       </c>
       <c r="Y25" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.908189902159959</v>
+        <v>0.9307443177270469</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.6672340850288305</v>
+        <v>0.8258870156807632</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.3967309526401782</v>
+        <v>0.6066857132873547</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.132580749942979</v>
+        <v>0.2330119445626084</v>
       </c>
       <c r="AD25" t="n">
-        <v>-0.2110154726944802</v>
+        <v>-0.1012167399563476</v>
       </c>
       <c r="AE25" t="n">
-        <v>-0.5391532459465013</v>
+        <v>-0.3542140663176225</v>
       </c>
       <c r="AF25" t="n">
-        <v>-0.7860227709727503</v>
+        <v>-0.6955444589373411</v>
       </c>
       <c r="AG25" t="n">
-        <v>-0.8852704289886894</v>
+        <v>-0.8429130280330245</v>
       </c>
       <c r="AH25" t="n">
-        <v>-0.7886655230553105</v>
+        <v>-0.7644663830407742</v>
       </c>
       <c r="AI25" t="n">
-        <v>-0.581737844740208</v>
+        <v>-0.6681803194213565</v>
       </c>
       <c r="AJ25" t="n">
-        <v>-0.2738380309598497</v>
+        <v>-0.4449592524865329</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>-0.1753527086959021</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>0.1245675406994382</v>
       </c>
     </row>
     <row r="26">
@@ -3185,109 +3335,115 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.806003426521285</v>
+        <v>-0.843255513560202</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.6918198098033046</v>
+        <v>-0.7818425993935243</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.4272139738890009</v>
+        <v>-0.5765190455551173</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.003559440519855748</v>
+        <v>-0.338209697619561</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3437554548678348</v>
+        <v>0.1907512057261531</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5798127046781417</v>
+        <v>0.4940086321509819</v>
       </c>
       <c r="H26" t="n">
-        <v>0.8893873413834433</v>
+        <v>0.8848339883579117</v>
       </c>
       <c r="I26" t="n">
-        <v>0.9376287715912319</v>
+        <v>0.9328469364409894</v>
       </c>
       <c r="J26" t="n">
-        <v>0.9067326607371445</v>
+        <v>0.9116021462880631</v>
       </c>
       <c r="K26" t="n">
-        <v>0.755712287458475</v>
+        <v>0.7573079553342489</v>
       </c>
       <c r="L26" t="n">
-        <v>0.5738731580478644</v>
+        <v>0.6116582490611915</v>
       </c>
       <c r="M26" t="n">
-        <v>0.4721935625126168</v>
+        <v>0.4067549971451563</v>
       </c>
       <c r="N26" t="n">
-        <v>0.3314687899241781</v>
+        <v>0.2252461130042215</v>
       </c>
       <c r="O26" t="n">
-        <v>0.1864907684724487</v>
+        <v>0.106564315341285</v>
       </c>
       <c r="P26" t="n">
-        <v>-0.03427835118468425</v>
+        <v>0.2286668978017902</v>
       </c>
       <c r="Q26" t="n">
-        <v>-0.4524036232104603</v>
+        <v>-0.2021416837379572</v>
       </c>
       <c r="R26" t="n">
-        <v>-0.5217541014834902</v>
+        <v>-0.4779419016818322</v>
       </c>
       <c r="S26" t="n">
-        <v>-0.4166215406367742</v>
+        <v>-0.6050682871708428</v>
       </c>
       <c r="T26" t="n">
-        <v>-0.04864734359897733</v>
+        <v>-0.4191434449718048</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3091894550240518</v>
+        <v>-0.03505402950881125</v>
       </c>
       <c r="V26" t="n">
-        <v>0.4821568554697763</v>
+        <v>0.3862330259571581</v>
       </c>
       <c r="W26" t="n">
-        <v>0.6286794273138857</v>
+        <v>0.628095363680752</v>
       </c>
       <c r="X26" t="n">
-        <v>0.787685050795751</v>
+        <v>0.8087061179105857</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.908189902159959</v>
+        <v>0.9307443177270469</v>
       </c>
       <c r="Z26" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.8776584758927046</v>
+        <v>0.9395560879806462</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.6368633772426936</v>
+        <v>0.7725571962070614</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.3578771957432327</v>
+        <v>0.4495289475969551</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.009122962836107942</v>
+        <v>0.08223444833745686</v>
       </c>
       <c r="AE26" t="n">
-        <v>-0.3624863813034591</v>
+        <v>-0.2203714228178386</v>
       </c>
       <c r="AF26" t="n">
-        <v>-0.6607465343390839</v>
+        <v>-0.5816083519944112</v>
       </c>
       <c r="AG26" t="n">
-        <v>-0.859028994046661</v>
+        <v>-0.8541679987044682</v>
       </c>
       <c r="AH26" t="n">
-        <v>-0.9125861929843561</v>
+        <v>-0.8927310000522374</v>
       </c>
       <c r="AI26" t="n">
-        <v>-0.7861599972892122</v>
+        <v>-0.8159698392998249</v>
       </c>
       <c r="AJ26" t="n">
-        <v>-0.5320699781264537</v>
+        <v>-0.6391922852486382</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>-0.3298453933283905</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>0.03300548301836748</v>
       </c>
     </row>
     <row r="27">
@@ -3295,109 +3451,115 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.7907690956867673</v>
+        <v>-0.7859991149124069</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.7768850211901139</v>
+        <v>-0.8160467318152743</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.6424882838884834</v>
+        <v>-0.6789263269584798</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.4079515532886314</v>
+        <v>-0.5537416121536647</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.02389391611411579</v>
+        <v>-0.04700440285084996</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2953187936859973</v>
+        <v>0.3591213383456753</v>
       </c>
       <c r="H27" t="n">
-        <v>0.6391267175089003</v>
+        <v>0.769999580985311</v>
       </c>
       <c r="I27" t="n">
-        <v>0.8480721128269983</v>
+        <v>0.916534516458016</v>
       </c>
       <c r="J27" t="n">
-        <v>0.8917822469737381</v>
+        <v>0.937700349334737</v>
       </c>
       <c r="K27" t="n">
-        <v>0.8975123526490378</v>
+        <v>0.902659374332404</v>
       </c>
       <c r="L27" t="n">
-        <v>0.7088920775680984</v>
+        <v>0.7553457318712465</v>
       </c>
       <c r="M27" t="n">
-        <v>0.533730468672702</v>
+        <v>0.5580545179275378</v>
       </c>
       <c r="N27" t="n">
-        <v>0.3941657657598406</v>
+        <v>0.4303477752846305</v>
       </c>
       <c r="O27" t="n">
-        <v>0.2874012190888134</v>
+        <v>0.2426794272196386</v>
       </c>
       <c r="P27" t="n">
-        <v>0.1427630012593951</v>
+        <v>0.1785445751245504</v>
       </c>
       <c r="Q27" t="n">
-        <v>-0.1472497122163286</v>
+        <v>-0.1118154591707089</v>
       </c>
       <c r="R27" t="n">
-        <v>-0.4515117286360538</v>
+        <v>-0.4266923891586942</v>
       </c>
       <c r="S27" t="n">
-        <v>-0.5334564077679885</v>
+        <v>-0.5622953033589543</v>
       </c>
       <c r="T27" t="n">
-        <v>-0.3601496876881015</v>
+        <v>-0.4993065095129943</v>
       </c>
       <c r="U27" t="n">
-        <v>-0.05537473626244771</v>
+        <v>-0.1571111770801653</v>
       </c>
       <c r="V27" t="n">
-        <v>0.15987667504065</v>
+        <v>0.2854245844828929</v>
       </c>
       <c r="W27" t="n">
-        <v>0.3072629993313583</v>
+        <v>0.5343889291522854</v>
       </c>
       <c r="X27" t="n">
-        <v>0.4904083885646693</v>
+        <v>0.6954967667845083</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.6672340850288305</v>
+        <v>0.8258870156807633</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.8776584758927045</v>
+        <v>0.9395560879806462</v>
       </c>
       <c r="AA27" t="n">
         <v>1</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.8749943620713216</v>
+        <v>0.9022375318374379</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.6180563771760752</v>
+        <v>0.6449505761574067</v>
       </c>
       <c r="AD27" t="n">
-        <v>0.3187735915162835</v>
+        <v>0.3205870787686682</v>
       </c>
       <c r="AE27" t="n">
-        <v>-0.05306902032958077</v>
+        <v>-0.03890029584586343</v>
       </c>
       <c r="AF27" t="n">
-        <v>-0.4102347481159847</v>
+        <v>-0.4492646614230392</v>
       </c>
       <c r="AG27" t="n">
-        <v>-0.656695010383529</v>
+        <v>-0.7558448376820817</v>
       </c>
       <c r="AH27" t="n">
-        <v>-0.8578592910826469</v>
+        <v>-0.9103976909567908</v>
       </c>
       <c r="AI27" t="n">
-        <v>-0.9249580506331136</v>
+        <v>-0.9250831220669204</v>
       </c>
       <c r="AJ27" t="n">
-        <v>-0.7788789337636149</v>
+        <v>-0.7924166272942881</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>-0.5498713718071608</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>-0.1487639796135689</v>
       </c>
     </row>
     <row r="28">
@@ -3405,109 +3567,115 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.6419921770075614</v>
+        <v>-0.6682189239456513</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.7670460291941079</v>
+        <v>-0.7850895581297643</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.7148842262876237</v>
+        <v>-0.794257006357078</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.6158001432903835</v>
+        <v>-0.6740817707560953</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.3969721221655134</v>
+        <v>-0.3981497898418194</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.03263841728832555</v>
+        <v>0.04326552343526897</v>
       </c>
       <c r="H28" t="n">
-        <v>0.33740094189779</v>
+        <v>0.5319605697791049</v>
       </c>
       <c r="I28" t="n">
-        <v>0.603171683916372</v>
+        <v>0.7242402788506004</v>
       </c>
       <c r="J28" t="n">
-        <v>0.8062527887569657</v>
+        <v>0.8986279611589938</v>
       </c>
       <c r="K28" t="n">
-        <v>0.8837706739994622</v>
+        <v>0.933647737902996</v>
       </c>
       <c r="L28" t="n">
-        <v>0.8680086653175391</v>
+        <v>0.9139203558521236</v>
       </c>
       <c r="M28" t="n">
-        <v>0.7124016674793372</v>
+        <v>0.7954631108863288</v>
       </c>
       <c r="N28" t="n">
-        <v>0.4868762079126775</v>
+        <v>0.5838990607130354</v>
       </c>
       <c r="O28" t="n">
-        <v>0.3754066607289433</v>
+        <v>0.433601855813208</v>
       </c>
       <c r="P28" t="n">
-        <v>0.2448818710552747</v>
+        <v>0.2298903540193597</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.08136734223081461</v>
+        <v>-0.004342267550539258</v>
       </c>
       <c r="R28" t="n">
-        <v>-0.1428436659943171</v>
+        <v>-0.1775786121894938</v>
       </c>
       <c r="S28" t="n">
-        <v>-0.4587685120954043</v>
+        <v>-0.4600880605084943</v>
       </c>
       <c r="T28" t="n">
-        <v>-0.4417904846732272</v>
+        <v>-0.5325185196155507</v>
       </c>
       <c r="U28" t="n">
-        <v>-0.3087338426417832</v>
+        <v>-0.3818102557263433</v>
       </c>
       <c r="V28" t="n">
-        <v>-0.08781120894447257</v>
+        <v>0.0007222247934337273</v>
       </c>
       <c r="W28" t="n">
-        <v>0.06735049417810328</v>
+        <v>0.3092542780738238</v>
       </c>
       <c r="X28" t="n">
-        <v>0.2162407231414878</v>
+        <v>0.4658182227622888</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.3967309526401783</v>
+        <v>0.6066857132873547</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.6368633772426937</v>
+        <v>0.7725571962070613</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.8749943620713216</v>
+        <v>0.902237531837438</v>
       </c>
       <c r="AB28" t="n">
         <v>1</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.8822242490434534</v>
+        <v>0.8829116528499155</v>
       </c>
       <c r="AD28" t="n">
-        <v>0.6193768152229516</v>
+        <v>0.6245250015154475</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.2864286433420284</v>
+        <v>0.2664768108700786</v>
       </c>
       <c r="AF28" t="n">
-        <v>-0.0867247653967687</v>
+        <v>-0.1698817987126038</v>
       </c>
       <c r="AG28" t="n">
-        <v>-0.4083669752225021</v>
+        <v>-0.5500462623153073</v>
       </c>
       <c r="AH28" t="n">
-        <v>-0.6519964494219427</v>
+        <v>-0.7769410659174749</v>
       </c>
       <c r="AI28" t="n">
-        <v>-0.8653974047002635</v>
+        <v>-0.8979226965468912</v>
       </c>
       <c r="AJ28" t="n">
-        <v>-0.927514176008214</v>
+        <v>-0.9294944359919213</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>-0.8017863486140552</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>-0.5055325779574811</v>
       </c>
     </row>
     <row r="29">
@@ -3515,109 +3683,115 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.406810489383623</v>
+        <v>-0.4307270352674994</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.6071478535280517</v>
+        <v>-0.6121192481144258</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.688393624209935</v>
+        <v>-0.797043876064794</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.6643703106829913</v>
+        <v>-0.7551323255505883</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.5830483142764468</v>
+        <v>-0.6415554794999068</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.3247286105949859</v>
+        <v>-0.3634055925180056</v>
       </c>
       <c r="H29" t="n">
-        <v>0.09790413710280868</v>
+        <v>0.1966276875083683</v>
       </c>
       <c r="I29" t="n">
-        <v>0.3370521170200694</v>
+        <v>0.4122542580129688</v>
       </c>
       <c r="J29" t="n">
-        <v>0.5678480697183864</v>
+        <v>0.630428369942329</v>
       </c>
       <c r="K29" t="n">
-        <v>0.8071124459338372</v>
+        <v>0.852288360113179</v>
       </c>
       <c r="L29" t="n">
-        <v>0.8453369000479535</v>
+        <v>0.8742843829023138</v>
       </c>
       <c r="M29" t="n">
-        <v>0.8406045343639996</v>
+        <v>0.9155841125400612</v>
       </c>
       <c r="N29" t="n">
-        <v>0.6298987060481203</v>
+        <v>0.7181833720054511</v>
       </c>
       <c r="O29" t="n">
-        <v>0.3737876186789499</v>
+        <v>0.4518814456856009</v>
       </c>
       <c r="P29" t="n">
-        <v>0.2339914100292654</v>
+        <v>0.2553631587657742</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.05973313311229099</v>
+        <v>-0.01257059367365352</v>
       </c>
       <c r="R29" t="n">
-        <v>0.1128326101555099</v>
+        <v>0.08667578023116346</v>
       </c>
       <c r="S29" t="n">
-        <v>-0.1587684604743609</v>
+        <v>-0.1599298843902943</v>
       </c>
       <c r="T29" t="n">
-        <v>-0.349094075113086</v>
+        <v>-0.4566281495120031</v>
       </c>
       <c r="U29" t="n">
-        <v>-0.3210295049662015</v>
+        <v>-0.4646886646853071</v>
       </c>
       <c r="V29" t="n">
-        <v>-0.23079464965208</v>
+        <v>-0.3403842914892732</v>
       </c>
       <c r="W29" t="n">
-        <v>-0.1003445126586356</v>
+        <v>-0.08246415595994253</v>
       </c>
       <c r="X29" t="n">
-        <v>0.01911070172098601</v>
+        <v>0.1178891547917645</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.132580749942979</v>
+        <v>0.2330119445626084</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.3578771957432327</v>
+        <v>0.4495289475969551</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.6180563771760752</v>
+        <v>0.6449505761574067</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.8822242490434534</v>
+        <v>0.8829116528499156</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AD29" t="n">
-        <v>0.8411792065477103</v>
+        <v>0.8725412319026898</v>
       </c>
       <c r="AE29" t="n">
-        <v>0.5225698465564124</v>
+        <v>0.5584338331326301</v>
       </c>
       <c r="AF29" t="n">
-        <v>0.1810067106536493</v>
+        <v>0.1656252349673253</v>
       </c>
       <c r="AG29" t="n">
-        <v>-0.1747428324002453</v>
+        <v>-0.2479058406866445</v>
       </c>
       <c r="AH29" t="n">
-        <v>-0.4455789474146131</v>
+        <v>-0.5379774666521511</v>
       </c>
       <c r="AI29" t="n">
-        <v>-0.6872765665836111</v>
+        <v>-0.717030559905254</v>
       </c>
       <c r="AJ29" t="n">
-        <v>-0.8481217109129277</v>
+        <v>-0.8551009226037571</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>-0.9239418246347755</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>-0.7795699637858989</v>
       </c>
     </row>
     <row r="30">
@@ -3625,109 +3799,115 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.03281697828869996</v>
+        <v>-0.03291128527835945</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.2894603810121714</v>
+        <v>-0.340112153574106</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.6566322562019019</v>
+        <v>-0.6355888406231371</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.7207328267682724</v>
+        <v>-0.7697845074632528</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.7462333862316483</v>
+        <v>-0.7554136612310013</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.623184398038574</v>
+        <v>-0.6231822359007798</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.2565060051604934</v>
+        <v>-0.1869600761313955</v>
       </c>
       <c r="I30" t="n">
-        <v>0.02288537456880282</v>
+        <v>0.1223572494629875</v>
       </c>
       <c r="J30" t="n">
-        <v>0.2091113351992458</v>
+        <v>0.3067155708258124</v>
       </c>
       <c r="K30" t="n">
-        <v>0.532397524185353</v>
+        <v>0.5868821413288855</v>
       </c>
       <c r="L30" t="n">
-        <v>0.6717930084243172</v>
+        <v>0.7815982201252338</v>
       </c>
       <c r="M30" t="n">
-        <v>0.6793009845026016</v>
+        <v>0.8258954389398745</v>
       </c>
       <c r="N30" t="n">
-        <v>0.6241228023422636</v>
+        <v>0.8231372831517803</v>
       </c>
       <c r="O30" t="n">
-        <v>0.5394719535004939</v>
+        <v>0.5578752933333196</v>
       </c>
       <c r="P30" t="n">
-        <v>0.3173227041809368</v>
+        <v>0.2119370263295876</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.02823743895211579</v>
+        <v>-0.1383791633299913</v>
       </c>
       <c r="R30" t="n">
-        <v>0.07987686736656044</v>
+        <v>0.09956623455731473</v>
       </c>
       <c r="S30" t="n">
-        <v>0.00353839610218607</v>
+        <v>0.1095586154423637</v>
       </c>
       <c r="T30" t="n">
-        <v>-0.2766568024114858</v>
+        <v>-0.1305053318117912</v>
       </c>
       <c r="U30" t="n">
-        <v>-0.383475419208086</v>
+        <v>-0.3557719336691119</v>
       </c>
       <c r="V30" t="n">
-        <v>-0.4376439325318607</v>
+        <v>-0.4280500821013994</v>
       </c>
       <c r="W30" t="n">
-        <v>-0.4059002833884433</v>
+        <v>-0.4080733876079788</v>
       </c>
       <c r="X30" t="n">
-        <v>-0.2918383955404472</v>
+        <v>-0.2063400706828593</v>
       </c>
       <c r="Y30" t="n">
-        <v>-0.2110154726944802</v>
+        <v>-0.1012167399563476</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.009122962836107942</v>
+        <v>0.08223444833745684</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.3187735915162835</v>
+        <v>0.3205870787686682</v>
       </c>
       <c r="AB30" t="n">
-        <v>0.6193768152229517</v>
+        <v>0.6245250015154474</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.8411792065477104</v>
+        <v>0.8725412319026898</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
       </c>
       <c r="AE30" t="n">
-        <v>0.8143587040677713</v>
+        <v>0.8329265786153909</v>
       </c>
       <c r="AF30" t="n">
-        <v>0.4823831781429524</v>
+        <v>0.4521783263441422</v>
       </c>
       <c r="AG30" t="n">
-        <v>0.1641269657949689</v>
+        <v>0.05416038598574752</v>
       </c>
       <c r="AH30" t="n">
-        <v>-0.1711317209013037</v>
+        <v>-0.2669620503825426</v>
       </c>
       <c r="AI30" t="n">
-        <v>-0.4847336638292347</v>
+        <v>-0.514217436868155</v>
       </c>
       <c r="AJ30" t="n">
-        <v>-0.6629150925037935</v>
+        <v>-0.6585378341148913</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>-0.8127534936980907</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>-0.8986177599293155</v>
       </c>
     </row>
     <row r="31">
@@ -3735,109 +3915,115 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.2912940659225297</v>
+        <v>0.2895913012310016</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1291431154564319</v>
+        <v>0.112189651056655</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.3770978380856166</v>
+        <v>-0.3243335006520275</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.6948475208544835</v>
+        <v>-0.5942437883899206</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.8070820079351431</v>
+        <v>-0.747237888747147</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.7972830335676782</v>
+        <v>-0.7307081314271098</v>
       </c>
       <c r="H31" t="n">
-        <v>-0.6050763438746966</v>
+        <v>-0.4619360367881423</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.3608448638779701</v>
+        <v>-0.2053302851012364</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.1425857709570254</v>
+        <v>0.01378143450307069</v>
       </c>
       <c r="K31" t="n">
-        <v>0.1294677878474727</v>
+        <v>0.2434502529359919</v>
       </c>
       <c r="L31" t="n">
-        <v>0.3329002770903566</v>
+        <v>0.484465593473513</v>
       </c>
       <c r="M31" t="n">
-        <v>0.4346673648269114</v>
+        <v>0.702877278173188</v>
       </c>
       <c r="N31" t="n">
-        <v>0.3919188579079171</v>
+        <v>0.7214466916404814</v>
       </c>
       <c r="O31" t="n">
-        <v>0.5511507611814654</v>
+        <v>0.7135309024608349</v>
       </c>
       <c r="P31" t="n">
-        <v>0.5280554005607037</v>
+        <v>0.3614965692604407</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.1799335957727127</v>
+        <v>-0.2500113232137882</v>
       </c>
       <c r="R31" t="n">
-        <v>0.03241726134542009</v>
+        <v>-0.04419906292544386</v>
       </c>
       <c r="S31" t="n">
-        <v>-0.06035833778442704</v>
+        <v>0.1045894406887594</v>
       </c>
       <c r="T31" t="n">
-        <v>-0.200537389291702</v>
+        <v>0.1839655586552147</v>
       </c>
       <c r="U31" t="n">
-        <v>-0.3682086189078565</v>
+        <v>0.04062852689831114</v>
       </c>
       <c r="V31" t="n">
-        <v>-0.5322319249417632</v>
+        <v>-0.2993707089727672</v>
       </c>
       <c r="W31" t="n">
-        <v>-0.6130894938792915</v>
+        <v>-0.4547513044621261</v>
       </c>
       <c r="X31" t="n">
-        <v>-0.6017951931284748</v>
+        <v>-0.4257797147267879</v>
       </c>
       <c r="Y31" t="n">
-        <v>-0.5391532459465013</v>
+        <v>-0.3542140663176225</v>
       </c>
       <c r="Z31" t="n">
-        <v>-0.362486381303459</v>
+        <v>-0.2203714228178387</v>
       </c>
       <c r="AA31" t="n">
-        <v>-0.05306902032958077</v>
+        <v>-0.03890029584586343</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.2864286433420284</v>
+        <v>0.2664768108700786</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.5225698465564124</v>
+        <v>0.5584338331326301</v>
       </c>
       <c r="AD31" t="n">
-        <v>0.8143587040677713</v>
+        <v>0.832926578615391</v>
       </c>
       <c r="AE31" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF31" t="n">
-        <v>0.8107191119278793</v>
+        <v>0.7530882192464211</v>
       </c>
       <c r="AG31" t="n">
-        <v>0.502306281100134</v>
+        <v>0.3405390962077827</v>
       </c>
       <c r="AH31" t="n">
-        <v>0.2041889808545186</v>
+        <v>0.02823963566673724</v>
       </c>
       <c r="AI31" t="n">
-        <v>-0.1777415108513312</v>
+        <v>-0.2587413603681381</v>
       </c>
       <c r="AJ31" t="n">
-        <v>-0.434643373250868</v>
+        <v>-0.4350542709668801</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>-0.5600908492963059</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>-0.740734319099224</v>
       </c>
     </row>
     <row r="32">
@@ -3845,109 +4031,115 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.4973303804201044</v>
+        <v>0.5272679911997675</v>
       </c>
       <c r="C32" t="n">
-        <v>0.4321123500367475</v>
+        <v>0.4767414177423732</v>
       </c>
       <c r="D32" t="n">
-        <v>0.001140748468651286</v>
+        <v>0.1518181818131306</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.4162397329639784</v>
+        <v>-0.1789948120123699</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.7566440515725464</v>
+        <v>-0.6758498455156735</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.8334232195045819</v>
+        <v>-0.7758272126027651</v>
       </c>
       <c r="H32" t="n">
-        <v>-0.7947618141800291</v>
+        <v>-0.7135080666994231</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.6828233043871462</v>
+        <v>-0.5999415305144253</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.5016171942625152</v>
+        <v>-0.4118672379290064</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.2172532577631745</v>
+        <v>-0.1480505845638488</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.06627681809772398</v>
+        <v>0.01777404302924266</v>
       </c>
       <c r="M32" t="n">
-        <v>0.08388138981626779</v>
+        <v>0.3028485437518205</v>
       </c>
       <c r="N32" t="n">
-        <v>0.158272925379865</v>
+        <v>0.4553687614643704</v>
       </c>
       <c r="O32" t="n">
-        <v>0.3230514712660819</v>
+        <v>0.4686374978988965</v>
       </c>
       <c r="P32" t="n">
-        <v>0.5585612186585669</v>
+        <v>0.3974284958895042</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.4887697617015408</v>
+        <v>0.2145185830572343</v>
       </c>
       <c r="R32" t="n">
-        <v>0.1752888158604008</v>
+        <v>0.104916413623576</v>
       </c>
       <c r="S32" t="n">
-        <v>-0.1000780520382277</v>
+        <v>0.05998820453918543</v>
       </c>
       <c r="T32" t="n">
-        <v>-0.2492248438983026</v>
+        <v>0.1241299150418888</v>
       </c>
       <c r="U32" t="n">
-        <v>-0.3105018707748734</v>
+        <v>0.2166767334645467</v>
       </c>
       <c r="V32" t="n">
-        <v>-0.5022415700575493</v>
+        <v>-0.202252946745412</v>
       </c>
       <c r="W32" t="n">
-        <v>-0.6552954938523504</v>
+        <v>-0.4981715117018825</v>
       </c>
       <c r="X32" t="n">
-        <v>-0.7477657942905725</v>
+        <v>-0.6429579734593392</v>
       </c>
       <c r="Y32" t="n">
-        <v>-0.7860227709727503</v>
+        <v>-0.6955444589373411</v>
       </c>
       <c r="Z32" t="n">
-        <v>-0.6607465343390839</v>
+        <v>-0.5816083519944112</v>
       </c>
       <c r="AA32" t="n">
-        <v>-0.4102347481159847</v>
+        <v>-0.4492646614230392</v>
       </c>
       <c r="AB32" t="n">
-        <v>-0.08672476539676868</v>
+        <v>-0.1698817987126038</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.1810067106536493</v>
+        <v>0.1656252349673253</v>
       </c>
       <c r="AD32" t="n">
-        <v>0.4823831781429523</v>
+        <v>0.4521783263441422</v>
       </c>
       <c r="AE32" t="n">
-        <v>0.8107191119278793</v>
+        <v>0.753088219246421</v>
       </c>
       <c r="AF32" t="n">
         <v>1</v>
       </c>
       <c r="AG32" t="n">
-        <v>0.8217506107952829</v>
+        <v>0.7598006425918515</v>
       </c>
       <c r="AH32" t="n">
-        <v>0.5365635533520833</v>
+        <v>0.426296877700805</v>
       </c>
       <c r="AI32" t="n">
-        <v>0.2049864390769394</v>
+        <v>0.1738384231190099</v>
       </c>
       <c r="AJ32" t="n">
-        <v>-0.1267597926462354</v>
+        <v>-0.08346470887494005</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>-0.2896356174677257</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>-0.4682020051289661</v>
       </c>
     </row>
     <row r="33">
@@ -3955,109 +4147,115 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.7094002897365331</v>
+        <v>0.7911653023861013</v>
       </c>
       <c r="C33" t="n">
-        <v>0.5987909141862203</v>
+        <v>0.6670484742242343</v>
       </c>
       <c r="D33" t="n">
-        <v>0.2191661252163233</v>
+        <v>0.4781458582386426</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.08816985436110079</v>
+        <v>0.2876729025828043</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.5053225048402321</v>
+        <v>-0.3278474562480087</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.7935715513774959</v>
+        <v>-0.7058390064353229</v>
       </c>
       <c r="H33" t="n">
-        <v>-0.8454236671874846</v>
+        <v>-0.7973368755666754</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.8385461319295405</v>
+        <v>-0.8044640237038885</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.7798228487328289</v>
+        <v>-0.7565775469087458</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.5412638064329184</v>
+        <v>-0.5442496670447408</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.3898503456874754</v>
+        <v>-0.358262172458534</v>
       </c>
       <c r="M33" t="n">
-        <v>-0.3219878294620189</v>
+        <v>-0.1918275484753681</v>
       </c>
       <c r="N33" t="n">
-        <v>-0.1955477014474589</v>
+        <v>0.0163034743203077</v>
       </c>
       <c r="O33" t="n">
-        <v>0.1221924320258294</v>
+        <v>0.1797604324803171</v>
       </c>
       <c r="P33" t="n">
-        <v>0.3954962268802871</v>
+        <v>0.1398277405983929</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.5793032376417138</v>
+        <v>0.3888075245084677</v>
       </c>
       <c r="R33" t="n">
-        <v>0.4480876539533177</v>
+        <v>0.4641047670713083</v>
       </c>
       <c r="S33" t="n">
-        <v>0.0142594806131035</v>
+        <v>0.2204026702051236</v>
       </c>
       <c r="T33" t="n">
-        <v>-0.3137775808303055</v>
+        <v>0.05541829368251085</v>
       </c>
       <c r="U33" t="n">
-        <v>-0.3876884839433521</v>
+        <v>0.08064652320026677</v>
       </c>
       <c r="V33" t="n">
-        <v>-0.4862235187708649</v>
+        <v>-0.1266979933253254</v>
       </c>
       <c r="W33" t="n">
-        <v>-0.6370998201217134</v>
+        <v>-0.4339236009837548</v>
       </c>
       <c r="X33" t="n">
-        <v>-0.769091153161781</v>
+        <v>-0.6762936398322109</v>
       </c>
       <c r="Y33" t="n">
-        <v>-0.8852704289886895</v>
+        <v>-0.8429130280330245</v>
       </c>
       <c r="Z33" t="n">
-        <v>-0.859028994046661</v>
+        <v>-0.8541679987044682</v>
       </c>
       <c r="AA33" t="n">
-        <v>-0.6566950103835291</v>
+        <v>-0.7558448376820818</v>
       </c>
       <c r="AB33" t="n">
-        <v>-0.4083669752225021</v>
+        <v>-0.5500462623153073</v>
       </c>
       <c r="AC33" t="n">
-        <v>-0.1747428324002452</v>
+        <v>-0.2479058406866445</v>
       </c>
       <c r="AD33" t="n">
-        <v>0.1641269657949689</v>
+        <v>0.05416038598574752</v>
       </c>
       <c r="AE33" t="n">
-        <v>0.502306281100134</v>
+        <v>0.3405390962077827</v>
       </c>
       <c r="AF33" t="n">
-        <v>0.8217506107952829</v>
+        <v>0.7598006425918514</v>
       </c>
       <c r="AG33" t="n">
         <v>1</v>
       </c>
       <c r="AH33" t="n">
-        <v>0.8259311066700927</v>
+        <v>0.8104839609026983</v>
       </c>
       <c r="AI33" t="n">
-        <v>0.509560299279418</v>
+        <v>0.5443603385402135</v>
       </c>
       <c r="AJ33" t="n">
-        <v>0.2237960266471429</v>
+        <v>0.3351741915573613</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>0.05843959510298767</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>-0.20936648873208</v>
       </c>
     </row>
     <row r="34">
@@ -4065,109 +4263,115 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.6893023204538372</v>
+        <v>0.7070702007491884</v>
       </c>
       <c r="C34" t="n">
-        <v>0.7502860034669728</v>
+        <v>0.8346827125846511</v>
       </c>
       <c r="D34" t="n">
-        <v>0.4591730565330712</v>
+        <v>0.6159251918414556</v>
       </c>
       <c r="E34" t="n">
-        <v>0.1593958777932545</v>
+        <v>0.5282344811469425</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.1427191097052166</v>
+        <v>0.06038304052304</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.5143944282382373</v>
+        <v>-0.4073940654185935</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.8300335277724258</v>
+        <v>-0.8075363056137074</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.8507334544207715</v>
+        <v>-0.8249735138555017</v>
       </c>
       <c r="J34" t="n">
-        <v>-0.868747217620202</v>
+        <v>-0.8621830498091895</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.7951814043883416</v>
+        <v>-0.798642714762813</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.6088205487964994</v>
+        <v>-0.6425455814780948</v>
       </c>
       <c r="M34" t="n">
-        <v>-0.5166597795181248</v>
+        <v>-0.4589653067646651</v>
       </c>
       <c r="N34" t="n">
-        <v>-0.4463496853076481</v>
+        <v>-0.3665576186757457</v>
       </c>
       <c r="O34" t="n">
-        <v>-0.208470064564224</v>
+        <v>-0.145069940405593</v>
       </c>
       <c r="P34" t="n">
-        <v>0.1802850342223194</v>
+        <v>-0.01848485708325191</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.4756660094052371</v>
+        <v>0.2663315106293466</v>
       </c>
       <c r="R34" t="n">
-        <v>0.5596931606972259</v>
+        <v>0.5271759158937905</v>
       </c>
       <c r="S34" t="n">
-        <v>0.3577589526216674</v>
+        <v>0.5270490106385889</v>
       </c>
       <c r="T34" t="n">
-        <v>-0.09535279404087113</v>
+        <v>0.1816679652407531</v>
       </c>
       <c r="U34" t="n">
-        <v>-0.3434075793763701</v>
+        <v>-0.05555301696609781</v>
       </c>
       <c r="V34" t="n">
-        <v>-0.3846219283583381</v>
+        <v>-0.2017418529926814</v>
       </c>
       <c r="W34" t="n">
-        <v>-0.4776025038023116</v>
+        <v>-0.3293987658914426</v>
       </c>
       <c r="X34" t="n">
-        <v>-0.6355860572333948</v>
+        <v>-0.5637637993114816</v>
       </c>
       <c r="Y34" t="n">
-        <v>-0.7886655230553105</v>
+        <v>-0.7644663830407742</v>
       </c>
       <c r="Z34" t="n">
-        <v>-0.9125861929843561</v>
+        <v>-0.8927310000522373</v>
       </c>
       <c r="AA34" t="n">
-        <v>-0.8578592910826469</v>
+        <v>-0.9103976909567908</v>
       </c>
       <c r="AB34" t="n">
-        <v>-0.6519964494219427</v>
+        <v>-0.7769410659174749</v>
       </c>
       <c r="AC34" t="n">
-        <v>-0.4455789474146131</v>
+        <v>-0.5379774666521511</v>
       </c>
       <c r="AD34" t="n">
-        <v>-0.1711317209013037</v>
+        <v>-0.2669620503825426</v>
       </c>
       <c r="AE34" t="n">
-        <v>0.2041889808545186</v>
+        <v>0.02823963566673723</v>
       </c>
       <c r="AF34" t="n">
-        <v>0.5365635533520833</v>
+        <v>0.426296877700805</v>
       </c>
       <c r="AG34" t="n">
-        <v>0.8259311066700928</v>
+        <v>0.8104839609026981</v>
       </c>
       <c r="AH34" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AI34" t="n">
-        <v>0.8138701872340596</v>
+        <v>0.8417270504944436</v>
       </c>
       <c r="AJ34" t="n">
-        <v>0.5130488529851901</v>
+        <v>0.6093201897092185</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>0.3817583067735519</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>0.04157770948098193</v>
       </c>
     </row>
     <row r="35">
@@ -4175,109 +4379,115 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.5544712082264762</v>
+        <v>0.5421776688279517</v>
       </c>
       <c r="C35" t="n">
-        <v>0.6980588864449968</v>
+        <v>0.7265765355400284</v>
       </c>
       <c r="D35" t="n">
-        <v>0.6769078310661322</v>
+        <v>0.7504401862234878</v>
       </c>
       <c r="E35" t="n">
-        <v>0.4416637087427868</v>
+        <v>0.6312608482682092</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1517551392401467</v>
+        <v>0.2337176030744575</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.1205306925672984</v>
+        <v>-0.08750456406332764</v>
       </c>
       <c r="H35" t="n">
-        <v>-0.519600818154183</v>
+        <v>-0.5728231946482049</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.79823557931352</v>
+        <v>-0.8356405477321972</v>
       </c>
       <c r="J35" t="n">
-        <v>-0.8391861293255353</v>
+        <v>-0.8612990846203836</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.8775403612503444</v>
+        <v>-0.8754363651580582</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.8152544194881526</v>
+        <v>-0.8502653142288363</v>
       </c>
       <c r="M35" t="n">
-        <v>-0.6916964480156921</v>
+        <v>-0.7066395916636996</v>
       </c>
       <c r="N35" t="n">
-        <v>-0.5693628619985686</v>
+        <v>-0.5962115284020297</v>
       </c>
       <c r="O35" t="n">
-        <v>-0.5047784422743274</v>
+        <v>-0.4988893017496673</v>
       </c>
       <c r="P35" t="n">
-        <v>-0.1978856403269897</v>
+        <v>-0.296257621705385</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.2157696383860555</v>
+        <v>0.1675883050844261</v>
       </c>
       <c r="R35" t="n">
-        <v>0.4752619912785838</v>
+        <v>0.4529161866879763</v>
       </c>
       <c r="S35" t="n">
-        <v>0.5322513764706643</v>
+        <v>0.5860374905402945</v>
       </c>
       <c r="T35" t="n">
-        <v>0.2789374407048816</v>
+        <v>0.4494945661160165</v>
       </c>
       <c r="U35" t="n">
-        <v>-0.07061447092530054</v>
+        <v>0.01891368033192804</v>
       </c>
       <c r="V35" t="n">
-        <v>-0.2271763372937852</v>
+        <v>-0.3110345766085616</v>
       </c>
       <c r="W35" t="n">
-        <v>-0.2825313481605296</v>
+        <v>-0.3889247440565554</v>
       </c>
       <c r="X35" t="n">
-        <v>-0.4045511121353075</v>
+        <v>-0.4968656116862932</v>
       </c>
       <c r="Y35" t="n">
-        <v>-0.581737844740208</v>
+        <v>-0.6681803194213566</v>
       </c>
       <c r="Z35" t="n">
-        <v>-0.7861599972892123</v>
+        <v>-0.8159698392998249</v>
       </c>
       <c r="AA35" t="n">
-        <v>-0.9249580506331136</v>
+        <v>-0.9250831220669203</v>
       </c>
       <c r="AB35" t="n">
-        <v>-0.8653974047002634</v>
+        <v>-0.8979226965468912</v>
       </c>
       <c r="AC35" t="n">
-        <v>-0.6872765665836111</v>
+        <v>-0.717030559905254</v>
       </c>
       <c r="AD35" t="n">
-        <v>-0.4847336638292347</v>
+        <v>-0.514217436868155</v>
       </c>
       <c r="AE35" t="n">
-        <v>-0.1777415108513312</v>
+        <v>-0.2587413603681381</v>
       </c>
       <c r="AF35" t="n">
-        <v>0.2049864390769394</v>
+        <v>0.1738384231190099</v>
       </c>
       <c r="AG35" t="n">
-        <v>0.5095602992794179</v>
+        <v>0.5443603385402135</v>
       </c>
       <c r="AH35" t="n">
-        <v>0.8138701872340596</v>
+        <v>0.8417270504944437</v>
       </c>
       <c r="AI35" t="n">
         <v>1</v>
       </c>
       <c r="AJ35" t="n">
-        <v>0.8372463774906237</v>
+        <v>0.8602916160418166</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>0.6131775379474286</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>0.3259352237848734</v>
       </c>
     </row>
     <row r="36">
@@ -4285,108 +4495,346 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.5203100468731471</v>
+        <v>0.53385588700485</v>
       </c>
       <c r="C36" t="n">
-        <v>0.4978503187260962</v>
+        <v>0.5224535731651491</v>
       </c>
       <c r="D36" t="n">
-        <v>0.6671927780643752</v>
+        <v>0.7049702828788037</v>
       </c>
       <c r="E36" t="n">
-        <v>0.6597705322887591</v>
+        <v>0.7375851798821625</v>
       </c>
       <c r="F36" t="n">
-        <v>0.4514295549931718</v>
+        <v>0.4583139597819183</v>
       </c>
       <c r="G36" t="n">
-        <v>0.1592286580098558</v>
+        <v>0.1094421458682983</v>
       </c>
       <c r="H36" t="n">
-        <v>-0.1885386567070492</v>
+        <v>-0.3256695401185223</v>
       </c>
       <c r="I36" t="n">
-        <v>-0.4803697479326687</v>
+        <v>-0.5832601091772268</v>
       </c>
       <c r="J36" t="n">
-        <v>-0.7380733365703936</v>
+        <v>-0.825629475445141</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.8253179290882875</v>
+        <v>-0.864629266246281</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.8112651972996459</v>
+        <v>-0.8685816781451177</v>
       </c>
       <c r="M36" t="n">
-        <v>-0.7672219266273753</v>
+        <v>-0.8561117818731429</v>
       </c>
       <c r="N36" t="n">
-        <v>-0.5894648538193267</v>
+        <v>-0.7043239801771534</v>
       </c>
       <c r="O36" t="n">
-        <v>-0.5311814762578591</v>
+        <v>-0.5712350505233796</v>
       </c>
       <c r="P36" t="n">
-        <v>-0.4411132395106913</v>
+        <v>-0.459540196421983</v>
       </c>
       <c r="Q36" t="n">
-        <v>-0.08538722500802749</v>
+        <v>-0.0315546476317126</v>
       </c>
       <c r="R36" t="n">
-        <v>0.2123820301524864</v>
+        <v>0.2277605527458048</v>
       </c>
       <c r="S36" t="n">
-        <v>0.514267962062949</v>
+        <v>0.5057386957479906</v>
       </c>
       <c r="T36" t="n">
-        <v>0.4777898503142286</v>
+        <v>0.5548350844153109</v>
       </c>
       <c r="U36" t="n">
-        <v>0.2590981234713108</v>
+        <v>0.2903903178622418</v>
       </c>
       <c r="V36" t="n">
-        <v>0.03774250412648771</v>
+        <v>-0.1210487213243942</v>
       </c>
       <c r="W36" t="n">
-        <v>-0.07865033591781141</v>
+        <v>-0.3404332108417452</v>
       </c>
       <c r="X36" t="n">
-        <v>-0.15822291693563</v>
+        <v>-0.371880731558733</v>
       </c>
       <c r="Y36" t="n">
-        <v>-0.2738380309598498</v>
+        <v>-0.444959252486533</v>
       </c>
       <c r="Z36" t="n">
-        <v>-0.5320699781264537</v>
+        <v>-0.6391922852486382</v>
       </c>
       <c r="AA36" t="n">
-        <v>-0.7788789337636149</v>
+        <v>-0.7924166272942881</v>
       </c>
       <c r="AB36" t="n">
-        <v>-0.927514176008214</v>
+        <v>-0.9294944359919213</v>
       </c>
       <c r="AC36" t="n">
-        <v>-0.8481217109129277</v>
+        <v>-0.8551009226037573</v>
       </c>
       <c r="AD36" t="n">
-        <v>-0.6629150925037935</v>
+        <v>-0.6585378341148914</v>
       </c>
       <c r="AE36" t="n">
-        <v>-0.434643373250868</v>
+        <v>-0.4350542709668801</v>
       </c>
       <c r="AF36" t="n">
-        <v>-0.1267597926462354</v>
+        <v>-0.08346470887494005</v>
       </c>
       <c r="AG36" t="n">
-        <v>0.2237960266471428</v>
+        <v>0.3351741915573613</v>
       </c>
       <c r="AH36" t="n">
-        <v>0.5130488529851901</v>
+        <v>0.6093201897092186</v>
       </c>
       <c r="AI36" t="n">
-        <v>0.8372463774906236</v>
+        <v>0.8602916160418167</v>
       </c>
       <c r="AJ36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>0.8384538764253494</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>0.5168816132395815</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.427578895078721</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.4735060006966387</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.5292283524873211</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.6739953243388801</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.7014295379568684</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.4012474448441879</v>
+      </c>
+      <c r="H37" t="n">
+        <v>-0.1316307590551252</v>
+      </c>
+      <c r="I37" t="n">
+        <v>-0.281603101631527</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-0.517257183424654</v>
+      </c>
+      <c r="K37" t="n">
+        <v>-0.8202680079538992</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-0.8150405926523218</v>
+      </c>
+      <c r="M37" t="n">
+        <v>-0.8279644020745691</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-0.7725121464060928</v>
+      </c>
+      <c r="O37" t="n">
+        <v>-0.5698961890879665</v>
+      </c>
+      <c r="P37" t="n">
+        <v>-0.391404524026977</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>-0.1754259293408275</v>
+      </c>
+      <c r="R37" t="n">
+        <v>-0.08294854774336555</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0.2487090775242477</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0.5162507675208033</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0.4458947252674373</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0.2360566792535313</v>
+      </c>
+      <c r="W37" t="n">
+        <v>-0.0504758459153908</v>
+      </c>
+      <c r="X37" t="n">
+        <v>-0.1812302580120129</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>-0.1753527086959021</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>-0.3298453933283905</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>-0.5498713718071608</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>-0.8017863486140552</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>-0.9239418246347756</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>-0.8127534936980906</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>-0.560090849296306</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>-0.2896356174677257</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>0.05843959510298766</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>0.3817583067735519</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>0.6131775379474285</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>0.8384538764253495</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>0.7797934114279057</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.001871980243348014</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.3124351079353112</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.4870172231763293</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.4414661353053433</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.7315986026889431</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.7250418193524102</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.2408592567387552</v>
+      </c>
+      <c r="I38" t="n">
+        <v>-0.01252517178048065</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-0.1251178498730414</v>
+      </c>
+      <c r="K38" t="n">
+        <v>-0.4402919636237196</v>
+      </c>
+      <c r="L38" t="n">
+        <v>-0.7185577059135885</v>
+      </c>
+      <c r="M38" t="n">
+        <v>-0.7187236172500235</v>
+      </c>
+      <c r="N38" t="n">
+        <v>-0.6546367058847664</v>
+      </c>
+      <c r="O38" t="n">
+        <v>-0.5741106787482904</v>
+      </c>
+      <c r="P38" t="n">
+        <v>-0.288744540575447</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>-0.04282295848644243</v>
+      </c>
+      <c r="R38" t="n">
+        <v>-0.325731197164965</v>
+      </c>
+      <c r="S38" t="n">
+        <v>-0.1351007506843416</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0.2378995364516171</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0.4417589788283577</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0.4835132316861375</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0.3838269730259045</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0.1776238786246694</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0.1245675406994382</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>0.03300548301836748</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>-0.1487639796135689</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>-0.5055325779574811</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>-0.7795699637858989</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>-0.8986177599293154</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>-0.740734319099224</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>-0.4682020051289661</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>-0.20936648873208</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>0.04157770948098193</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>0.3259352237848734</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>0.5168816132395815</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>0.7797934114279057</v>
+      </c>
+      <c r="AL38" t="n">
         <v>1</v>
       </c>
     </row>
